--- a/docs/content_history/pbr-2025-vm20-table-f-g-current-spreads.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-f-g-current-spreads.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6373A-1A56-4ED1-8093-6C1597467A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7157A-1933-4697-B3E6-4FD0D2B3FFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="July_2025" sheetId="18" r:id="rId1"/>
-    <sheet name="June_2025" sheetId="17" r:id="rId2"/>
-    <sheet name="May_2025" sheetId="16" r:id="rId3"/>
-    <sheet name="April_2025" sheetId="15" r:id="rId4"/>
-    <sheet name="March_2025" sheetId="14" r:id="rId5"/>
-    <sheet name="February_2025" sheetId="13" r:id="rId6"/>
-    <sheet name="January_2025" sheetId="12" r:id="rId7"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId8"/>
+    <sheet name="August_2025" sheetId="19" r:id="rId1"/>
+    <sheet name="July_2025" sheetId="18" r:id="rId2"/>
+    <sheet name="June_2025" sheetId="17" r:id="rId3"/>
+    <sheet name="May_2025" sheetId="16" r:id="rId4"/>
+    <sheet name="April_2025" sheetId="15" r:id="rId5"/>
+    <sheet name="March_2025" sheetId="14" r:id="rId6"/>
+    <sheet name="February_2025" sheetId="13" r:id="rId7"/>
+    <sheet name="January_2025" sheetId="12" r:id="rId8"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="42">
   <si>
     <t>Table F (01/31/2025)  Investment Grade Current Benchmark Spreads (in bps)</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>Table G. (07/31/2025) Below Investment Grade Current Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table F (08/29/2025)  Investment Grade Current Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table G. (08/29/2025) Below Investment Grade Current Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +429,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,18 +750,2344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E35BE4-EF70-41CF-AF12-CCB5BAE8DA8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4309D126-3EDC-42ED-80DF-A34F95A07E6E}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
-    <col min="13" max="23" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>14</v>
+      </c>
+      <c r="R3" s="5">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5">
+        <v>17</v>
+      </c>
+      <c r="U3" s="5">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5">
+        <v>19</v>
+      </c>
+      <c r="W3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="C5" s="8">
+        <v>11.97</v>
+      </c>
+      <c r="D5" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>27.41</v>
+      </c>
+      <c r="F5" s="8">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40.04</v>
+      </c>
+      <c r="H5" s="8">
+        <v>47.21</v>
+      </c>
+      <c r="I5" s="8">
+        <v>54.39</v>
+      </c>
+      <c r="J5" s="8">
+        <v>61.56</v>
+      </c>
+      <c r="K5" s="8">
+        <v>105.87</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O5" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P5" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R5" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S5" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T5" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U5" s="8">
+        <v>788</v>
+      </c>
+      <c r="V5" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>11.26</v>
+      </c>
+      <c r="C6" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>27.75</v>
+      </c>
+      <c r="E6" s="8">
+        <v>34.19</v>
+      </c>
+      <c r="F6" s="8">
+        <v>40.64</v>
+      </c>
+      <c r="G6" s="8">
+        <v>47.08</v>
+      </c>
+      <c r="H6" s="8">
+        <v>55.14</v>
+      </c>
+      <c r="I6" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>71.25</v>
+      </c>
+      <c r="K6" s="8">
+        <v>110.72</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O6" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P6" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R6" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S6" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T6" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U6" s="8">
+        <v>788</v>
+      </c>
+      <c r="V6" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>27.04</v>
+      </c>
+      <c r="D7" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40.97</v>
+      </c>
+      <c r="F7" s="8">
+        <v>47.55</v>
+      </c>
+      <c r="G7" s="8">
+        <v>54.12</v>
+      </c>
+      <c r="H7" s="8">
+        <v>63.06</v>
+      </c>
+      <c r="I7" s="8">
+        <v>72.010000000000005</v>
+      </c>
+      <c r="J7" s="8">
+        <v>80.95</v>
+      </c>
+      <c r="K7" s="8">
+        <v>115.56</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O7" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P7" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R7" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S7" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T7" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U7" s="8">
+        <v>788</v>
+      </c>
+      <c r="V7" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>28.11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>34.58</v>
+      </c>
+      <c r="D8" s="8">
+        <v>41.05</v>
+      </c>
+      <c r="E8" s="8">
+        <v>47.75</v>
+      </c>
+      <c r="F8" s="8">
+        <v>54.46</v>
+      </c>
+      <c r="G8" s="8">
+        <v>61.16</v>
+      </c>
+      <c r="H8" s="8">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="I8" s="8">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="J8" s="8">
+        <v>90.65</v>
+      </c>
+      <c r="K8" s="8">
+        <v>120.41</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O8" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P8" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R8" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S8" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T8" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U8" s="8">
+        <v>788</v>
+      </c>
+      <c r="V8" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>29.04</v>
+      </c>
+      <c r="C9" s="8">
+        <v>36.22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43.41</v>
+      </c>
+      <c r="E9" s="8">
+        <v>51.39</v>
+      </c>
+      <c r="F9" s="8">
+        <v>59.37</v>
+      </c>
+      <c r="G9" s="8">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="H9" s="8">
+        <v>77.52</v>
+      </c>
+      <c r="I9" s="8">
+        <v>87.69</v>
+      </c>
+      <c r="J9" s="8">
+        <v>97.85</v>
+      </c>
+      <c r="K9" s="8">
+        <v>124.02</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O9" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P9" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R9" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S9" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T9" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U9" s="8">
+        <v>788</v>
+      </c>
+      <c r="V9" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>29.97</v>
+      </c>
+      <c r="C10" s="8">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45.76</v>
+      </c>
+      <c r="E10" s="8">
+        <v>55.02</v>
+      </c>
+      <c r="F10" s="8">
+        <v>64.28</v>
+      </c>
+      <c r="G10" s="8">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="H10" s="8">
+        <v>84.05</v>
+      </c>
+      <c r="I10" s="8">
+        <v>94.55</v>
+      </c>
+      <c r="J10" s="8">
+        <v>105.06</v>
+      </c>
+      <c r="K10" s="8">
+        <v>127.62</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O10" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P10" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R10" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S10" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T10" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U10" s="8">
+        <v>788</v>
+      </c>
+      <c r="V10" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>29.04</v>
+      </c>
+      <c r="C11" s="8">
+        <v>39.11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>49.18</v>
+      </c>
+      <c r="E11" s="8">
+        <v>58.51</v>
+      </c>
+      <c r="F11" s="8">
+        <v>67.83</v>
+      </c>
+      <c r="G11" s="8">
+        <v>77.16</v>
+      </c>
+      <c r="H11" s="8">
+        <v>87.73</v>
+      </c>
+      <c r="I11" s="8">
+        <v>98.31</v>
+      </c>
+      <c r="J11" s="8">
+        <v>108.89</v>
+      </c>
+      <c r="K11" s="8">
+        <v>129.53</v>
+      </c>
+      <c r="M11" s="9">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O11" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P11" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R11" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S11" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T11" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U11" s="8">
+        <v>788</v>
+      </c>
+      <c r="V11" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>28.11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>40.36</v>
+      </c>
+      <c r="D12" s="8">
+        <v>52.6</v>
+      </c>
+      <c r="E12" s="8">
+        <v>61.99</v>
+      </c>
+      <c r="F12" s="8">
+        <v>71.38</v>
+      </c>
+      <c r="G12" s="8">
+        <v>80.77</v>
+      </c>
+      <c r="H12" s="8">
+        <v>91.42</v>
+      </c>
+      <c r="I12" s="8">
+        <v>102.07</v>
+      </c>
+      <c r="J12" s="8">
+        <v>112.72</v>
+      </c>
+      <c r="K12" s="8">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="M12" s="9">
+        <v>8</v>
+      </c>
+      <c r="N12" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O12" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P12" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R12" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S12" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T12" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U12" s="8">
+        <v>788</v>
+      </c>
+      <c r="V12" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>27.18</v>
+      </c>
+      <c r="C13" s="8">
+        <v>41.6</v>
+      </c>
+      <c r="D13" s="8">
+        <v>56.02</v>
+      </c>
+      <c r="E13" s="8">
+        <v>65.48</v>
+      </c>
+      <c r="F13" s="8">
+        <v>74.94</v>
+      </c>
+      <c r="G13" s="8">
+        <v>84.39</v>
+      </c>
+      <c r="H13" s="8">
+        <v>95.11</v>
+      </c>
+      <c r="I13" s="8">
+        <v>105.83</v>
+      </c>
+      <c r="J13" s="8">
+        <v>116.55</v>
+      </c>
+      <c r="K13" s="8">
+        <v>133.36000000000001</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O13" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P13" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R13" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S13" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T13" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U13" s="8">
+        <v>788</v>
+      </c>
+      <c r="V13" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>27.89</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42.16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>56.43</v>
+      </c>
+      <c r="E14" s="8">
+        <v>65.63</v>
+      </c>
+      <c r="F14" s="8">
+        <v>74.84</v>
+      </c>
+      <c r="G14" s="8">
+        <v>84.05</v>
+      </c>
+      <c r="H14" s="8">
+        <v>94.96</v>
+      </c>
+      <c r="I14" s="8">
+        <v>105.88</v>
+      </c>
+      <c r="J14" s="8">
+        <v>116.79</v>
+      </c>
+      <c r="K14" s="8">
+        <v>133.47999999999999</v>
+      </c>
+      <c r="M14" s="9">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O14" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P14" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R14" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S14" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T14" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U14" s="8">
+        <v>788</v>
+      </c>
+      <c r="V14" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W14" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>28.59</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42.71</v>
+      </c>
+      <c r="D15" s="8">
+        <v>56.83</v>
+      </c>
+      <c r="E15" s="8">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="F15" s="8">
+        <v>74.75</v>
+      </c>
+      <c r="G15" s="8">
+        <v>83.7</v>
+      </c>
+      <c r="H15" s="8">
+        <v>94.81</v>
+      </c>
+      <c r="I15" s="8">
+        <v>105.92</v>
+      </c>
+      <c r="J15" s="8">
+        <v>117.03</v>
+      </c>
+      <c r="K15" s="8">
+        <v>133.6</v>
+      </c>
+      <c r="M15" s="9">
+        <v>11</v>
+      </c>
+      <c r="N15" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O15" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P15" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R15" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S15" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T15" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U15" s="8">
+        <v>788</v>
+      </c>
+      <c r="V15" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>29.3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43.27</v>
+      </c>
+      <c r="D16" s="8">
+        <v>57.24</v>
+      </c>
+      <c r="E16" s="8">
+        <v>65.94</v>
+      </c>
+      <c r="F16" s="8">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="G16" s="8">
+        <v>83.36</v>
+      </c>
+      <c r="H16" s="8">
+        <v>94.66</v>
+      </c>
+      <c r="I16" s="8">
+        <v>105.97</v>
+      </c>
+      <c r="J16" s="8">
+        <v>117.27</v>
+      </c>
+      <c r="K16" s="8">
+        <v>133.72</v>
+      </c>
+      <c r="M16" s="9">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O16" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P16" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R16" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S16" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T16" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U16" s="8">
+        <v>788</v>
+      </c>
+      <c r="V16" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>30.01</v>
+      </c>
+      <c r="C17" s="8">
+        <v>43.83</v>
+      </c>
+      <c r="D17" s="8">
+        <v>57.64</v>
+      </c>
+      <c r="E17" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="F17" s="8">
+        <v>74.56</v>
+      </c>
+      <c r="G17" s="8">
+        <v>83.01</v>
+      </c>
+      <c r="H17" s="8">
+        <v>94.51</v>
+      </c>
+      <c r="I17" s="8">
+        <v>106.01</v>
+      </c>
+      <c r="J17" s="8">
+        <v>117.51</v>
+      </c>
+      <c r="K17" s="8">
+        <v>133.84</v>
+      </c>
+      <c r="M17" s="9">
+        <v>13</v>
+      </c>
+      <c r="N17" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O17" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P17" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R17" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S17" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T17" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U17" s="8">
+        <v>788</v>
+      </c>
+      <c r="V17" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>30.72</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44.38</v>
+      </c>
+      <c r="D18" s="8">
+        <v>58.05</v>
+      </c>
+      <c r="E18" s="8">
+        <v>66.260000000000005</v>
+      </c>
+      <c r="F18" s="8">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="G18" s="8">
+        <v>82.67</v>
+      </c>
+      <c r="H18" s="8">
+        <v>94.36</v>
+      </c>
+      <c r="I18" s="8">
+        <v>106.06</v>
+      </c>
+      <c r="J18" s="8">
+        <v>117.75</v>
+      </c>
+      <c r="K18" s="8">
+        <v>133.97</v>
+      </c>
+      <c r="M18" s="9">
+        <v>14</v>
+      </c>
+      <c r="N18" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O18" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P18" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R18" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S18" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T18" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U18" s="8">
+        <v>788</v>
+      </c>
+      <c r="V18" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>31.43</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44.94</v>
+      </c>
+      <c r="D19" s="8">
+        <v>58.45</v>
+      </c>
+      <c r="E19" s="8">
+        <v>66.41</v>
+      </c>
+      <c r="F19" s="8">
+        <v>74.37</v>
+      </c>
+      <c r="G19" s="8">
+        <v>82.33</v>
+      </c>
+      <c r="H19" s="8">
+        <v>94.22</v>
+      </c>
+      <c r="I19" s="8">
+        <v>106.11</v>
+      </c>
+      <c r="J19" s="8">
+        <v>118</v>
+      </c>
+      <c r="K19" s="8">
+        <v>134.09</v>
+      </c>
+      <c r="M19" s="9">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O19" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P19" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R19" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S19" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T19" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U19" s="8">
+        <v>788</v>
+      </c>
+      <c r="V19" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="C20" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>58.86</v>
+      </c>
+      <c r="E20" s="8">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="F20" s="8">
+        <v>74.27</v>
+      </c>
+      <c r="G20" s="8">
+        <v>81.98</v>
+      </c>
+      <c r="H20" s="8">
+        <v>94.07</v>
+      </c>
+      <c r="I20" s="8">
+        <v>106.15</v>
+      </c>
+      <c r="J20" s="8">
+        <v>118.24</v>
+      </c>
+      <c r="K20" s="8">
+        <v>134.21</v>
+      </c>
+      <c r="M20" s="9">
+        <v>16</v>
+      </c>
+      <c r="N20" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O20" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P20" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R20" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S20" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T20" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U20" s="8">
+        <v>788</v>
+      </c>
+      <c r="V20" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="C21" s="8">
+        <v>46.05</v>
+      </c>
+      <c r="D21" s="8">
+        <v>59.26</v>
+      </c>
+      <c r="E21" s="8">
+        <v>66.72</v>
+      </c>
+      <c r="F21" s="8">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="G21" s="8">
+        <v>81.64</v>
+      </c>
+      <c r="H21" s="8">
+        <v>93.92</v>
+      </c>
+      <c r="I21" s="8">
+        <v>106.2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>118.48</v>
+      </c>
+      <c r="K21" s="8">
+        <v>134.33000000000001</v>
+      </c>
+      <c r="M21" s="9">
+        <v>17</v>
+      </c>
+      <c r="N21" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O21" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P21" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R21" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S21" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T21" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U21" s="8">
+        <v>788</v>
+      </c>
+      <c r="V21" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="C22" s="8">
+        <v>46.61</v>
+      </c>
+      <c r="D22" s="8">
+        <v>59.67</v>
+      </c>
+      <c r="E22" s="8">
+        <v>66.88</v>
+      </c>
+      <c r="F22" s="8">
+        <v>74.08</v>
+      </c>
+      <c r="G22" s="8">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="H22" s="8">
+        <v>93.77</v>
+      </c>
+      <c r="I22" s="8">
+        <v>106.24</v>
+      </c>
+      <c r="J22" s="8">
+        <v>118.72</v>
+      </c>
+      <c r="K22" s="8">
+        <v>134.44999999999999</v>
+      </c>
+      <c r="M22" s="9">
+        <v>18</v>
+      </c>
+      <c r="N22" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O22" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P22" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R22" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S22" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T22" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U22" s="8">
+        <v>788</v>
+      </c>
+      <c r="V22" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>34.26</v>
+      </c>
+      <c r="C23" s="8">
+        <v>47.17</v>
+      </c>
+      <c r="D23" s="8">
+        <v>60.07</v>
+      </c>
+      <c r="E23" s="8">
+        <v>67.03</v>
+      </c>
+      <c r="F23" s="8">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="G23" s="8">
+        <v>80.95</v>
+      </c>
+      <c r="H23" s="8">
+        <v>93.62</v>
+      </c>
+      <c r="I23" s="8">
+        <v>106.29</v>
+      </c>
+      <c r="J23" s="8">
+        <v>118.96</v>
+      </c>
+      <c r="K23" s="8">
+        <v>134.57</v>
+      </c>
+      <c r="M23" s="9">
+        <v>19</v>
+      </c>
+      <c r="N23" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O23" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P23" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R23" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S23" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T23" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U23" s="8">
+        <v>788</v>
+      </c>
+      <c r="V23" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>34.97</v>
+      </c>
+      <c r="C24" s="8">
+        <v>47.72</v>
+      </c>
+      <c r="D24" s="8">
+        <v>60.48</v>
+      </c>
+      <c r="E24" s="8">
+        <v>67.19</v>
+      </c>
+      <c r="F24" s="8">
+        <v>73.89</v>
+      </c>
+      <c r="G24" s="8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H24" s="8">
+        <v>93.47</v>
+      </c>
+      <c r="I24" s="8">
+        <v>106.33</v>
+      </c>
+      <c r="J24" s="8">
+        <v>119.2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>134.69</v>
+      </c>
+      <c r="M24" s="9">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O24" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P24" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R24" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S24" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T24" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U24" s="8">
+        <v>788</v>
+      </c>
+      <c r="V24" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>35.67</v>
+      </c>
+      <c r="C25" s="8">
+        <v>48.28</v>
+      </c>
+      <c r="D25" s="8">
+        <v>60.88</v>
+      </c>
+      <c r="E25" s="8">
+        <v>67.34</v>
+      </c>
+      <c r="F25" s="8">
+        <v>73.8</v>
+      </c>
+      <c r="G25" s="8">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="H25" s="8">
+        <v>93.32</v>
+      </c>
+      <c r="I25" s="8">
+        <v>106.38</v>
+      </c>
+      <c r="J25" s="8">
+        <v>119.44</v>
+      </c>
+      <c r="K25" s="8">
+        <v>134.81</v>
+      </c>
+      <c r="M25" s="9">
+        <v>21</v>
+      </c>
+      <c r="N25" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O25" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P25" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R25" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S25" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T25" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U25" s="8">
+        <v>788</v>
+      </c>
+      <c r="V25" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="C26" s="8">
+        <v>48.84</v>
+      </c>
+      <c r="D26" s="8">
+        <v>61.29</v>
+      </c>
+      <c r="E26" s="8">
+        <v>67.5</v>
+      </c>
+      <c r="F26" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="G26" s="8">
+        <v>79.91</v>
+      </c>
+      <c r="H26" s="8">
+        <v>93.17</v>
+      </c>
+      <c r="I26" s="8">
+        <v>106.43</v>
+      </c>
+      <c r="J26" s="8">
+        <v>119.68</v>
+      </c>
+      <c r="K26" s="8">
+        <v>134.93</v>
+      </c>
+      <c r="M26" s="9">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O26" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P26" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R26" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S26" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T26" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U26" s="8">
+        <v>788</v>
+      </c>
+      <c r="V26" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="C27" s="8">
+        <v>49.39</v>
+      </c>
+      <c r="D27" s="8">
+        <v>61.69</v>
+      </c>
+      <c r="E27" s="8">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="F27" s="8">
+        <v>73.61</v>
+      </c>
+      <c r="G27" s="8">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="H27" s="8">
+        <v>93.02</v>
+      </c>
+      <c r="I27" s="8">
+        <v>106.47</v>
+      </c>
+      <c r="J27" s="8">
+        <v>119.92</v>
+      </c>
+      <c r="K27" s="8">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="M27" s="9">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O27" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P27" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R27" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S27" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T27" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U27" s="8">
+        <v>788</v>
+      </c>
+      <c r="V27" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C28" s="8">
+        <v>49.95</v>
+      </c>
+      <c r="D28" s="8">
+        <v>62.1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>67.81</v>
+      </c>
+      <c r="F28" s="8">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="G28" s="8">
+        <v>79.22</v>
+      </c>
+      <c r="H28" s="8">
+        <v>92.87</v>
+      </c>
+      <c r="I28" s="8">
+        <v>106.52</v>
+      </c>
+      <c r="J28" s="8">
+        <v>120.17</v>
+      </c>
+      <c r="K28" s="8">
+        <v>135.16999999999999</v>
+      </c>
+      <c r="M28" s="9">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O28" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P28" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R28" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S28" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T28" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U28" s="8">
+        <v>788</v>
+      </c>
+      <c r="V28" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>38.51</v>
+      </c>
+      <c r="C29" s="8">
+        <v>50.5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="E29" s="8">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="F29" s="8">
+        <v>73.42</v>
+      </c>
+      <c r="G29" s="8">
+        <v>78.88</v>
+      </c>
+      <c r="H29" s="8">
+        <v>92.72</v>
+      </c>
+      <c r="I29" s="8">
+        <v>106.56</v>
+      </c>
+      <c r="J29" s="8">
+        <v>120.41</v>
+      </c>
+      <c r="K29" s="8">
+        <v>135.29</v>
+      </c>
+      <c r="M29" s="9">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O29" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P29" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R29" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S29" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T29" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U29" s="8">
+        <v>788</v>
+      </c>
+      <c r="V29" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W29" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>39.21</v>
+      </c>
+      <c r="C30" s="8">
+        <v>51.06</v>
+      </c>
+      <c r="D30" s="8">
+        <v>62.91</v>
+      </c>
+      <c r="E30" s="8">
+        <v>68.12</v>
+      </c>
+      <c r="F30" s="8">
+        <v>73.33</v>
+      </c>
+      <c r="G30" s="8">
+        <v>78.53</v>
+      </c>
+      <c r="H30" s="8">
+        <v>92.57</v>
+      </c>
+      <c r="I30" s="8">
+        <v>106.61</v>
+      </c>
+      <c r="J30" s="8">
+        <v>120.65</v>
+      </c>
+      <c r="K30" s="8">
+        <v>135.41</v>
+      </c>
+      <c r="M30" s="9">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O30" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P30" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R30" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S30" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T30" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U30" s="8">
+        <v>788</v>
+      </c>
+      <c r="V30" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>39.92</v>
+      </c>
+      <c r="C31" s="8">
+        <v>51.62</v>
+      </c>
+      <c r="D31" s="8">
+        <v>63.31</v>
+      </c>
+      <c r="E31" s="8">
+        <v>68.27</v>
+      </c>
+      <c r="F31" s="8">
+        <v>73.23</v>
+      </c>
+      <c r="G31" s="8">
+        <v>78.19</v>
+      </c>
+      <c r="H31" s="8">
+        <v>92.42</v>
+      </c>
+      <c r="I31" s="8">
+        <v>106.66</v>
+      </c>
+      <c r="J31" s="8">
+        <v>120.89</v>
+      </c>
+      <c r="K31" s="8">
+        <v>135.53</v>
+      </c>
+      <c r="M31" s="9">
+        <v>27</v>
+      </c>
+      <c r="N31" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O31" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P31" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R31" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S31" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T31" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U31" s="8">
+        <v>788</v>
+      </c>
+      <c r="V31" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="C32" s="8">
+        <v>52.17</v>
+      </c>
+      <c r="D32" s="8">
+        <v>63.72</v>
+      </c>
+      <c r="E32" s="8">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="F32" s="8">
+        <v>73.14</v>
+      </c>
+      <c r="G32" s="8">
+        <v>77.84</v>
+      </c>
+      <c r="H32" s="8">
+        <v>92.27</v>
+      </c>
+      <c r="I32" s="8">
+        <v>106.7</v>
+      </c>
+      <c r="J32" s="8">
+        <v>121.13</v>
+      </c>
+      <c r="K32" s="8">
+        <v>135.65</v>
+      </c>
+      <c r="M32" s="9">
+        <v>28</v>
+      </c>
+      <c r="N32" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O32" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P32" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R32" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S32" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T32" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U32" s="8">
+        <v>788</v>
+      </c>
+      <c r="V32" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>41.34</v>
+      </c>
+      <c r="C33" s="8">
+        <v>52.73</v>
+      </c>
+      <c r="D33" s="8">
+        <v>64.12</v>
+      </c>
+      <c r="E33" s="8">
+        <v>68.58</v>
+      </c>
+      <c r="F33" s="8">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="G33" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="H33" s="8">
+        <v>92.12</v>
+      </c>
+      <c r="I33" s="8">
+        <v>106.75</v>
+      </c>
+      <c r="J33" s="8">
+        <v>121.37</v>
+      </c>
+      <c r="K33" s="8">
+        <v>135.77000000000001</v>
+      </c>
+      <c r="M33" s="9">
+        <v>29</v>
+      </c>
+      <c r="N33" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O33" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P33" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R33" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S33" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T33" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U33" s="8">
+        <v>788</v>
+      </c>
+      <c r="V33" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>42.05</v>
+      </c>
+      <c r="C34" s="8">
+        <v>53.29</v>
+      </c>
+      <c r="D34" s="8">
+        <v>64.53</v>
+      </c>
+      <c r="E34" s="8">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="F34" s="8">
+        <v>72.95</v>
+      </c>
+      <c r="G34" s="8">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="H34" s="8">
+        <v>91.97</v>
+      </c>
+      <c r="I34" s="8">
+        <v>106.79</v>
+      </c>
+      <c r="J34" s="8">
+        <v>121.61</v>
+      </c>
+      <c r="K34" s="8">
+        <v>135.88999999999999</v>
+      </c>
+      <c r="M34" s="9">
+        <v>30</v>
+      </c>
+      <c r="N34" s="8">
+        <v>150.18</v>
+      </c>
+      <c r="O34" s="8">
+        <v>192.58</v>
+      </c>
+      <c r="P34" s="8">
+        <v>234.98</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>277.39</v>
+      </c>
+      <c r="R34" s="8">
+        <v>319.79000000000002</v>
+      </c>
+      <c r="S34" s="8">
+        <v>475.86</v>
+      </c>
+      <c r="T34" s="8">
+        <v>631.92999999999995</v>
+      </c>
+      <c r="U34" s="8">
+        <v>788</v>
+      </c>
+      <c r="V34" s="8">
+        <v>944.07</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1100.1400000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>31.317333333333334</v>
+      </c>
+      <c r="C35" s="8">
+        <v>43.013999999999996</v>
+      </c>
+      <c r="D35" s="8">
+        <v>54.71</v>
+      </c>
+      <c r="E35" s="8">
+        <v>61.787666666666652</v>
+      </c>
+      <c r="F35" s="8">
+        <v>68.865000000000009</v>
+      </c>
+      <c r="G35" s="8">
+        <v>75.941333333333347</v>
+      </c>
+      <c r="H35" s="8">
+        <v>87.834999999999994</v>
+      </c>
+      <c r="I35" s="8">
+        <v>99.729999999999976</v>
+      </c>
+      <c r="J35" s="8">
+        <v>111.62333333333332</v>
+      </c>
+      <c r="K35" s="8">
+        <v>130.89966666666666</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="10">
+        <v>150.17999999999995</v>
+      </c>
+      <c r="O35" s="10">
+        <v>192.57999999999996</v>
+      </c>
+      <c r="P35" s="10">
+        <v>234.97999999999982</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>277.3900000000001</v>
+      </c>
+      <c r="R35" s="10">
+        <v>319.79000000000013</v>
+      </c>
+      <c r="S35" s="10">
+        <v>475.86000000000018</v>
+      </c>
+      <c r="T35" s="10">
+        <v>631.93000000000018</v>
+      </c>
+      <c r="U35" s="10">
+        <v>788</v>
+      </c>
+      <c r="V35" s="10">
+        <v>944.06999999999982</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1100.1399999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="N2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E35BE4-EF70-41CF-AF12-CCB5BAE8DA8A}">
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -782,7 +3115,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -814,7 +3147,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -882,7 +3215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -950,7 +3283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1018,7 +3351,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1086,7 +3419,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1154,7 +3487,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1222,7 +3555,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1290,7 +3623,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1358,7 +3691,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1426,7 +3759,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1494,7 +3827,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1562,7 +3895,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -1630,7 +3963,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -1698,7 +4031,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -1766,7 +4099,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -1834,7 +4167,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -1902,7 +4235,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -1970,7 +4303,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -2038,7 +4371,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -2106,7 +4439,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -2174,7 +4507,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -2242,7 +4575,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -2310,7 +4643,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -2378,7 +4711,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -2446,7 +4779,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -2514,7 +4847,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -2582,7 +4915,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -2650,7 +4983,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -2718,7 +5051,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -2786,7 +5119,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -2854,7 +5187,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -2922,7 +5255,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -2990,7 +5323,7 @@
         <v>1157.77</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +5401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB5B8B-0B3D-4D0C-9E6D-ACD327AE1B1B}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -3076,13 +5409,13 @@
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="13" max="23" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3110,7 +5443,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3142,7 +5475,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +5543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +5611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3346,7 +5679,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3414,7 +5747,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3482,7 +5815,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3550,7 +5883,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3618,7 +5951,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3686,7 +6019,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3754,7 +6087,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -3822,7 +6155,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -3890,7 +6223,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -3958,7 +6291,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -4026,7 +6359,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -4094,7 +6427,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -4162,7 +6495,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -4230,7 +6563,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -4298,7 +6631,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -4366,7 +6699,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -4434,7 +6767,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -4502,7 +6835,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -4570,7 +6903,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -4638,7 +6971,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -4706,7 +7039,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -4774,7 +7107,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -4842,7 +7175,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -4910,7 +7243,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -4978,7 +7311,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -5046,7 +7379,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -5114,7 +7447,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -5182,7 +7515,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -5250,7 +7583,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -5318,7 +7651,7 @@
         <v>1252.26</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -5396,19 +7729,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FC35AE-E973-4CF9-9AE2-82A811E5E874}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="13" max="23" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -5436,7 +7769,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +7801,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -5536,7 +7869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +7937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5672,7 +8005,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5740,7 +8073,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5808,7 +8141,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5876,7 +8209,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -5944,7 +8277,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -6012,7 +8345,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -6080,7 +8413,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -6148,7 +8481,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -6216,7 +8549,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -6284,7 +8617,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -6352,7 +8685,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -6420,7 +8753,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -6488,7 +8821,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -6556,7 +8889,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -6624,7 +8957,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -6692,7 +9025,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -6760,7 +9093,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -6828,7 +9161,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -6896,7 +9229,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -6964,7 +9297,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -7032,7 +9365,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -7100,7 +9433,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -7168,7 +9501,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -7236,7 +9569,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -7304,7 +9637,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -7372,7 +9705,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -7440,7 +9773,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -7508,7 +9841,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -7576,7 +9909,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -7644,7 +9977,7 @@
         <v>1244.73</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -7722,19 +10055,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC8FFAC-4FD7-4739-8182-E5754BE58F0D}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="13" max="23" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -7762,7 +10095,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7794,7 +10127,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -7862,7 +10195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7930,7 +10263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -7998,7 +10331,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8066,7 +10399,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -8134,7 +10467,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -8202,7 +10535,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -8270,7 +10603,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -8338,7 +10671,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -8406,7 +10739,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -8474,7 +10807,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -8542,7 +10875,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -8610,7 +10943,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -8678,7 +11011,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -8746,7 +11079,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -8814,7 +11147,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -8882,7 +11215,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -8950,7 +11283,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -9018,7 +11351,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -9086,7 +11419,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -9154,7 +11487,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -9222,7 +11555,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -9290,7 +11623,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -9358,7 +11691,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -9426,7 +11759,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -9494,7 +11827,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -9562,7 +11895,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -9630,7 +11963,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -9698,7 +12031,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -9766,7 +12099,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -9834,7 +12167,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -9902,7 +12235,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -9970,7 +12303,7 @@
         <v>1374.27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -10048,19 +12381,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E16CC-B113-45B8-9AB8-B4C2E0CD8BE4}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="13" max="23" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -10088,7 +12421,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -10120,7 +12453,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -10188,7 +12521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -10256,7 +12589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -10324,7 +12657,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -10392,7 +12725,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -10460,7 +12793,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -10528,7 +12861,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -10596,7 +12929,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -10664,7 +12997,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -10732,7 +13065,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -10800,7 +13133,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -10868,7 +13201,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -10936,7 +13269,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -11004,7 +13337,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -11072,7 +13405,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -11140,7 +13473,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -11208,7 +13541,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -11276,7 +13609,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -11344,7 +13677,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -11412,7 +13745,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -11480,7 +13813,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -11548,7 +13881,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -11616,7 +13949,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -11684,7 +14017,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -11752,7 +14085,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -11820,7 +14153,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -11888,7 +14221,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -11956,7 +14289,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -12024,7 +14357,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -12092,7 +14425,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -12160,7 +14493,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -12228,7 +14561,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -12296,7 +14629,7 @@
         <v>1283.3499999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -12374,19 +14707,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20021F30-9281-441A-B982-AE3628B68A09}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="13" max="23" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -12414,7 +14747,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -12446,7 +14779,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -12514,7 +14847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -12582,7 +14915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -12650,7 +14983,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -12718,7 +15051,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -12786,7 +15119,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -12854,7 +15187,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -12922,7 +15255,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -12990,7 +15323,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -13058,7 +15391,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -13126,7 +15459,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -13194,7 +15527,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -13262,7 +15595,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -13330,7 +15663,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -13398,7 +15731,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -13466,7 +15799,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -13534,7 +15867,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -13602,7 +15935,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -13670,7 +16003,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -13738,7 +16071,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -13806,7 +16139,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -13874,7 +16207,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -13942,7 +16275,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -14010,7 +16343,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -14078,7 +16411,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -14146,7 +16479,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -14214,7 +16547,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -14282,7 +16615,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -14350,7 +16683,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -14418,7 +16751,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -14486,7 +16819,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -14554,7 +16887,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -14622,7 +16955,7 @@
         <v>1055.0899999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -14700,19 +17033,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C329B72-B441-4A9C-B89A-4A1D58BE3ABB}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="13" max="23" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14740,7 +17073,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -14772,7 +17105,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -14840,7 +17173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -14908,7 +17241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -14976,7 +17309,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -15044,7 +17377,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -15112,7 +17445,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -15180,7 +17513,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -15248,7 +17581,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -15316,7 +17649,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -15384,7 +17717,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -15452,7 +17785,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -15520,7 +17853,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -15588,7 +17921,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -15656,7 +17989,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -15724,7 +18057,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -15792,7 +18125,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -15860,7 +18193,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -15928,7 +18261,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -15996,7 +18329,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -16064,7 +18397,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -16132,7 +18465,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -16200,7 +18533,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -16268,7 +18601,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -16336,7 +18669,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -16404,7 +18737,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -16472,7 +18805,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -16540,7 +18873,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -16608,7 +18941,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -16676,7 +19009,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -16744,7 +19077,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -16812,7 +19145,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -16880,7 +19213,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -16948,7 +19281,7 @@
         <v>968.77</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -17026,7 +19359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFFF00"/>
@@ -17035,9 +19368,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
     </row>
   </sheetData>

--- a/docs/content_history/pbr-2025-vm20-table-f-g-current-spreads.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-f-g-current-spreads.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135A0C0-6DAC-4210-9AAC-DC05878358F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B6F40-A815-4536-9C7E-400A2571A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="1980" windowWidth="26490" windowHeight="11010" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="October_2025" sheetId="21" r:id="rId1"/>
-    <sheet name="September_2025" sheetId="20" r:id="rId2"/>
-    <sheet name="August_2025" sheetId="19" r:id="rId3"/>
-    <sheet name="July_2025" sheetId="18" r:id="rId4"/>
-    <sheet name="June_2025" sheetId="17" r:id="rId5"/>
-    <sheet name="May_2025" sheetId="16" r:id="rId6"/>
-    <sheet name="April_2025" sheetId="15" r:id="rId7"/>
-    <sheet name="March_2025" sheetId="14" r:id="rId8"/>
-    <sheet name="February_2025" sheetId="13" r:id="rId9"/>
-    <sheet name="January_2025" sheetId="12" r:id="rId10"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId11"/>
+    <sheet name="November_2025" sheetId="22" r:id="rId1"/>
+    <sheet name="October_2025" sheetId="21" r:id="rId2"/>
+    <sheet name="September_2025" sheetId="20" r:id="rId3"/>
+    <sheet name="August_2025" sheetId="19" r:id="rId4"/>
+    <sheet name="July_2025" sheetId="18" r:id="rId5"/>
+    <sheet name="June_2025" sheetId="17" r:id="rId6"/>
+    <sheet name="May_2025" sheetId="16" r:id="rId7"/>
+    <sheet name="April_2025" sheetId="15" r:id="rId8"/>
+    <sheet name="March_2025" sheetId="14" r:id="rId9"/>
+    <sheet name="February_2025" sheetId="13" r:id="rId10"/>
+    <sheet name="January_2025" sheetId="12" r:id="rId11"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="48">
   <si>
     <t>Table F (01/31/2025)  Investment Grade Current Benchmark Spreads (in bps)</t>
   </si>
@@ -178,6 +179,12 @@
   </si>
   <si>
     <t>Table G. (10/31/2025) Below Investment Grade Current Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table F (11/28/2025)  Investment Grade Current Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table G. (11/28/2025) Below Investment Grade Current Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +450,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -764,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A54CD7A-C5DB-4053-8396-4E635114B1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCD6A14-A899-4FE0-AEAE-02064FB26C38}">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -777,7 +784,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -790,7 +797,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="M1" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -976,67 +983,67 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>7.44</v>
+        <v>7.6</v>
       </c>
       <c r="C5" s="8">
-        <v>15.06</v>
+        <v>15.76</v>
       </c>
       <c r="D5" s="8">
-        <v>22.67</v>
+        <v>23.93</v>
       </c>
       <c r="E5" s="8">
-        <v>28.48</v>
+        <v>29.7</v>
       </c>
       <c r="F5" s="8">
-        <v>34.29</v>
+        <v>35.47</v>
       </c>
       <c r="G5" s="8">
-        <v>40.1</v>
+        <v>41.24</v>
       </c>
       <c r="H5" s="8">
-        <v>47.37</v>
+        <v>49.2</v>
       </c>
       <c r="I5" s="8">
-        <v>54.65</v>
+        <v>57.15</v>
       </c>
       <c r="J5" s="8">
-        <v>61.92</v>
+        <v>65.11</v>
       </c>
       <c r="K5" s="8">
-        <v>102.23</v>
+        <v>101.65</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O5" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P5" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q5" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R5" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S5" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T5" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U5" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V5" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W5" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1044,67 +1051,67 @@
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <v>12.14</v>
+        <v>13.02</v>
       </c>
       <c r="C6" s="8">
-        <v>20.170000000000002</v>
+        <v>21.49</v>
       </c>
       <c r="D6" s="8">
-        <v>28.21</v>
+        <v>29.95</v>
       </c>
       <c r="E6" s="8">
-        <v>34.24</v>
+        <v>35.96</v>
       </c>
       <c r="F6" s="8">
-        <v>40.28</v>
+        <v>41.98</v>
       </c>
       <c r="G6" s="8">
-        <v>46.32</v>
+        <v>48</v>
       </c>
       <c r="H6" s="8">
-        <v>54.76</v>
+        <v>57.19</v>
       </c>
       <c r="I6" s="8">
-        <v>63.2</v>
+        <v>66.38</v>
       </c>
       <c r="J6" s="8">
-        <v>71.64</v>
+        <v>75.569999999999993</v>
       </c>
       <c r="K6" s="8">
-        <v>107.09</v>
+        <v>106.88</v>
       </c>
       <c r="M6" s="9">
         <v>2</v>
       </c>
       <c r="N6" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O6" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P6" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q6" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R6" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S6" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T6" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U6" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V6" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W6" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1112,67 +1119,67 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>16.84</v>
+        <v>18.45</v>
       </c>
       <c r="C7" s="8">
-        <v>25.29</v>
+        <v>27.21</v>
       </c>
       <c r="D7" s="8">
-        <v>33.74</v>
+        <v>35.97</v>
       </c>
       <c r="E7" s="8">
-        <v>40.01</v>
+        <v>42.23</v>
       </c>
       <c r="F7" s="8">
-        <v>46.28</v>
+        <v>48.49</v>
       </c>
       <c r="G7" s="8">
-        <v>52.54</v>
+        <v>54.75</v>
       </c>
       <c r="H7" s="8">
-        <v>62.15</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="I7" s="8">
-        <v>71.75</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="J7" s="8">
-        <v>81.36</v>
+        <v>86.03</v>
       </c>
       <c r="K7" s="8">
-        <v>111.95</v>
+        <v>112.11</v>
       </c>
       <c r="M7" s="9">
         <v>3</v>
       </c>
       <c r="N7" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O7" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P7" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q7" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R7" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S7" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T7" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U7" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V7" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W7" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1180,67 +1187,67 @@
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <v>21.55</v>
+        <v>23.87</v>
       </c>
       <c r="C8" s="8">
-        <v>30.41</v>
+        <v>32.93</v>
       </c>
       <c r="D8" s="8">
-        <v>39.270000000000003</v>
+        <v>41.99</v>
       </c>
       <c r="E8" s="8">
-        <v>45.77</v>
+        <v>48.49</v>
       </c>
       <c r="F8" s="8">
-        <v>52.27</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8">
-        <v>58.77</v>
+        <v>61.51</v>
       </c>
       <c r="H8" s="8">
-        <v>69.540000000000006</v>
+        <v>73.17</v>
       </c>
       <c r="I8" s="8">
-        <v>80.3</v>
+        <v>84.83</v>
       </c>
       <c r="J8" s="8">
-        <v>91.07</v>
+        <v>96.49</v>
       </c>
       <c r="K8" s="8">
-        <v>116.81</v>
+        <v>117.34</v>
       </c>
       <c r="M8" s="9">
         <v>4</v>
       </c>
       <c r="N8" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O8" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P8" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q8" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R8" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S8" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T8" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U8" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V8" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W8" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1248,67 +1255,67 @@
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <v>25.08</v>
+        <v>27.02</v>
       </c>
       <c r="C9" s="8">
-        <v>33.26</v>
+        <v>35.83</v>
       </c>
       <c r="D9" s="8">
-        <v>41.43</v>
+        <v>44.63</v>
       </c>
       <c r="E9" s="8">
-        <v>48.89</v>
+        <v>51.87</v>
       </c>
       <c r="F9" s="8">
-        <v>56.36</v>
+        <v>59.1</v>
       </c>
       <c r="G9" s="8">
-        <v>63.82</v>
+        <v>66.34</v>
       </c>
       <c r="H9" s="8">
-        <v>74.599999999999994</v>
+        <v>78.03</v>
       </c>
       <c r="I9" s="8">
-        <v>85.39</v>
+        <v>89.71</v>
       </c>
       <c r="J9" s="8">
-        <v>96.17</v>
+        <v>101.4</v>
       </c>
       <c r="K9" s="8">
-        <v>119.35</v>
+        <v>119.79</v>
       </c>
       <c r="M9" s="9">
         <v>5</v>
       </c>
       <c r="N9" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O9" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P9" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q9" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R9" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S9" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T9" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U9" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V9" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W9" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1316,67 +1323,67 @@
         <v>6</v>
       </c>
       <c r="B10" s="8">
-        <v>28.62</v>
+        <v>30.18</v>
       </c>
       <c r="C10" s="8">
-        <v>36.1</v>
+        <v>38.72</v>
       </c>
       <c r="D10" s="8">
-        <v>43.58</v>
+        <v>47.27</v>
       </c>
       <c r="E10" s="8">
-        <v>52.01</v>
+        <v>55.24</v>
       </c>
       <c r="F10" s="8">
-        <v>60.44</v>
+        <v>63.2</v>
       </c>
       <c r="G10" s="8">
-        <v>68.87</v>
+        <v>71.17</v>
       </c>
       <c r="H10" s="8">
-        <v>79.67</v>
+        <v>82.88</v>
       </c>
       <c r="I10" s="8">
-        <v>90.47</v>
+        <v>94.6</v>
       </c>
       <c r="J10" s="8">
-        <v>101.27</v>
+        <v>106.32</v>
       </c>
       <c r="K10" s="8">
-        <v>121.9</v>
+        <v>122.25</v>
       </c>
       <c r="M10" s="9">
         <v>6</v>
       </c>
       <c r="N10" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O10" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P10" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q10" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R10" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S10" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T10" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U10" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V10" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W10" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1384,31 +1391,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>28.21</v>
+        <v>28.89</v>
       </c>
       <c r="C11" s="8">
-        <v>37.65</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="D11" s="8">
-        <v>47.09</v>
+        <v>50.36</v>
       </c>
       <c r="E11" s="8">
-        <v>55.56</v>
+        <v>58.38</v>
       </c>
       <c r="F11" s="8">
-        <v>64.03</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="G11" s="8">
-        <v>72.5</v>
+        <v>74.430000000000007</v>
       </c>
       <c r="H11" s="8">
-        <v>83.44</v>
+        <v>86.17</v>
       </c>
       <c r="I11" s="8">
-        <v>94.38</v>
+        <v>97.92</v>
       </c>
       <c r="J11" s="8">
-        <v>105.33</v>
+        <v>109.67</v>
       </c>
       <c r="K11" s="8">
         <v>123.93</v>
@@ -1417,34 +1424,34 @@
         <v>7</v>
       </c>
       <c r="N11" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O11" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P11" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q11" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R11" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S11" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T11" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U11" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V11" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W11" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1452,67 +1459,67 @@
         <v>8</v>
       </c>
       <c r="B12" s="8">
-        <v>27.8</v>
+        <v>27.61</v>
       </c>
       <c r="C12" s="8">
-        <v>39.19</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="D12" s="8">
-        <v>50.59</v>
+        <v>53.44</v>
       </c>
       <c r="E12" s="8">
-        <v>59.1</v>
+        <v>61.52</v>
       </c>
       <c r="F12" s="8">
-        <v>67.61</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="G12" s="8">
-        <v>76.12</v>
+        <v>77.69</v>
       </c>
       <c r="H12" s="8">
-        <v>87.21</v>
+        <v>89.47</v>
       </c>
       <c r="I12" s="8">
-        <v>98.3</v>
+        <v>101.24</v>
       </c>
       <c r="J12" s="8">
-        <v>109.38</v>
+        <v>113.02</v>
       </c>
       <c r="K12" s="8">
-        <v>125.96</v>
+        <v>125.6</v>
       </c>
       <c r="M12" s="9">
         <v>8</v>
       </c>
       <c r="N12" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O12" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P12" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q12" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R12" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S12" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T12" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U12" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V12" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W12" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1520,67 +1527,67 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>27.38</v>
+        <v>26.32</v>
       </c>
       <c r="C13" s="8">
-        <v>40.74</v>
+        <v>41.42</v>
       </c>
       <c r="D13" s="8">
-        <v>54.1</v>
+        <v>56.52</v>
       </c>
       <c r="E13" s="8">
-        <v>62.65</v>
+        <v>64.66</v>
       </c>
       <c r="F13" s="8">
-        <v>71.2</v>
+        <v>72.8</v>
       </c>
       <c r="G13" s="8">
-        <v>79.75</v>
+        <v>80.95</v>
       </c>
       <c r="H13" s="8">
-        <v>90.98</v>
+        <v>92.76</v>
       </c>
       <c r="I13" s="8">
-        <v>102.21</v>
+        <v>104.57</v>
       </c>
       <c r="J13" s="8">
-        <v>113.44</v>
+        <v>116.37</v>
       </c>
       <c r="K13" s="8">
-        <v>127.99</v>
+        <v>127.28</v>
       </c>
       <c r="M13" s="9">
         <v>9</v>
       </c>
       <c r="N13" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O13" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P13" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q13" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R13" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S13" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T13" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U13" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V13" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W13" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1588,67 +1595,67 @@
         <v>10</v>
       </c>
       <c r="B14" s="8">
-        <v>28.61</v>
+        <v>27.46</v>
       </c>
       <c r="C14" s="8">
-        <v>41.77</v>
+        <v>42.39</v>
       </c>
       <c r="D14" s="8">
-        <v>54.93</v>
+        <v>57.32</v>
       </c>
       <c r="E14" s="8">
-        <v>63.25</v>
+        <v>65.23</v>
       </c>
       <c r="F14" s="8">
-        <v>71.569999999999993</v>
+        <v>73.14</v>
       </c>
       <c r="G14" s="8">
-        <v>79.88</v>
+        <v>81.05</v>
       </c>
       <c r="H14" s="8">
-        <v>91.31</v>
+        <v>93.07</v>
       </c>
       <c r="I14" s="8">
-        <v>102.74</v>
+        <v>105.09</v>
       </c>
       <c r="J14" s="8">
-        <v>114.18</v>
+        <v>117.11</v>
       </c>
       <c r="K14" s="8">
-        <v>128.36000000000001</v>
+        <v>127.65</v>
       </c>
       <c r="M14" s="9">
         <v>10</v>
       </c>
       <c r="N14" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O14" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P14" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q14" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R14" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S14" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T14" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U14" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V14" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W14" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1656,67 +1663,67 @@
         <v>11</v>
       </c>
       <c r="B15" s="8">
-        <v>29.84</v>
+        <v>28.6</v>
       </c>
       <c r="C15" s="8">
-        <v>42.81</v>
+        <v>43.36</v>
       </c>
       <c r="D15" s="8">
-        <v>55.77</v>
+        <v>58.13</v>
       </c>
       <c r="E15" s="8">
-        <v>63.85</v>
+        <v>65.8</v>
       </c>
       <c r="F15" s="8">
-        <v>71.930000000000007</v>
+        <v>73.48</v>
       </c>
       <c r="G15" s="8">
-        <v>80.010000000000005</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="H15" s="8">
-        <v>91.64</v>
+        <v>93.38</v>
       </c>
       <c r="I15" s="8">
-        <v>103.28</v>
+        <v>105.61</v>
       </c>
       <c r="J15" s="8">
-        <v>114.91</v>
+        <v>117.84</v>
       </c>
       <c r="K15" s="8">
-        <v>128.72</v>
+        <v>128.01</v>
       </c>
       <c r="M15" s="9">
         <v>11</v>
       </c>
       <c r="N15" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O15" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P15" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q15" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R15" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S15" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T15" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U15" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V15" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W15" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1724,67 +1731,67 @@
         <v>12</v>
       </c>
       <c r="B16" s="8">
-        <v>31.07</v>
+        <v>29.73</v>
       </c>
       <c r="C16" s="8">
-        <v>43.84</v>
+        <v>44.33</v>
       </c>
       <c r="D16" s="8">
-        <v>56.6</v>
+        <v>58.93</v>
       </c>
       <c r="E16" s="8">
-        <v>64.45</v>
+        <v>66.37</v>
       </c>
       <c r="F16" s="8">
-        <v>72.3</v>
+        <v>73.81</v>
       </c>
       <c r="G16" s="8">
-        <v>80.14</v>
+        <v>81.25</v>
       </c>
       <c r="H16" s="8">
-        <v>91.98</v>
+        <v>93.69</v>
       </c>
       <c r="I16" s="8">
-        <v>103.81</v>
+        <v>106.13</v>
       </c>
       <c r="J16" s="8">
-        <v>115.64</v>
+        <v>118.57</v>
       </c>
       <c r="K16" s="8">
-        <v>129.09</v>
+        <v>128.38</v>
       </c>
       <c r="M16" s="9">
         <v>12</v>
       </c>
       <c r="N16" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O16" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P16" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q16" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R16" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S16" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T16" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U16" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V16" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W16" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1792,67 +1799,67 @@
         <v>13</v>
       </c>
       <c r="B17" s="8">
-        <v>32.299999999999997</v>
+        <v>30.87</v>
       </c>
       <c r="C17" s="8">
-        <v>44.87</v>
+        <v>45.3</v>
       </c>
       <c r="D17" s="8">
-        <v>57.44</v>
+        <v>59.73</v>
       </c>
       <c r="E17" s="8">
-        <v>65.05</v>
+        <v>66.94</v>
       </c>
       <c r="F17" s="8">
-        <v>72.66</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="G17" s="8">
-        <v>80.27</v>
+        <v>81.36</v>
       </c>
       <c r="H17" s="8">
-        <v>92.31</v>
+        <v>94</v>
       </c>
       <c r="I17" s="8">
-        <v>104.34</v>
+        <v>106.65</v>
       </c>
       <c r="J17" s="8">
-        <v>116.38</v>
+        <v>119.3</v>
       </c>
       <c r="K17" s="8">
-        <v>129.46</v>
+        <v>128.74</v>
       </c>
       <c r="M17" s="9">
         <v>13</v>
       </c>
       <c r="N17" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O17" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P17" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q17" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R17" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S17" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T17" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U17" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V17" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W17" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1860,67 +1867,67 @@
         <v>14</v>
       </c>
       <c r="B18" s="8">
-        <v>33.53</v>
+        <v>32.01</v>
       </c>
       <c r="C18" s="8">
-        <v>45.9</v>
+        <v>46.27</v>
       </c>
       <c r="D18" s="8">
-        <v>58.28</v>
+        <v>60.54</v>
       </c>
       <c r="E18" s="8">
-        <v>65.650000000000006</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="F18" s="8">
-        <v>73.03</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="G18" s="8">
-        <v>80.41</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="H18" s="8">
-        <v>92.64</v>
+        <v>94.32</v>
       </c>
       <c r="I18" s="8">
-        <v>104.88</v>
+        <v>107.17</v>
       </c>
       <c r="J18" s="8">
-        <v>117.11</v>
+        <v>120.03</v>
       </c>
       <c r="K18" s="8">
-        <v>129.82</v>
+        <v>129.11000000000001</v>
       </c>
       <c r="M18" s="9">
         <v>14</v>
       </c>
       <c r="N18" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O18" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P18" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q18" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R18" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S18" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T18" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U18" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V18" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W18" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1928,67 +1935,67 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
-        <v>34.76</v>
+        <v>33.15</v>
       </c>
       <c r="C19" s="8">
-        <v>46.93</v>
+        <v>47.25</v>
       </c>
       <c r="D19" s="8">
-        <v>59.11</v>
+        <v>61.34</v>
       </c>
       <c r="E19" s="8">
-        <v>66.25</v>
+        <v>68.08</v>
       </c>
       <c r="F19" s="8">
-        <v>73.39</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="G19" s="8">
-        <v>80.540000000000006</v>
+        <v>81.56</v>
       </c>
       <c r="H19" s="8">
-        <v>92.97</v>
+        <v>94.63</v>
       </c>
       <c r="I19" s="8">
-        <v>105.41</v>
+        <v>107.7</v>
       </c>
       <c r="J19" s="8">
-        <v>117.85</v>
+        <v>120.76</v>
       </c>
       <c r="K19" s="8">
-        <v>130.19</v>
+        <v>129.47</v>
       </c>
       <c r="M19" s="9">
         <v>15</v>
       </c>
       <c r="N19" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O19" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P19" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q19" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R19" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S19" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T19" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U19" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V19" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W19" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -1996,67 +2003,67 @@
         <v>16</v>
       </c>
       <c r="B20" s="8">
-        <v>35.99</v>
+        <v>34.29</v>
       </c>
       <c r="C20" s="8">
-        <v>47.97</v>
+        <v>48.22</v>
       </c>
       <c r="D20" s="8">
-        <v>59.95</v>
+        <v>62.14</v>
       </c>
       <c r="E20" s="8">
-        <v>66.849999999999994</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="F20" s="8">
-        <v>73.760000000000005</v>
+        <v>75.16</v>
       </c>
       <c r="G20" s="8">
-        <v>80.67</v>
+        <v>81.66</v>
       </c>
       <c r="H20" s="8">
-        <v>93.3</v>
+        <v>94.94</v>
       </c>
       <c r="I20" s="8">
-        <v>105.94</v>
+        <v>108.22</v>
       </c>
       <c r="J20" s="8">
-        <v>118.58</v>
+        <v>121.49</v>
       </c>
       <c r="K20" s="8">
-        <v>130.56</v>
+        <v>129.84</v>
       </c>
       <c r="M20" s="9">
         <v>16</v>
       </c>
       <c r="N20" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O20" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P20" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q20" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R20" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S20" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T20" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U20" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V20" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W20" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2064,67 +2071,67 @@
         <v>17</v>
       </c>
       <c r="B21" s="8">
-        <v>37.21</v>
+        <v>35.43</v>
       </c>
       <c r="C21" s="8">
-        <v>49</v>
+        <v>49.19</v>
       </c>
       <c r="D21" s="8">
-        <v>60.78</v>
+        <v>62.95</v>
       </c>
       <c r="E21" s="8">
-        <v>67.45</v>
+        <v>69.22</v>
       </c>
       <c r="F21" s="8">
-        <v>74.13</v>
+        <v>75.489999999999995</v>
       </c>
       <c r="G21" s="8">
-        <v>80.8</v>
+        <v>81.77</v>
       </c>
       <c r="H21" s="8">
-        <v>93.64</v>
+        <v>95.25</v>
       </c>
       <c r="I21" s="8">
-        <v>106.48</v>
+        <v>108.74</v>
       </c>
       <c r="J21" s="8">
-        <v>119.31</v>
+        <v>122.23</v>
       </c>
       <c r="K21" s="8">
-        <v>130.93</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="M21" s="9">
         <v>17</v>
       </c>
       <c r="N21" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O21" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P21" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q21" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R21" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S21" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T21" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U21" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V21" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W21" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2132,67 +2139,67 @@
         <v>18</v>
       </c>
       <c r="B22" s="8">
-        <v>38.44</v>
+        <v>36.56</v>
       </c>
       <c r="C22" s="8">
-        <v>50.03</v>
+        <v>50.16</v>
       </c>
       <c r="D22" s="8">
-        <v>61.62</v>
+        <v>63.75</v>
       </c>
       <c r="E22" s="8">
-        <v>68.06</v>
+        <v>69.790000000000006</v>
       </c>
       <c r="F22" s="8">
-        <v>74.489999999999995</v>
+        <v>75.83</v>
       </c>
       <c r="G22" s="8">
-        <v>80.930000000000007</v>
+        <v>81.87</v>
       </c>
       <c r="H22" s="8">
-        <v>93.97</v>
+        <v>95.57</v>
       </c>
       <c r="I22" s="8">
-        <v>107.01</v>
+        <v>109.26</v>
       </c>
       <c r="J22" s="8">
-        <v>120.05</v>
+        <v>122.96</v>
       </c>
       <c r="K22" s="8">
-        <v>131.29</v>
+        <v>130.57</v>
       </c>
       <c r="M22" s="9">
         <v>18</v>
       </c>
       <c r="N22" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O22" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P22" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q22" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R22" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S22" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T22" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U22" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V22" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W22" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2200,67 +2207,67 @@
         <v>19</v>
       </c>
       <c r="B23" s="8">
-        <v>39.67</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C23" s="8">
-        <v>51.06</v>
+        <v>51.13</v>
       </c>
       <c r="D23" s="8">
-        <v>62.45</v>
+        <v>64.56</v>
       </c>
       <c r="E23" s="8">
-        <v>68.66</v>
+        <v>70.36</v>
       </c>
       <c r="F23" s="8">
-        <v>74.86</v>
+        <v>76.17</v>
       </c>
       <c r="G23" s="8">
-        <v>81.06</v>
+        <v>81.97</v>
       </c>
       <c r="H23" s="8">
-        <v>94.3</v>
+        <v>95.88</v>
       </c>
       <c r="I23" s="8">
-        <v>107.54</v>
+        <v>109.78</v>
       </c>
       <c r="J23" s="8">
-        <v>120.78</v>
+        <v>123.69</v>
       </c>
       <c r="K23" s="8">
-        <v>131.66</v>
+        <v>130.94</v>
       </c>
       <c r="M23" s="9">
         <v>19</v>
       </c>
       <c r="N23" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O23" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P23" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q23" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R23" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S23" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T23" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U23" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V23" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W23" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2268,67 +2275,67 @@
         <v>20</v>
       </c>
       <c r="B24" s="8">
-        <v>40.9</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="C24" s="8">
-        <v>52.09</v>
+        <v>52.1</v>
       </c>
       <c r="D24" s="8">
-        <v>63.29</v>
+        <v>65.36</v>
       </c>
       <c r="E24" s="8">
-        <v>69.260000000000005</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="F24" s="8">
-        <v>75.22</v>
+        <v>76.5</v>
       </c>
       <c r="G24" s="8">
-        <v>81.19</v>
+        <v>82.08</v>
       </c>
       <c r="H24" s="8">
-        <v>94.63</v>
+        <v>96.19</v>
       </c>
       <c r="I24" s="8">
-        <v>108.07</v>
+        <v>110.3</v>
       </c>
       <c r="J24" s="8">
-        <v>121.52</v>
+        <v>124.42</v>
       </c>
       <c r="K24" s="8">
-        <v>132.03</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="M24" s="9">
         <v>20</v>
       </c>
       <c r="N24" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O24" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P24" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q24" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R24" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S24" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T24" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U24" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V24" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W24" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2336,67 +2343,67 @@
         <v>21</v>
       </c>
       <c r="B25" s="8">
-        <v>42.13</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="C25" s="8">
-        <v>53.13</v>
+        <v>53.07</v>
       </c>
       <c r="D25" s="8">
-        <v>64.13</v>
+        <v>66.16</v>
       </c>
       <c r="E25" s="8">
-        <v>69.86</v>
+        <v>71.5</v>
       </c>
       <c r="F25" s="8">
-        <v>75.59</v>
+        <v>76.84</v>
       </c>
       <c r="G25" s="8">
-        <v>81.319999999999993</v>
+        <v>82.18</v>
       </c>
       <c r="H25" s="8">
-        <v>94.96</v>
+        <v>96.5</v>
       </c>
       <c r="I25" s="8">
-        <v>108.61</v>
+        <v>110.83</v>
       </c>
       <c r="J25" s="8">
-        <v>122.25</v>
+        <v>125.15</v>
       </c>
       <c r="K25" s="8">
-        <v>132.38999999999999</v>
+        <v>131.66999999999999</v>
       </c>
       <c r="M25" s="9">
         <v>21</v>
       </c>
       <c r="N25" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O25" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P25" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q25" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R25" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S25" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T25" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U25" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V25" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W25" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2404,67 +2411,67 @@
         <v>22</v>
       </c>
       <c r="B26" s="8">
-        <v>43.36</v>
+        <v>41.12</v>
       </c>
       <c r="C26" s="8">
-        <v>54.16</v>
+        <v>54.04</v>
       </c>
       <c r="D26" s="8">
-        <v>64.959999999999994</v>
+        <v>66.97</v>
       </c>
       <c r="E26" s="8">
-        <v>70.459999999999994</v>
+        <v>72.069999999999993</v>
       </c>
       <c r="F26" s="8">
-        <v>75.959999999999994</v>
+        <v>77.180000000000007</v>
       </c>
       <c r="G26" s="8">
-        <v>81.45</v>
+        <v>82.28</v>
       </c>
       <c r="H26" s="8">
-        <v>95.3</v>
+        <v>96.81</v>
       </c>
       <c r="I26" s="8">
-        <v>109.14</v>
+        <v>111.35</v>
       </c>
       <c r="J26" s="8">
-        <v>122.98</v>
+        <v>125.88</v>
       </c>
       <c r="K26" s="8">
-        <v>132.76</v>
+        <v>132.03</v>
       </c>
       <c r="M26" s="9">
         <v>22</v>
       </c>
       <c r="N26" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O26" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P26" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q26" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R26" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S26" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T26" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U26" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V26" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W26" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2472,67 +2479,67 @@
         <v>23</v>
       </c>
       <c r="B27" s="8">
-        <v>44.59</v>
+        <v>42.25</v>
       </c>
       <c r="C27" s="8">
-        <v>55.19</v>
+        <v>55.01</v>
       </c>
       <c r="D27" s="8">
-        <v>65.8</v>
+        <v>67.77</v>
       </c>
       <c r="E27" s="8">
-        <v>71.06</v>
+        <v>72.64</v>
       </c>
       <c r="F27" s="8">
-        <v>76.319999999999993</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="G27" s="8">
-        <v>81.58</v>
+        <v>82.38</v>
       </c>
       <c r="H27" s="8">
-        <v>95.63</v>
+        <v>97.13</v>
       </c>
       <c r="I27" s="8">
-        <v>109.67</v>
+        <v>111.87</v>
       </c>
       <c r="J27" s="8">
-        <v>123.72</v>
+        <v>126.61</v>
       </c>
       <c r="K27" s="8">
-        <v>133.13</v>
+        <v>132.4</v>
       </c>
       <c r="M27" s="9">
         <v>23</v>
       </c>
       <c r="N27" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O27" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P27" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q27" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R27" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S27" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T27" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U27" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V27" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W27" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2540,67 +2547,67 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
-        <v>45.81</v>
+        <v>43.39</v>
       </c>
       <c r="C28" s="8">
-        <v>56.22</v>
+        <v>55.98</v>
       </c>
       <c r="D28" s="8">
-        <v>66.63</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="E28" s="8">
-        <v>71.66</v>
+        <v>73.209999999999994</v>
       </c>
       <c r="F28" s="8">
-        <v>76.69</v>
+        <v>77.849999999999994</v>
       </c>
       <c r="G28" s="8">
-        <v>81.72</v>
+        <v>82.49</v>
       </c>
       <c r="H28" s="8">
-        <v>95.96</v>
+        <v>97.44</v>
       </c>
       <c r="I28" s="8">
-        <v>110.21</v>
+        <v>112.39</v>
       </c>
       <c r="J28" s="8">
-        <v>124.45</v>
+        <v>127.34</v>
       </c>
       <c r="K28" s="8">
-        <v>133.49</v>
+        <v>132.76</v>
       </c>
       <c r="M28" s="9">
         <v>24</v>
       </c>
       <c r="N28" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O28" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P28" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q28" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R28" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S28" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T28" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U28" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V28" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W28" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2608,67 +2615,67 @@
         <v>25</v>
       </c>
       <c r="B29" s="8">
-        <v>47.04</v>
+        <v>44.53</v>
       </c>
       <c r="C29" s="8">
-        <v>57.26</v>
+        <v>56.95</v>
       </c>
       <c r="D29" s="8">
-        <v>67.47</v>
+        <v>69.38</v>
       </c>
       <c r="E29" s="8">
-        <v>72.260000000000005</v>
+        <v>73.78</v>
       </c>
       <c r="F29" s="8">
-        <v>77.05</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="G29" s="8">
-        <v>81.849999999999994</v>
+        <v>82.59</v>
       </c>
       <c r="H29" s="8">
-        <v>96.29</v>
+        <v>97.75</v>
       </c>
       <c r="I29" s="8">
-        <v>110.74</v>
+        <v>112.91</v>
       </c>
       <c r="J29" s="8">
-        <v>125.19</v>
+        <v>128.08000000000001</v>
       </c>
       <c r="K29" s="8">
-        <v>133.86000000000001</v>
+        <v>133.13</v>
       </c>
       <c r="M29" s="9">
         <v>25</v>
       </c>
       <c r="N29" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O29" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P29" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q29" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R29" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S29" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T29" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U29" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V29" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W29" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -2676,67 +2683,67 @@
         <v>26</v>
       </c>
       <c r="B30" s="8">
-        <v>48.27</v>
+        <v>45.67</v>
       </c>
       <c r="C30" s="8">
-        <v>58.29</v>
+        <v>57.92</v>
       </c>
       <c r="D30" s="8">
-        <v>68.31</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="E30" s="8">
-        <v>72.86</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="F30" s="8">
-        <v>77.42</v>
+        <v>78.52</v>
       </c>
       <c r="G30" s="8">
-        <v>81.98</v>
+        <v>82.69</v>
       </c>
       <c r="H30" s="8">
-        <v>96.62</v>
+        <v>98.06</v>
       </c>
       <c r="I30" s="8">
-        <v>111.27</v>
+        <v>113.43</v>
       </c>
       <c r="J30" s="8">
-        <v>125.92</v>
+        <v>128.81</v>
       </c>
       <c r="K30" s="8">
-        <v>134.22999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="M30" s="9">
         <v>26</v>
       </c>
       <c r="N30" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O30" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P30" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q30" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R30" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S30" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T30" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U30" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V30" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W30" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2744,67 +2751,67 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
-        <v>49.5</v>
+        <v>46.81</v>
       </c>
       <c r="C31" s="8">
-        <v>59.32</v>
+        <v>58.9</v>
       </c>
       <c r="D31" s="8">
-        <v>69.14</v>
+        <v>70.98</v>
       </c>
       <c r="E31" s="8">
-        <v>73.459999999999994</v>
+        <v>74.92</v>
       </c>
       <c r="F31" s="8">
-        <v>77.790000000000006</v>
+        <v>78.86</v>
       </c>
       <c r="G31" s="8">
-        <v>82.11</v>
+        <v>82.79</v>
       </c>
       <c r="H31" s="8">
-        <v>96.96</v>
+        <v>98.38</v>
       </c>
       <c r="I31" s="8">
-        <v>111.81</v>
+        <v>113.96</v>
       </c>
       <c r="J31" s="8">
-        <v>126.65</v>
+        <v>129.54</v>
       </c>
       <c r="K31" s="8">
-        <v>134.6</v>
+        <v>133.86000000000001</v>
       </c>
       <c r="M31" s="9">
         <v>27</v>
       </c>
       <c r="N31" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O31" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P31" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q31" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R31" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S31" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T31" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U31" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V31" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W31" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -2812,67 +2819,67 @@
         <v>28</v>
       </c>
       <c r="B32" s="8">
-        <v>50.73</v>
+        <v>47.95</v>
       </c>
       <c r="C32" s="8">
-        <v>60.35</v>
+        <v>59.87</v>
       </c>
       <c r="D32" s="8">
-        <v>69.98</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="E32" s="8">
-        <v>74.06</v>
+        <v>75.489999999999995</v>
       </c>
       <c r="F32" s="8">
-        <v>78.150000000000006</v>
+        <v>79.19</v>
       </c>
       <c r="G32" s="8">
-        <v>82.24</v>
+        <v>82.9</v>
       </c>
       <c r="H32" s="8">
-        <v>97.29</v>
+        <v>98.69</v>
       </c>
       <c r="I32" s="8">
-        <v>112.34</v>
+        <v>114.48</v>
       </c>
       <c r="J32" s="8">
-        <v>127.39</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="K32" s="8">
-        <v>134.96</v>
+        <v>134.22999999999999</v>
       </c>
       <c r="M32" s="9">
         <v>28</v>
       </c>
       <c r="N32" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O32" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P32" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q32" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R32" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S32" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T32" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U32" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V32" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W32" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -2880,67 +2887,67 @@
         <v>29</v>
       </c>
       <c r="B33" s="8">
-        <v>51.96</v>
+        <v>49.08</v>
       </c>
       <c r="C33" s="8">
-        <v>61.38</v>
+        <v>60.84</v>
       </c>
       <c r="D33" s="8">
-        <v>70.81</v>
+        <v>72.59</v>
       </c>
       <c r="E33" s="8">
-        <v>74.66</v>
+        <v>76.06</v>
       </c>
       <c r="F33" s="8">
-        <v>78.52</v>
+        <v>79.53</v>
       </c>
       <c r="G33" s="8">
-        <v>82.37</v>
+        <v>83</v>
       </c>
       <c r="H33" s="8">
-        <v>97.62</v>
+        <v>99</v>
       </c>
       <c r="I33" s="8">
-        <v>112.87</v>
+        <v>115</v>
       </c>
       <c r="J33" s="8">
-        <v>128.12</v>
+        <v>131</v>
       </c>
       <c r="K33" s="8">
-        <v>135.33000000000001</v>
+        <v>134.59</v>
       </c>
       <c r="M33" s="9">
         <v>29</v>
       </c>
       <c r="N33" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O33" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P33" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q33" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R33" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S33" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T33" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U33" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V33" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W33" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -2948,67 +2955,67 @@
         <v>30</v>
       </c>
       <c r="B34" s="8">
-        <v>53.19</v>
+        <v>50.22</v>
       </c>
       <c r="C34" s="8">
-        <v>62.42</v>
+        <v>61.81</v>
       </c>
       <c r="D34" s="8">
-        <v>71.650000000000006</v>
+        <v>73.39</v>
       </c>
       <c r="E34" s="8">
-        <v>75.27</v>
+        <v>76.63</v>
       </c>
       <c r="F34" s="8">
-        <v>78.88</v>
+        <v>79.87</v>
       </c>
       <c r="G34" s="8">
-        <v>82.5</v>
+        <v>83.1</v>
       </c>
       <c r="H34" s="8">
-        <v>97.95</v>
+        <v>99.31</v>
       </c>
       <c r="I34" s="8">
-        <v>113.4</v>
+        <v>115.52</v>
       </c>
       <c r="J34" s="8">
-        <v>128.86000000000001</v>
+        <v>131.72999999999999</v>
       </c>
       <c r="K34" s="8">
-        <v>135.69999999999999</v>
+        <v>134.96</v>
       </c>
       <c r="M34" s="9">
         <v>30</v>
       </c>
       <c r="N34" s="8">
-        <v>142.54</v>
+        <v>138.18</v>
       </c>
       <c r="O34" s="8">
-        <v>190.14</v>
+        <v>186.38</v>
       </c>
       <c r="P34" s="8">
-        <v>237.73</v>
+        <v>234.57</v>
       </c>
       <c r="Q34" s="8">
-        <v>285.33</v>
+        <v>282.77</v>
       </c>
       <c r="R34" s="8">
-        <v>332.93</v>
+        <v>330.96</v>
       </c>
       <c r="S34" s="8">
-        <v>510.29</v>
+        <v>526.30999999999995</v>
       </c>
       <c r="T34" s="8">
-        <v>687.64</v>
+        <v>721.65</v>
       </c>
       <c r="U34" s="8">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V34" s="8">
-        <v>1042.3599999999999</v>
+        <v>1112.3499999999999</v>
       </c>
       <c r="W34" s="8">
-        <v>1219.71</v>
+        <v>1307.69</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3016,67 +3023,67 @@
         <v>15</v>
       </c>
       <c r="B35" s="8">
-        <v>35.131999999999998</v>
+        <v>33.953333333333333</v>
       </c>
       <c r="C35" s="8">
-        <v>45.728666666666662</v>
+        <v>46.253000000000007</v>
       </c>
       <c r="D35" s="8">
-        <v>56.326000000000008</v>
+        <v>58.552999999999997</v>
       </c>
       <c r="E35" s="8">
-        <v>62.703333333333333</v>
+        <v>64.585999999999999</v>
       </c>
       <c r="F35" s="8">
-        <v>69.082333333333324</v>
+        <v>70.620333333333335</v>
       </c>
       <c r="G35" s="8">
-        <v>75.46033333333331</v>
+        <v>76.655333333333331</v>
       </c>
       <c r="H35" s="8">
-        <v>87.899666666666661</v>
+        <v>89.801333333333332</v>
       </c>
       <c r="I35" s="8">
-        <v>100.34033333333332</v>
+        <v>102.94633333333331</v>
       </c>
       <c r="J35" s="8">
-        <v>112.78066666666665</v>
+        <v>116.09300000000002</v>
       </c>
       <c r="K35" s="8">
-        <v>127.65900000000001</v>
+        <v>127.13900000000004</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N35" s="10">
-        <v>142.54</v>
+        <v>138.17999999999995</v>
       </c>
       <c r="O35" s="10">
-        <v>190.14000000000001</v>
+        <v>186.38000000000008</v>
       </c>
       <c r="P35" s="10">
-        <v>237.72999999999982</v>
+        <v>234.56999999999991</v>
       </c>
       <c r="Q35" s="10">
-        <v>285.33</v>
+        <v>282.77000000000021</v>
       </c>
       <c r="R35" s="10">
-        <v>332.93000000000012</v>
+        <v>330.95999999999987</v>
       </c>
       <c r="S35" s="10">
-        <v>510.29000000000036</v>
+        <v>526.3099999999996</v>
       </c>
       <c r="T35" s="10">
-        <v>687.63999999999976</v>
+        <v>721.65000000000009</v>
       </c>
       <c r="U35" s="10">
-        <v>865</v>
+        <v>917</v>
       </c>
       <c r="V35" s="10">
-        <v>1042.3600000000004</v>
+        <v>1112.3499999999995</v>
       </c>
       <c r="W35" s="10">
-        <v>1219.7099999999994</v>
+        <v>1307.6899999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3090,6 +3097,2332 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20021F30-9281-441A-B982-AE3628B68A09}">
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>14</v>
+      </c>
+      <c r="R3" s="5">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5">
+        <v>17</v>
+      </c>
+      <c r="U3" s="5">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5">
+        <v>19</v>
+      </c>
+      <c r="W3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>11.72</v>
+      </c>
+      <c r="C5" s="8">
+        <v>16.84</v>
+      </c>
+      <c r="D5" s="8">
+        <v>21.97</v>
+      </c>
+      <c r="E5" s="8">
+        <v>28.89</v>
+      </c>
+      <c r="F5" s="8">
+        <v>35.81</v>
+      </c>
+      <c r="G5" s="8">
+        <v>42.72</v>
+      </c>
+      <c r="H5" s="8">
+        <v>50.48</v>
+      </c>
+      <c r="I5" s="8">
+        <v>58.23</v>
+      </c>
+      <c r="J5" s="8">
+        <v>65.98</v>
+      </c>
+      <c r="K5" s="8">
+        <v>111.1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O5" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P5" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R5" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S5" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T5" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U5" s="8">
+        <v>760</v>
+      </c>
+      <c r="V5" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>25.26</v>
+      </c>
+      <c r="D6" s="8">
+        <v>28.03</v>
+      </c>
+      <c r="E6" s="8">
+        <v>35.56</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43.08</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50.61</v>
+      </c>
+      <c r="H6" s="8">
+        <v>58.75</v>
+      </c>
+      <c r="I6" s="8">
+        <v>66.88</v>
+      </c>
+      <c r="J6" s="8">
+        <v>75.02</v>
+      </c>
+      <c r="K6" s="8">
+        <v>115.62</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O6" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P6" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R6" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S6" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T6" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U6" s="8">
+        <v>760</v>
+      </c>
+      <c r="V6" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>33.28</v>
+      </c>
+      <c r="C7" s="8">
+        <v>33.68</v>
+      </c>
+      <c r="D7" s="8">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42.23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>50.36</v>
+      </c>
+      <c r="G7" s="8">
+        <v>58.49</v>
+      </c>
+      <c r="H7" s="8">
+        <v>67.02</v>
+      </c>
+      <c r="I7" s="8">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="J7" s="8">
+        <v>84.06</v>
+      </c>
+      <c r="K7" s="8">
+        <v>120.14</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O7" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R7" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S7" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T7" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U7" s="8">
+        <v>760</v>
+      </c>
+      <c r="V7" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44.06</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42.1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>40.15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="F8" s="8">
+        <v>57.64</v>
+      </c>
+      <c r="G8" s="8">
+        <v>66.38</v>
+      </c>
+      <c r="H8" s="8">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="I8" s="8">
+        <v>84.19</v>
+      </c>
+      <c r="J8" s="8">
+        <v>93.1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>124.66</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O8" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P8" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R8" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S8" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T8" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U8" s="8">
+        <v>760</v>
+      </c>
+      <c r="V8" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>39.54</v>
+      </c>
+      <c r="C9" s="8">
+        <v>41.86</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44.18</v>
+      </c>
+      <c r="E9" s="8">
+        <v>53.46</v>
+      </c>
+      <c r="F9" s="8">
+        <v>62.74</v>
+      </c>
+      <c r="G9" s="8">
+        <v>72.02</v>
+      </c>
+      <c r="H9" s="8">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="I9" s="8">
+        <v>91.06</v>
+      </c>
+      <c r="J9" s="8">
+        <v>100.57</v>
+      </c>
+      <c r="K9" s="8">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O9" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P9" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R9" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S9" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T9" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U9" s="8">
+        <v>760</v>
+      </c>
+      <c r="V9" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="C10" s="8">
+        <v>41.61</v>
+      </c>
+      <c r="D10" s="8">
+        <v>48.21</v>
+      </c>
+      <c r="E10" s="8">
+        <v>58.03</v>
+      </c>
+      <c r="F10" s="8">
+        <v>67.84</v>
+      </c>
+      <c r="G10" s="8">
+        <v>77.66</v>
+      </c>
+      <c r="H10" s="8">
+        <v>87.79</v>
+      </c>
+      <c r="I10" s="8">
+        <v>97.92</v>
+      </c>
+      <c r="J10" s="8">
+        <v>108.05</v>
+      </c>
+      <c r="K10" s="8">
+        <v>132.13</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O10" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R10" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S10" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T10" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U10" s="8">
+        <v>760</v>
+      </c>
+      <c r="V10" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>39.97</v>
+      </c>
+      <c r="C11" s="8">
+        <v>46.32</v>
+      </c>
+      <c r="D11" s="8">
+        <v>52.68</v>
+      </c>
+      <c r="E11" s="8">
+        <v>62.75</v>
+      </c>
+      <c r="F11" s="8">
+        <v>72.83</v>
+      </c>
+      <c r="G11" s="8">
+        <v>82.9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>92.87</v>
+      </c>
+      <c r="I11" s="8">
+        <v>102.84</v>
+      </c>
+      <c r="J11" s="8">
+        <v>112.8</v>
+      </c>
+      <c r="K11" s="8">
+        <v>134.51</v>
+      </c>
+      <c r="M11" s="9">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O11" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R11" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S11" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T11" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U11" s="8">
+        <v>760</v>
+      </c>
+      <c r="V11" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44.92</v>
+      </c>
+      <c r="C12" s="8">
+        <v>51.03</v>
+      </c>
+      <c r="D12" s="8">
+        <v>57.15</v>
+      </c>
+      <c r="E12" s="8">
+        <v>67.48</v>
+      </c>
+      <c r="F12" s="8">
+        <v>77.81</v>
+      </c>
+      <c r="G12" s="8">
+        <v>88.14</v>
+      </c>
+      <c r="H12" s="8">
+        <v>97.95</v>
+      </c>
+      <c r="I12" s="8">
+        <v>107.75</v>
+      </c>
+      <c r="J12" s="8">
+        <v>117.56</v>
+      </c>
+      <c r="K12" s="8">
+        <v>136.88999999999999</v>
+      </c>
+      <c r="M12" s="9">
+        <v>8</v>
+      </c>
+      <c r="N12" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O12" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R12" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S12" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T12" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U12" s="8">
+        <v>760</v>
+      </c>
+      <c r="V12" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>49.87</v>
+      </c>
+      <c r="C13" s="8">
+        <v>55.75</v>
+      </c>
+      <c r="D13" s="8">
+        <v>61.62</v>
+      </c>
+      <c r="E13" s="8">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="F13" s="8">
+        <v>82.79</v>
+      </c>
+      <c r="G13" s="8">
+        <v>93.38</v>
+      </c>
+      <c r="H13" s="8">
+        <v>103.02</v>
+      </c>
+      <c r="I13" s="8">
+        <v>112.67</v>
+      </c>
+      <c r="J13" s="8">
+        <v>122.32</v>
+      </c>
+      <c r="K13" s="8">
+        <v>139.26</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O13" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P13" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R13" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S13" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T13" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U13" s="8">
+        <v>760</v>
+      </c>
+      <c r="V13" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>49.8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>56.23</v>
+      </c>
+      <c r="D14" s="8">
+        <v>62.66</v>
+      </c>
+      <c r="E14" s="8">
+        <v>72.94</v>
+      </c>
+      <c r="F14" s="8">
+        <v>83.23</v>
+      </c>
+      <c r="G14" s="8">
+        <v>93.52</v>
+      </c>
+      <c r="H14" s="8">
+        <v>103.46</v>
+      </c>
+      <c r="I14" s="8">
+        <v>113.41</v>
+      </c>
+      <c r="J14" s="8">
+        <v>123.36</v>
+      </c>
+      <c r="K14" s="8">
+        <v>139.79</v>
+      </c>
+      <c r="M14" s="9">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O14" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P14" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R14" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S14" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T14" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U14" s="8">
+        <v>760</v>
+      </c>
+      <c r="V14" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W14" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>49.72</v>
+      </c>
+      <c r="C15" s="8">
+        <v>56.71</v>
+      </c>
+      <c r="D15" s="8">
+        <v>63.69</v>
+      </c>
+      <c r="E15" s="8">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="F15" s="8">
+        <v>83.67</v>
+      </c>
+      <c r="G15" s="8">
+        <v>93.66</v>
+      </c>
+      <c r="H15" s="8">
+        <v>103.91</v>
+      </c>
+      <c r="I15" s="8">
+        <v>114.16</v>
+      </c>
+      <c r="J15" s="8">
+        <v>124.41</v>
+      </c>
+      <c r="K15" s="8">
+        <v>140.31</v>
+      </c>
+      <c r="M15" s="9">
+        <v>11</v>
+      </c>
+      <c r="N15" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O15" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P15" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R15" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S15" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T15" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U15" s="8">
+        <v>760</v>
+      </c>
+      <c r="V15" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>49.65</v>
+      </c>
+      <c r="C16" s="8">
+        <v>57.19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>64.73</v>
+      </c>
+      <c r="E16" s="8">
+        <v>74.42</v>
+      </c>
+      <c r="F16" s="8">
+        <v>84.11</v>
+      </c>
+      <c r="G16" s="8">
+        <v>93.8</v>
+      </c>
+      <c r="H16" s="8">
+        <v>104.35</v>
+      </c>
+      <c r="I16" s="8">
+        <v>114.9</v>
+      </c>
+      <c r="J16" s="8">
+        <v>125.45</v>
+      </c>
+      <c r="K16" s="8">
+        <v>140.83000000000001</v>
+      </c>
+      <c r="M16" s="9">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O16" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P16" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R16" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S16" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T16" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U16" s="8">
+        <v>760</v>
+      </c>
+      <c r="V16" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>49.58</v>
+      </c>
+      <c r="C17" s="8">
+        <v>57.67</v>
+      </c>
+      <c r="D17" s="8">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="E17" s="8">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="F17" s="8">
+        <v>84.54</v>
+      </c>
+      <c r="G17" s="8">
+        <v>93.94</v>
+      </c>
+      <c r="H17" s="8">
+        <v>104.79</v>
+      </c>
+      <c r="I17" s="8">
+        <v>115.64</v>
+      </c>
+      <c r="J17" s="8">
+        <v>126.49</v>
+      </c>
+      <c r="K17" s="8">
+        <v>141.35</v>
+      </c>
+      <c r="M17" s="9">
+        <v>13</v>
+      </c>
+      <c r="N17" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O17" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P17" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R17" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S17" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T17" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U17" s="8">
+        <v>760</v>
+      </c>
+      <c r="V17" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>49.51</v>
+      </c>
+      <c r="C18" s="8">
+        <v>58.15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>66.8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>75.89</v>
+      </c>
+      <c r="F18" s="8">
+        <v>84.98</v>
+      </c>
+      <c r="G18" s="8">
+        <v>94.08</v>
+      </c>
+      <c r="H18" s="8">
+        <v>105.23</v>
+      </c>
+      <c r="I18" s="8">
+        <v>116.38</v>
+      </c>
+      <c r="J18" s="8">
+        <v>127.54</v>
+      </c>
+      <c r="K18" s="8">
+        <v>141.88</v>
+      </c>
+      <c r="M18" s="9">
+        <v>14</v>
+      </c>
+      <c r="N18" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O18" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P18" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R18" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S18" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T18" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U18" s="8">
+        <v>760</v>
+      </c>
+      <c r="V18" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>49.44</v>
+      </c>
+      <c r="C19" s="8">
+        <v>58.64</v>
+      </c>
+      <c r="D19" s="8">
+        <v>67.83</v>
+      </c>
+      <c r="E19" s="8">
+        <v>76.63</v>
+      </c>
+      <c r="F19" s="8">
+        <v>85.42</v>
+      </c>
+      <c r="G19" s="8">
+        <v>94.22</v>
+      </c>
+      <c r="H19" s="8">
+        <v>105.67</v>
+      </c>
+      <c r="I19" s="8">
+        <v>117.13</v>
+      </c>
+      <c r="J19" s="8">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="K19" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="M19" s="9">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O19" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P19" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R19" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S19" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T19" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U19" s="8">
+        <v>760</v>
+      </c>
+      <c r="V19" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>49.37</v>
+      </c>
+      <c r="C20" s="8">
+        <v>59.12</v>
+      </c>
+      <c r="D20" s="8">
+        <v>68.87</v>
+      </c>
+      <c r="E20" s="8">
+        <v>77.36</v>
+      </c>
+      <c r="F20" s="8">
+        <v>85.86</v>
+      </c>
+      <c r="G20" s="8">
+        <v>94.36</v>
+      </c>
+      <c r="H20" s="8">
+        <v>106.11</v>
+      </c>
+      <c r="I20" s="8">
+        <v>117.87</v>
+      </c>
+      <c r="J20" s="8">
+        <v>129.63</v>
+      </c>
+      <c r="K20" s="8">
+        <v>142.91999999999999</v>
+      </c>
+      <c r="M20" s="9">
+        <v>16</v>
+      </c>
+      <c r="N20" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O20" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P20" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R20" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S20" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T20" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U20" s="8">
+        <v>760</v>
+      </c>
+      <c r="V20" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>49.3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>59.6</v>
+      </c>
+      <c r="D21" s="8">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E21" s="8">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="F21" s="8">
+        <v>86.3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="H21" s="8">
+        <v>106.55</v>
+      </c>
+      <c r="I21" s="8">
+        <v>118.61</v>
+      </c>
+      <c r="J21" s="8">
+        <v>130.66999999999999</v>
+      </c>
+      <c r="K21" s="8">
+        <v>143.44</v>
+      </c>
+      <c r="M21" s="9">
+        <v>17</v>
+      </c>
+      <c r="N21" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O21" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P21" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R21" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S21" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T21" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U21" s="8">
+        <v>760</v>
+      </c>
+      <c r="V21" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>49.23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>60.08</v>
+      </c>
+      <c r="D22" s="8">
+        <v>70.94</v>
+      </c>
+      <c r="E22" s="8">
+        <v>78.84</v>
+      </c>
+      <c r="F22" s="8">
+        <v>86.74</v>
+      </c>
+      <c r="G22" s="8">
+        <v>94.64</v>
+      </c>
+      <c r="H22" s="8">
+        <v>107</v>
+      </c>
+      <c r="I22" s="8">
+        <v>119.36</v>
+      </c>
+      <c r="J22" s="8">
+        <v>131.72</v>
+      </c>
+      <c r="K22" s="8">
+        <v>143.96</v>
+      </c>
+      <c r="M22" s="9">
+        <v>18</v>
+      </c>
+      <c r="N22" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O22" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P22" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R22" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S22" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T22" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U22" s="8">
+        <v>760</v>
+      </c>
+      <c r="V22" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>49.16</v>
+      </c>
+      <c r="C23" s="8">
+        <v>60.56</v>
+      </c>
+      <c r="D23" s="8">
+        <v>71.97</v>
+      </c>
+      <c r="E23" s="8">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="F23" s="8">
+        <v>87.17</v>
+      </c>
+      <c r="G23" s="8">
+        <v>94.78</v>
+      </c>
+      <c r="H23" s="8">
+        <v>107.44</v>
+      </c>
+      <c r="I23" s="8">
+        <v>120.1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>132.76</v>
+      </c>
+      <c r="K23" s="8">
+        <v>144.49</v>
+      </c>
+      <c r="M23" s="9">
+        <v>19</v>
+      </c>
+      <c r="N23" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O23" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P23" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R23" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S23" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T23" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U23" s="8">
+        <v>760</v>
+      </c>
+      <c r="V23" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>49.09</v>
+      </c>
+      <c r="C24" s="8">
+        <v>61.05</v>
+      </c>
+      <c r="D24" s="8">
+        <v>73</v>
+      </c>
+      <c r="E24" s="8">
+        <v>80.31</v>
+      </c>
+      <c r="F24" s="8">
+        <v>87.61</v>
+      </c>
+      <c r="G24" s="8">
+        <v>94.92</v>
+      </c>
+      <c r="H24" s="8">
+        <v>107.88</v>
+      </c>
+      <c r="I24" s="8">
+        <v>120.84</v>
+      </c>
+      <c r="J24" s="8">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="K24" s="8">
+        <v>145.01</v>
+      </c>
+      <c r="M24" s="9">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O24" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P24" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R24" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S24" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T24" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U24" s="8">
+        <v>760</v>
+      </c>
+      <c r="V24" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>49.02</v>
+      </c>
+      <c r="C25" s="8">
+        <v>61.53</v>
+      </c>
+      <c r="D25" s="8">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="E25" s="8">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="F25" s="8">
+        <v>88.05</v>
+      </c>
+      <c r="G25" s="8">
+        <v>95.06</v>
+      </c>
+      <c r="H25" s="8">
+        <v>108.32</v>
+      </c>
+      <c r="I25" s="8">
+        <v>121.58</v>
+      </c>
+      <c r="J25" s="8">
+        <v>134.85</v>
+      </c>
+      <c r="K25" s="8">
+        <v>145.53</v>
+      </c>
+      <c r="M25" s="9">
+        <v>21</v>
+      </c>
+      <c r="N25" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O25" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P25" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R25" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S25" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T25" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U25" s="8">
+        <v>760</v>
+      </c>
+      <c r="V25" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>48.94</v>
+      </c>
+      <c r="C26" s="8">
+        <v>62.01</v>
+      </c>
+      <c r="D26" s="8">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="E26" s="8">
+        <v>81.78</v>
+      </c>
+      <c r="F26" s="8">
+        <v>88.49</v>
+      </c>
+      <c r="G26" s="8">
+        <v>95.2</v>
+      </c>
+      <c r="H26" s="8">
+        <v>108.76</v>
+      </c>
+      <c r="I26" s="8">
+        <v>122.33</v>
+      </c>
+      <c r="J26" s="8">
+        <v>135.88999999999999</v>
+      </c>
+      <c r="K26" s="8">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="M26" s="9">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O26" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P26" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R26" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S26" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T26" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U26" s="8">
+        <v>760</v>
+      </c>
+      <c r="V26" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>48.87</v>
+      </c>
+      <c r="C27" s="8">
+        <v>62.49</v>
+      </c>
+      <c r="D27" s="8">
+        <v>76.11</v>
+      </c>
+      <c r="E27" s="8">
+        <v>82.52</v>
+      </c>
+      <c r="F27" s="8">
+        <v>88.93</v>
+      </c>
+      <c r="G27" s="8">
+        <v>95.34</v>
+      </c>
+      <c r="H27" s="8">
+        <v>109.2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>123.07</v>
+      </c>
+      <c r="J27" s="8">
+        <v>136.94</v>
+      </c>
+      <c r="K27" s="8">
+        <v>146.57</v>
+      </c>
+      <c r="M27" s="9">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O27" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P27" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R27" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S27" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T27" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U27" s="8">
+        <v>760</v>
+      </c>
+      <c r="V27" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>48.8</v>
+      </c>
+      <c r="C28" s="8">
+        <v>62.97</v>
+      </c>
+      <c r="D28" s="8">
+        <v>77.14</v>
+      </c>
+      <c r="E28" s="8">
+        <v>83.25</v>
+      </c>
+      <c r="F28" s="8">
+        <v>89.36</v>
+      </c>
+      <c r="G28" s="8">
+        <v>95.48</v>
+      </c>
+      <c r="H28" s="8">
+        <v>109.64</v>
+      </c>
+      <c r="I28" s="8">
+        <v>123.81</v>
+      </c>
+      <c r="J28" s="8">
+        <v>137.97999999999999</v>
+      </c>
+      <c r="K28" s="8">
+        <v>147.1</v>
+      </c>
+      <c r="M28" s="9">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O28" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P28" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R28" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S28" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T28" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U28" s="8">
+        <v>760</v>
+      </c>
+      <c r="V28" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>48.73</v>
+      </c>
+      <c r="C29" s="8">
+        <v>63.45</v>
+      </c>
+      <c r="D29" s="8">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="E29" s="8">
+        <v>83.99</v>
+      </c>
+      <c r="F29" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="G29" s="8">
+        <v>95.62</v>
+      </c>
+      <c r="H29" s="8">
+        <v>110.09</v>
+      </c>
+      <c r="I29" s="8">
+        <v>124.56</v>
+      </c>
+      <c r="J29" s="8">
+        <v>139.03</v>
+      </c>
+      <c r="K29" s="8">
+        <v>147.62</v>
+      </c>
+      <c r="M29" s="9">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O29" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P29" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R29" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S29" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T29" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U29" s="8">
+        <v>760</v>
+      </c>
+      <c r="V29" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W29" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>48.66</v>
+      </c>
+      <c r="C30" s="8">
+        <v>63.94</v>
+      </c>
+      <c r="D30" s="8">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="E30" s="8">
+        <v>84.73</v>
+      </c>
+      <c r="F30" s="8">
+        <v>90.24</v>
+      </c>
+      <c r="G30" s="8">
+        <v>95.76</v>
+      </c>
+      <c r="H30" s="8">
+        <v>110.53</v>
+      </c>
+      <c r="I30" s="8">
+        <v>125.3</v>
+      </c>
+      <c r="J30" s="8">
+        <v>140.07</v>
+      </c>
+      <c r="K30" s="8">
+        <v>148.13999999999999</v>
+      </c>
+      <c r="M30" s="9">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O30" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P30" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R30" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S30" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T30" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U30" s="8">
+        <v>760</v>
+      </c>
+      <c r="V30" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>48.59</v>
+      </c>
+      <c r="C31" s="8">
+        <v>64.42</v>
+      </c>
+      <c r="D31" s="8">
+        <v>80.25</v>
+      </c>
+      <c r="E31" s="8">
+        <v>85.46</v>
+      </c>
+      <c r="F31" s="8">
+        <v>90.68</v>
+      </c>
+      <c r="G31" s="8">
+        <v>95.9</v>
+      </c>
+      <c r="H31" s="8">
+        <v>110.97</v>
+      </c>
+      <c r="I31" s="8">
+        <v>126.04</v>
+      </c>
+      <c r="J31" s="8">
+        <v>141.11000000000001</v>
+      </c>
+      <c r="K31" s="8">
+        <v>148.66</v>
+      </c>
+      <c r="M31" s="9">
+        <v>27</v>
+      </c>
+      <c r="N31" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O31" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P31" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R31" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S31" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T31" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U31" s="8">
+        <v>760</v>
+      </c>
+      <c r="V31" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <v>48.52</v>
+      </c>
+      <c r="C32" s="8">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D32" s="8">
+        <v>81.28</v>
+      </c>
+      <c r="E32" s="8">
+        <v>86.2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>91.12</v>
+      </c>
+      <c r="G32" s="8">
+        <v>96.04</v>
+      </c>
+      <c r="H32" s="8">
+        <v>111.41</v>
+      </c>
+      <c r="I32" s="8">
+        <v>126.78</v>
+      </c>
+      <c r="J32" s="8">
+        <v>142.16</v>
+      </c>
+      <c r="K32" s="8">
+        <v>149.19</v>
+      </c>
+      <c r="M32" s="9">
+        <v>28</v>
+      </c>
+      <c r="N32" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O32" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P32" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R32" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S32" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T32" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U32" s="8">
+        <v>760</v>
+      </c>
+      <c r="V32" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>48.45</v>
+      </c>
+      <c r="C33" s="8">
+        <v>65.38</v>
+      </c>
+      <c r="D33" s="8">
+        <v>82.32</v>
+      </c>
+      <c r="E33" s="8">
+        <v>86.94</v>
+      </c>
+      <c r="F33" s="8">
+        <v>91.56</v>
+      </c>
+      <c r="G33" s="8">
+        <v>96.18</v>
+      </c>
+      <c r="H33" s="8">
+        <v>111.85</v>
+      </c>
+      <c r="I33" s="8">
+        <v>127.53</v>
+      </c>
+      <c r="J33" s="8">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="K33" s="8">
+        <v>149.71</v>
+      </c>
+      <c r="M33" s="9">
+        <v>29</v>
+      </c>
+      <c r="N33" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O33" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P33" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R33" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S33" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T33" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U33" s="8">
+        <v>760</v>
+      </c>
+      <c r="V33" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>48.38</v>
+      </c>
+      <c r="C34" s="8">
+        <v>65.86</v>
+      </c>
+      <c r="D34" s="8">
+        <v>83.35</v>
+      </c>
+      <c r="E34" s="8">
+        <v>87.67</v>
+      </c>
+      <c r="F34" s="8">
+        <v>91.99</v>
+      </c>
+      <c r="G34" s="8">
+        <v>96.32</v>
+      </c>
+      <c r="H34" s="8">
+        <v>112.29</v>
+      </c>
+      <c r="I34" s="8">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="J34" s="8">
+        <v>144.25</v>
+      </c>
+      <c r="K34" s="8">
+        <v>150.22999999999999</v>
+      </c>
+      <c r="M34" s="9">
+        <v>30</v>
+      </c>
+      <c r="N34" s="8">
+        <v>156.21</v>
+      </c>
+      <c r="O34" s="8">
+        <v>196.5</v>
+      </c>
+      <c r="P34" s="8">
+        <v>236.79</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>277.07</v>
+      </c>
+      <c r="R34" s="8">
+        <v>317.36</v>
+      </c>
+      <c r="S34" s="8">
+        <v>464.91</v>
+      </c>
+      <c r="T34" s="8">
+        <v>612.45000000000005</v>
+      </c>
+      <c r="U34" s="8">
+        <v>760</v>
+      </c>
+      <c r="V34" s="8">
+        <v>907.55</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45.056333333333335</v>
+      </c>
+      <c r="C35" s="8">
+        <v>54.546666666666674</v>
+      </c>
+      <c r="D35" s="8">
+        <v>64.039333333333332</v>
+      </c>
+      <c r="E35" s="8">
+        <v>71.866</v>
+      </c>
+      <c r="F35" s="8">
+        <v>79.691666666666634</v>
+      </c>
+      <c r="G35" s="8">
+        <v>87.520666666666656</v>
+      </c>
+      <c r="H35" s="8">
+        <v>99.33866666666664</v>
+      </c>
+      <c r="I35" s="8">
+        <v>111.15833333333335</v>
+      </c>
+      <c r="J35" s="8">
+        <v>122.97833333333332</v>
+      </c>
+      <c r="K35" s="8">
+        <v>139.596</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="10">
+        <v>156.21</v>
+      </c>
+      <c r="O35" s="10">
+        <v>196.5</v>
+      </c>
+      <c r="P35" s="10">
+        <v>236.79</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>277.06999999999988</v>
+      </c>
+      <c r="R35" s="10">
+        <v>317.35999999999996</v>
+      </c>
+      <c r="S35" s="10">
+        <v>464.90999999999991</v>
+      </c>
+      <c r="T35" s="10">
+        <v>612.45000000000039</v>
+      </c>
+      <c r="U35" s="10">
+        <v>760</v>
+      </c>
+      <c r="V35" s="10">
+        <v>907.5499999999995</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1055.0899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="N2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C329B72-B441-4A9C-B89A-4A1D58BE3ABB}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -5415,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFFF00"/>
@@ -5466,6 +7799,2332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A54CD7A-C5DB-4053-8396-4E635114B1F4}">
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>14</v>
+      </c>
+      <c r="R3" s="5">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5">
+        <v>17</v>
+      </c>
+      <c r="U3" s="5">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5">
+        <v>19</v>
+      </c>
+      <c r="W3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7.44</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15.06</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22.67</v>
+      </c>
+      <c r="E5" s="8">
+        <v>28.48</v>
+      </c>
+      <c r="F5" s="8">
+        <v>34.29</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40.1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>47.37</v>
+      </c>
+      <c r="I5" s="8">
+        <v>54.65</v>
+      </c>
+      <c r="J5" s="8">
+        <v>61.92</v>
+      </c>
+      <c r="K5" s="8">
+        <v>102.23</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O5" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P5" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R5" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S5" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T5" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U5" s="8">
+        <v>865</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12.14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>28.21</v>
+      </c>
+      <c r="E6" s="8">
+        <v>34.24</v>
+      </c>
+      <c r="F6" s="8">
+        <v>40.28</v>
+      </c>
+      <c r="G6" s="8">
+        <v>46.32</v>
+      </c>
+      <c r="H6" s="8">
+        <v>54.76</v>
+      </c>
+      <c r="I6" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>71.64</v>
+      </c>
+      <c r="K6" s="8">
+        <v>107.09</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O6" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P6" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R6" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S6" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T6" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U6" s="8">
+        <v>865</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>16.84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>25.29</v>
+      </c>
+      <c r="D7" s="8">
+        <v>33.74</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40.01</v>
+      </c>
+      <c r="F7" s="8">
+        <v>46.28</v>
+      </c>
+      <c r="G7" s="8">
+        <v>52.54</v>
+      </c>
+      <c r="H7" s="8">
+        <v>62.15</v>
+      </c>
+      <c r="I7" s="8">
+        <v>71.75</v>
+      </c>
+      <c r="J7" s="8">
+        <v>81.36</v>
+      </c>
+      <c r="K7" s="8">
+        <v>111.95</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O7" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P7" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R7" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S7" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T7" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U7" s="8">
+        <v>865</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>21.55</v>
+      </c>
+      <c r="C8" s="8">
+        <v>30.41</v>
+      </c>
+      <c r="D8" s="8">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45.77</v>
+      </c>
+      <c r="F8" s="8">
+        <v>52.27</v>
+      </c>
+      <c r="G8" s="8">
+        <v>58.77</v>
+      </c>
+      <c r="H8" s="8">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="I8" s="8">
+        <v>80.3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>91.07</v>
+      </c>
+      <c r="K8" s="8">
+        <v>116.81</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O8" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P8" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R8" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S8" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T8" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U8" s="8">
+        <v>865</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>25.08</v>
+      </c>
+      <c r="C9" s="8">
+        <v>33.26</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41.43</v>
+      </c>
+      <c r="E9" s="8">
+        <v>48.89</v>
+      </c>
+      <c r="F9" s="8">
+        <v>56.36</v>
+      </c>
+      <c r="G9" s="8">
+        <v>63.82</v>
+      </c>
+      <c r="H9" s="8">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I9" s="8">
+        <v>85.39</v>
+      </c>
+      <c r="J9" s="8">
+        <v>96.17</v>
+      </c>
+      <c r="K9" s="8">
+        <v>119.35</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O9" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P9" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R9" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S9" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T9" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U9" s="8">
+        <v>865</v>
+      </c>
+      <c r="V9" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>28.62</v>
+      </c>
+      <c r="C10" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43.58</v>
+      </c>
+      <c r="E10" s="8">
+        <v>52.01</v>
+      </c>
+      <c r="F10" s="8">
+        <v>60.44</v>
+      </c>
+      <c r="G10" s="8">
+        <v>68.87</v>
+      </c>
+      <c r="H10" s="8">
+        <v>79.67</v>
+      </c>
+      <c r="I10" s="8">
+        <v>90.47</v>
+      </c>
+      <c r="J10" s="8">
+        <v>101.27</v>
+      </c>
+      <c r="K10" s="8">
+        <v>121.9</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O10" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P10" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R10" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S10" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T10" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U10" s="8">
+        <v>865</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>28.21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>37.65</v>
+      </c>
+      <c r="D11" s="8">
+        <v>47.09</v>
+      </c>
+      <c r="E11" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="F11" s="8">
+        <v>64.03</v>
+      </c>
+      <c r="G11" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>83.44</v>
+      </c>
+      <c r="I11" s="8">
+        <v>94.38</v>
+      </c>
+      <c r="J11" s="8">
+        <v>105.33</v>
+      </c>
+      <c r="K11" s="8">
+        <v>123.93</v>
+      </c>
+      <c r="M11" s="9">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O11" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P11" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R11" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S11" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T11" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U11" s="8">
+        <v>865</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>39.19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>50.59</v>
+      </c>
+      <c r="E12" s="8">
+        <v>59.1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>67.61</v>
+      </c>
+      <c r="G12" s="8">
+        <v>76.12</v>
+      </c>
+      <c r="H12" s="8">
+        <v>87.21</v>
+      </c>
+      <c r="I12" s="8">
+        <v>98.3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>109.38</v>
+      </c>
+      <c r="K12" s="8">
+        <v>125.96</v>
+      </c>
+      <c r="M12" s="9">
+        <v>8</v>
+      </c>
+      <c r="N12" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O12" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P12" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R12" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S12" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T12" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U12" s="8">
+        <v>865</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>27.38</v>
+      </c>
+      <c r="C13" s="8">
+        <v>40.74</v>
+      </c>
+      <c r="D13" s="8">
+        <v>54.1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>62.65</v>
+      </c>
+      <c r="F13" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>79.75</v>
+      </c>
+      <c r="H13" s="8">
+        <v>90.98</v>
+      </c>
+      <c r="I13" s="8">
+        <v>102.21</v>
+      </c>
+      <c r="J13" s="8">
+        <v>113.44</v>
+      </c>
+      <c r="K13" s="8">
+        <v>127.99</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O13" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P13" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R13" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S13" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T13" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U13" s="8">
+        <v>865</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>28.61</v>
+      </c>
+      <c r="C14" s="8">
+        <v>41.77</v>
+      </c>
+      <c r="D14" s="8">
+        <v>54.93</v>
+      </c>
+      <c r="E14" s="8">
+        <v>63.25</v>
+      </c>
+      <c r="F14" s="8">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="G14" s="8">
+        <v>79.88</v>
+      </c>
+      <c r="H14" s="8">
+        <v>91.31</v>
+      </c>
+      <c r="I14" s="8">
+        <v>102.74</v>
+      </c>
+      <c r="J14" s="8">
+        <v>114.18</v>
+      </c>
+      <c r="K14" s="8">
+        <v>128.36000000000001</v>
+      </c>
+      <c r="M14" s="9">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O14" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P14" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R14" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S14" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T14" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U14" s="8">
+        <v>865</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W14" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>29.84</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42.81</v>
+      </c>
+      <c r="D15" s="8">
+        <v>55.77</v>
+      </c>
+      <c r="E15" s="8">
+        <v>63.85</v>
+      </c>
+      <c r="F15" s="8">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="G15" s="8">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="H15" s="8">
+        <v>91.64</v>
+      </c>
+      <c r="I15" s="8">
+        <v>103.28</v>
+      </c>
+      <c r="J15" s="8">
+        <v>114.91</v>
+      </c>
+      <c r="K15" s="8">
+        <v>128.72</v>
+      </c>
+      <c r="M15" s="9">
+        <v>11</v>
+      </c>
+      <c r="N15" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O15" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P15" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R15" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S15" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T15" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U15" s="8">
+        <v>865</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>31.07</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43.84</v>
+      </c>
+      <c r="D16" s="8">
+        <v>56.6</v>
+      </c>
+      <c r="E16" s="8">
+        <v>64.45</v>
+      </c>
+      <c r="F16" s="8">
+        <v>72.3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>80.14</v>
+      </c>
+      <c r="H16" s="8">
+        <v>91.98</v>
+      </c>
+      <c r="I16" s="8">
+        <v>103.81</v>
+      </c>
+      <c r="J16" s="8">
+        <v>115.64</v>
+      </c>
+      <c r="K16" s="8">
+        <v>129.09</v>
+      </c>
+      <c r="M16" s="9">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O16" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P16" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R16" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S16" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T16" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U16" s="8">
+        <v>865</v>
+      </c>
+      <c r="V16" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44.87</v>
+      </c>
+      <c r="D17" s="8">
+        <v>57.44</v>
+      </c>
+      <c r="E17" s="8">
+        <v>65.05</v>
+      </c>
+      <c r="F17" s="8">
+        <v>72.66</v>
+      </c>
+      <c r="G17" s="8">
+        <v>80.27</v>
+      </c>
+      <c r="H17" s="8">
+        <v>92.31</v>
+      </c>
+      <c r="I17" s="8">
+        <v>104.34</v>
+      </c>
+      <c r="J17" s="8">
+        <v>116.38</v>
+      </c>
+      <c r="K17" s="8">
+        <v>129.46</v>
+      </c>
+      <c r="M17" s="9">
+        <v>13</v>
+      </c>
+      <c r="N17" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O17" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P17" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R17" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S17" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T17" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U17" s="8">
+        <v>865</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>33.53</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45.9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>58.28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="F18" s="8">
+        <v>73.03</v>
+      </c>
+      <c r="G18" s="8">
+        <v>80.41</v>
+      </c>
+      <c r="H18" s="8">
+        <v>92.64</v>
+      </c>
+      <c r="I18" s="8">
+        <v>104.88</v>
+      </c>
+      <c r="J18" s="8">
+        <v>117.11</v>
+      </c>
+      <c r="K18" s="8">
+        <v>129.82</v>
+      </c>
+      <c r="M18" s="9">
+        <v>14</v>
+      </c>
+      <c r="N18" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O18" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P18" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R18" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S18" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T18" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U18" s="8">
+        <v>865</v>
+      </c>
+      <c r="V18" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>34.76</v>
+      </c>
+      <c r="C19" s="8">
+        <v>46.93</v>
+      </c>
+      <c r="D19" s="8">
+        <v>59.11</v>
+      </c>
+      <c r="E19" s="8">
+        <v>66.25</v>
+      </c>
+      <c r="F19" s="8">
+        <v>73.39</v>
+      </c>
+      <c r="G19" s="8">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="H19" s="8">
+        <v>92.97</v>
+      </c>
+      <c r="I19" s="8">
+        <v>105.41</v>
+      </c>
+      <c r="J19" s="8">
+        <v>117.85</v>
+      </c>
+      <c r="K19" s="8">
+        <v>130.19</v>
+      </c>
+      <c r="M19" s="9">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O19" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P19" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R19" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S19" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T19" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U19" s="8">
+        <v>865</v>
+      </c>
+      <c r="V19" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>35.99</v>
+      </c>
+      <c r="C20" s="8">
+        <v>47.97</v>
+      </c>
+      <c r="D20" s="8">
+        <v>59.95</v>
+      </c>
+      <c r="E20" s="8">
+        <v>66.849999999999994</v>
+      </c>
+      <c r="F20" s="8">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="G20" s="8">
+        <v>80.67</v>
+      </c>
+      <c r="H20" s="8">
+        <v>93.3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>105.94</v>
+      </c>
+      <c r="J20" s="8">
+        <v>118.58</v>
+      </c>
+      <c r="K20" s="8">
+        <v>130.56</v>
+      </c>
+      <c r="M20" s="9">
+        <v>16</v>
+      </c>
+      <c r="N20" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O20" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P20" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R20" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S20" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T20" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U20" s="8">
+        <v>865</v>
+      </c>
+      <c r="V20" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>37.21</v>
+      </c>
+      <c r="C21" s="8">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8">
+        <v>60.78</v>
+      </c>
+      <c r="E21" s="8">
+        <v>67.45</v>
+      </c>
+      <c r="F21" s="8">
+        <v>74.13</v>
+      </c>
+      <c r="G21" s="8">
+        <v>80.8</v>
+      </c>
+      <c r="H21" s="8">
+        <v>93.64</v>
+      </c>
+      <c r="I21" s="8">
+        <v>106.48</v>
+      </c>
+      <c r="J21" s="8">
+        <v>119.31</v>
+      </c>
+      <c r="K21" s="8">
+        <v>130.93</v>
+      </c>
+      <c r="M21" s="9">
+        <v>17</v>
+      </c>
+      <c r="N21" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O21" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P21" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R21" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S21" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T21" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U21" s="8">
+        <v>865</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>38.44</v>
+      </c>
+      <c r="C22" s="8">
+        <v>50.03</v>
+      </c>
+      <c r="D22" s="8">
+        <v>61.62</v>
+      </c>
+      <c r="E22" s="8">
+        <v>68.06</v>
+      </c>
+      <c r="F22" s="8">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="G22" s="8">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="H22" s="8">
+        <v>93.97</v>
+      </c>
+      <c r="I22" s="8">
+        <v>107.01</v>
+      </c>
+      <c r="J22" s="8">
+        <v>120.05</v>
+      </c>
+      <c r="K22" s="8">
+        <v>131.29</v>
+      </c>
+      <c r="M22" s="9">
+        <v>18</v>
+      </c>
+      <c r="N22" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O22" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P22" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R22" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S22" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T22" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U22" s="8">
+        <v>865</v>
+      </c>
+      <c r="V22" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>39.67</v>
+      </c>
+      <c r="C23" s="8">
+        <v>51.06</v>
+      </c>
+      <c r="D23" s="8">
+        <v>62.45</v>
+      </c>
+      <c r="E23" s="8">
+        <v>68.66</v>
+      </c>
+      <c r="F23" s="8">
+        <v>74.86</v>
+      </c>
+      <c r="G23" s="8">
+        <v>81.06</v>
+      </c>
+      <c r="H23" s="8">
+        <v>94.3</v>
+      </c>
+      <c r="I23" s="8">
+        <v>107.54</v>
+      </c>
+      <c r="J23" s="8">
+        <v>120.78</v>
+      </c>
+      <c r="K23" s="8">
+        <v>131.66</v>
+      </c>
+      <c r="M23" s="9">
+        <v>19</v>
+      </c>
+      <c r="N23" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O23" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P23" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R23" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S23" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T23" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U23" s="8">
+        <v>865</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>40.9</v>
+      </c>
+      <c r="C24" s="8">
+        <v>52.09</v>
+      </c>
+      <c r="D24" s="8">
+        <v>63.29</v>
+      </c>
+      <c r="E24" s="8">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="F24" s="8">
+        <v>75.22</v>
+      </c>
+      <c r="G24" s="8">
+        <v>81.19</v>
+      </c>
+      <c r="H24" s="8">
+        <v>94.63</v>
+      </c>
+      <c r="I24" s="8">
+        <v>108.07</v>
+      </c>
+      <c r="J24" s="8">
+        <v>121.52</v>
+      </c>
+      <c r="K24" s="8">
+        <v>132.03</v>
+      </c>
+      <c r="M24" s="9">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O24" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P24" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R24" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S24" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T24" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U24" s="8">
+        <v>865</v>
+      </c>
+      <c r="V24" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42.13</v>
+      </c>
+      <c r="C25" s="8">
+        <v>53.13</v>
+      </c>
+      <c r="D25" s="8">
+        <v>64.13</v>
+      </c>
+      <c r="E25" s="8">
+        <v>69.86</v>
+      </c>
+      <c r="F25" s="8">
+        <v>75.59</v>
+      </c>
+      <c r="G25" s="8">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="H25" s="8">
+        <v>94.96</v>
+      </c>
+      <c r="I25" s="8">
+        <v>108.61</v>
+      </c>
+      <c r="J25" s="8">
+        <v>122.25</v>
+      </c>
+      <c r="K25" s="8">
+        <v>132.38999999999999</v>
+      </c>
+      <c r="M25" s="9">
+        <v>21</v>
+      </c>
+      <c r="N25" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O25" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P25" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R25" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S25" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T25" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U25" s="8">
+        <v>865</v>
+      </c>
+      <c r="V25" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43.36</v>
+      </c>
+      <c r="C26" s="8">
+        <v>54.16</v>
+      </c>
+      <c r="D26" s="8">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="E26" s="8">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="F26" s="8">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="G26" s="8">
+        <v>81.45</v>
+      </c>
+      <c r="H26" s="8">
+        <v>95.3</v>
+      </c>
+      <c r="I26" s="8">
+        <v>109.14</v>
+      </c>
+      <c r="J26" s="8">
+        <v>122.98</v>
+      </c>
+      <c r="K26" s="8">
+        <v>132.76</v>
+      </c>
+      <c r="M26" s="9">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O26" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P26" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R26" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S26" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T26" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U26" s="8">
+        <v>865</v>
+      </c>
+      <c r="V26" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44.59</v>
+      </c>
+      <c r="C27" s="8">
+        <v>55.19</v>
+      </c>
+      <c r="D27" s="8">
+        <v>65.8</v>
+      </c>
+      <c r="E27" s="8">
+        <v>71.06</v>
+      </c>
+      <c r="F27" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="G27" s="8">
+        <v>81.58</v>
+      </c>
+      <c r="H27" s="8">
+        <v>95.63</v>
+      </c>
+      <c r="I27" s="8">
+        <v>109.67</v>
+      </c>
+      <c r="J27" s="8">
+        <v>123.72</v>
+      </c>
+      <c r="K27" s="8">
+        <v>133.13</v>
+      </c>
+      <c r="M27" s="9">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O27" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P27" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R27" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S27" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T27" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U27" s="8">
+        <v>865</v>
+      </c>
+      <c r="V27" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45.81</v>
+      </c>
+      <c r="C28" s="8">
+        <v>56.22</v>
+      </c>
+      <c r="D28" s="8">
+        <v>66.63</v>
+      </c>
+      <c r="E28" s="8">
+        <v>71.66</v>
+      </c>
+      <c r="F28" s="8">
+        <v>76.69</v>
+      </c>
+      <c r="G28" s="8">
+        <v>81.72</v>
+      </c>
+      <c r="H28" s="8">
+        <v>95.96</v>
+      </c>
+      <c r="I28" s="8">
+        <v>110.21</v>
+      </c>
+      <c r="J28" s="8">
+        <v>124.45</v>
+      </c>
+      <c r="K28" s="8">
+        <v>133.49</v>
+      </c>
+      <c r="M28" s="9">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O28" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P28" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R28" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S28" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T28" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U28" s="8">
+        <v>865</v>
+      </c>
+      <c r="V28" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>47.04</v>
+      </c>
+      <c r="C29" s="8">
+        <v>57.26</v>
+      </c>
+      <c r="D29" s="8">
+        <v>67.47</v>
+      </c>
+      <c r="E29" s="8">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="F29" s="8">
+        <v>77.05</v>
+      </c>
+      <c r="G29" s="8">
+        <v>81.849999999999994</v>
+      </c>
+      <c r="H29" s="8">
+        <v>96.29</v>
+      </c>
+      <c r="I29" s="8">
+        <v>110.74</v>
+      </c>
+      <c r="J29" s="8">
+        <v>125.19</v>
+      </c>
+      <c r="K29" s="8">
+        <v>133.86000000000001</v>
+      </c>
+      <c r="M29" s="9">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O29" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P29" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R29" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S29" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T29" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U29" s="8">
+        <v>865</v>
+      </c>
+      <c r="V29" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W29" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>48.27</v>
+      </c>
+      <c r="C30" s="8">
+        <v>58.29</v>
+      </c>
+      <c r="D30" s="8">
+        <v>68.31</v>
+      </c>
+      <c r="E30" s="8">
+        <v>72.86</v>
+      </c>
+      <c r="F30" s="8">
+        <v>77.42</v>
+      </c>
+      <c r="G30" s="8">
+        <v>81.98</v>
+      </c>
+      <c r="H30" s="8">
+        <v>96.62</v>
+      </c>
+      <c r="I30" s="8">
+        <v>111.27</v>
+      </c>
+      <c r="J30" s="8">
+        <v>125.92</v>
+      </c>
+      <c r="K30" s="8">
+        <v>134.22999999999999</v>
+      </c>
+      <c r="M30" s="9">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O30" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P30" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R30" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S30" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T30" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U30" s="8">
+        <v>865</v>
+      </c>
+      <c r="V30" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>49.5</v>
+      </c>
+      <c r="C31" s="8">
+        <v>59.32</v>
+      </c>
+      <c r="D31" s="8">
+        <v>69.14</v>
+      </c>
+      <c r="E31" s="8">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="F31" s="8">
+        <v>77.790000000000006</v>
+      </c>
+      <c r="G31" s="8">
+        <v>82.11</v>
+      </c>
+      <c r="H31" s="8">
+        <v>96.96</v>
+      </c>
+      <c r="I31" s="8">
+        <v>111.81</v>
+      </c>
+      <c r="J31" s="8">
+        <v>126.65</v>
+      </c>
+      <c r="K31" s="8">
+        <v>134.6</v>
+      </c>
+      <c r="M31" s="9">
+        <v>27</v>
+      </c>
+      <c r="N31" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O31" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P31" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R31" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S31" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T31" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U31" s="8">
+        <v>865</v>
+      </c>
+      <c r="V31" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <v>50.73</v>
+      </c>
+      <c r="C32" s="8">
+        <v>60.35</v>
+      </c>
+      <c r="D32" s="8">
+        <v>69.98</v>
+      </c>
+      <c r="E32" s="8">
+        <v>74.06</v>
+      </c>
+      <c r="F32" s="8">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="G32" s="8">
+        <v>82.24</v>
+      </c>
+      <c r="H32" s="8">
+        <v>97.29</v>
+      </c>
+      <c r="I32" s="8">
+        <v>112.34</v>
+      </c>
+      <c r="J32" s="8">
+        <v>127.39</v>
+      </c>
+      <c r="K32" s="8">
+        <v>134.96</v>
+      </c>
+      <c r="M32" s="9">
+        <v>28</v>
+      </c>
+      <c r="N32" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O32" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P32" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R32" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S32" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T32" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U32" s="8">
+        <v>865</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>51.96</v>
+      </c>
+      <c r="C33" s="8">
+        <v>61.38</v>
+      </c>
+      <c r="D33" s="8">
+        <v>70.81</v>
+      </c>
+      <c r="E33" s="8">
+        <v>74.66</v>
+      </c>
+      <c r="F33" s="8">
+        <v>78.52</v>
+      </c>
+      <c r="G33" s="8">
+        <v>82.37</v>
+      </c>
+      <c r="H33" s="8">
+        <v>97.62</v>
+      </c>
+      <c r="I33" s="8">
+        <v>112.87</v>
+      </c>
+      <c r="J33" s="8">
+        <v>128.12</v>
+      </c>
+      <c r="K33" s="8">
+        <v>135.33000000000001</v>
+      </c>
+      <c r="M33" s="9">
+        <v>29</v>
+      </c>
+      <c r="N33" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O33" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P33" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R33" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S33" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T33" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U33" s="8">
+        <v>865</v>
+      </c>
+      <c r="V33" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>53.19</v>
+      </c>
+      <c r="C34" s="8">
+        <v>62.42</v>
+      </c>
+      <c r="D34" s="8">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="E34" s="8">
+        <v>75.27</v>
+      </c>
+      <c r="F34" s="8">
+        <v>78.88</v>
+      </c>
+      <c r="G34" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="H34" s="8">
+        <v>97.95</v>
+      </c>
+      <c r="I34" s="8">
+        <v>113.4</v>
+      </c>
+      <c r="J34" s="8">
+        <v>128.86000000000001</v>
+      </c>
+      <c r="K34" s="8">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="M34" s="9">
+        <v>30</v>
+      </c>
+      <c r="N34" s="8">
+        <v>142.54</v>
+      </c>
+      <c r="O34" s="8">
+        <v>190.14</v>
+      </c>
+      <c r="P34" s="8">
+        <v>237.73</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>285.33</v>
+      </c>
+      <c r="R34" s="8">
+        <v>332.93</v>
+      </c>
+      <c r="S34" s="8">
+        <v>510.29</v>
+      </c>
+      <c r="T34" s="8">
+        <v>687.64</v>
+      </c>
+      <c r="U34" s="8">
+        <v>865</v>
+      </c>
+      <c r="V34" s="8">
+        <v>1042.3599999999999</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1219.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>35.131999999999998</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45.728666666666662</v>
+      </c>
+      <c r="D35" s="8">
+        <v>56.326000000000008</v>
+      </c>
+      <c r="E35" s="8">
+        <v>62.703333333333333</v>
+      </c>
+      <c r="F35" s="8">
+        <v>69.082333333333324</v>
+      </c>
+      <c r="G35" s="8">
+        <v>75.46033333333331</v>
+      </c>
+      <c r="H35" s="8">
+        <v>87.899666666666661</v>
+      </c>
+      <c r="I35" s="8">
+        <v>100.34033333333332</v>
+      </c>
+      <c r="J35" s="8">
+        <v>112.78066666666665</v>
+      </c>
+      <c r="K35" s="8">
+        <v>127.65900000000001</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="10">
+        <v>142.54</v>
+      </c>
+      <c r="O35" s="10">
+        <v>190.14000000000001</v>
+      </c>
+      <c r="P35" s="10">
+        <v>237.72999999999982</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>285.33</v>
+      </c>
+      <c r="R35" s="10">
+        <v>332.93000000000012</v>
+      </c>
+      <c r="S35" s="10">
+        <v>510.29000000000036</v>
+      </c>
+      <c r="T35" s="10">
+        <v>687.63999999999976</v>
+      </c>
+      <c r="U35" s="10">
+        <v>865</v>
+      </c>
+      <c r="V35" s="10">
+        <v>1042.3600000000004</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1219.7099999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="N2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88339EC-ECB0-41C9-8BB0-630F426B0BBE}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -7791,7 +12450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4309D126-3EDC-42ED-80DF-A34F95A07E6E}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -10117,7 +14776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E35BE4-EF70-41CF-AF12-CCB5BAE8DA8A}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -12443,7 +17102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB5B8B-0B3D-4D0C-9E6D-ACD327AE1B1B}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -14771,7 +19430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FC35AE-E973-4CF9-9AE2-82A811E5E874}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -17097,7 +21756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC8FFAC-4FD7-4739-8182-E5754BE58F0D}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -19423,7 +24082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E16CC-B113-45B8-9AB8-B4C2E0CD8BE4}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -21747,2330 +26406,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20021F30-9281-441A-B982-AE3628B68A09}">
-  <dimension ref="A1:W35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="13" max="23" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8</v>
-      </c>
-      <c r="J3" s="5">
-        <v>9</v>
-      </c>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="5">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>14</v>
-      </c>
-      <c r="R3" s="5">
-        <v>15</v>
-      </c>
-      <c r="S3" s="5">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5">
-        <v>17</v>
-      </c>
-      <c r="U3" s="5">
-        <v>18</v>
-      </c>
-      <c r="V3" s="5">
-        <v>19</v>
-      </c>
-      <c r="W3" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>11.72</v>
-      </c>
-      <c r="C5" s="8">
-        <v>16.84</v>
-      </c>
-      <c r="D5" s="8">
-        <v>21.97</v>
-      </c>
-      <c r="E5" s="8">
-        <v>28.89</v>
-      </c>
-      <c r="F5" s="8">
-        <v>35.81</v>
-      </c>
-      <c r="G5" s="8">
-        <v>42.72</v>
-      </c>
-      <c r="H5" s="8">
-        <v>50.48</v>
-      </c>
-      <c r="I5" s="8">
-        <v>58.23</v>
-      </c>
-      <c r="J5" s="8">
-        <v>65.98</v>
-      </c>
-      <c r="K5" s="8">
-        <v>111.1</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O5" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P5" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R5" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S5" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T5" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U5" s="8">
-        <v>760</v>
-      </c>
-      <c r="V5" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <v>22.5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>25.26</v>
-      </c>
-      <c r="D6" s="8">
-        <v>28.03</v>
-      </c>
-      <c r="E6" s="8">
-        <v>35.56</v>
-      </c>
-      <c r="F6" s="8">
-        <v>43.08</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50.61</v>
-      </c>
-      <c r="H6" s="8">
-        <v>58.75</v>
-      </c>
-      <c r="I6" s="8">
-        <v>66.88</v>
-      </c>
-      <c r="J6" s="8">
-        <v>75.02</v>
-      </c>
-      <c r="K6" s="8">
-        <v>115.62</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O6" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P6" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R6" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S6" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T6" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U6" s="8">
-        <v>760</v>
-      </c>
-      <c r="V6" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W6" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
-        <v>33.28</v>
-      </c>
-      <c r="C7" s="8">
-        <v>33.68</v>
-      </c>
-      <c r="D7" s="8">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="E7" s="8">
-        <v>42.23</v>
-      </c>
-      <c r="F7" s="8">
-        <v>50.36</v>
-      </c>
-      <c r="G7" s="8">
-        <v>58.49</v>
-      </c>
-      <c r="H7" s="8">
-        <v>67.02</v>
-      </c>
-      <c r="I7" s="8">
-        <v>75.540000000000006</v>
-      </c>
-      <c r="J7" s="8">
-        <v>84.06</v>
-      </c>
-      <c r="K7" s="8">
-        <v>120.14</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3</v>
-      </c>
-      <c r="N7" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O7" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R7" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S7" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T7" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U7" s="8">
-        <v>760</v>
-      </c>
-      <c r="V7" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W7" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <v>44.06</v>
-      </c>
-      <c r="C8" s="8">
-        <v>42.1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>40.15</v>
-      </c>
-      <c r="E8" s="8">
-        <v>48.9</v>
-      </c>
-      <c r="F8" s="8">
-        <v>57.64</v>
-      </c>
-      <c r="G8" s="8">
-        <v>66.38</v>
-      </c>
-      <c r="H8" s="8">
-        <v>75.290000000000006</v>
-      </c>
-      <c r="I8" s="8">
-        <v>84.19</v>
-      </c>
-      <c r="J8" s="8">
-        <v>93.1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>124.66</v>
-      </c>
-      <c r="M8" s="9">
-        <v>4</v>
-      </c>
-      <c r="N8" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O8" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P8" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R8" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S8" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T8" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U8" s="8">
-        <v>760</v>
-      </c>
-      <c r="V8" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W8" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>39.54</v>
-      </c>
-      <c r="C9" s="8">
-        <v>41.86</v>
-      </c>
-      <c r="D9" s="8">
-        <v>44.18</v>
-      </c>
-      <c r="E9" s="8">
-        <v>53.46</v>
-      </c>
-      <c r="F9" s="8">
-        <v>62.74</v>
-      </c>
-      <c r="G9" s="8">
-        <v>72.02</v>
-      </c>
-      <c r="H9" s="8">
-        <v>81.540000000000006</v>
-      </c>
-      <c r="I9" s="8">
-        <v>91.06</v>
-      </c>
-      <c r="J9" s="8">
-        <v>100.57</v>
-      </c>
-      <c r="K9" s="8">
-        <v>128.38999999999999</v>
-      </c>
-      <c r="M9" s="9">
-        <v>5</v>
-      </c>
-      <c r="N9" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O9" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P9" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R9" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S9" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T9" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U9" s="8">
-        <v>760</v>
-      </c>
-      <c r="V9" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="C10" s="8">
-        <v>41.61</v>
-      </c>
-      <c r="D10" s="8">
-        <v>48.21</v>
-      </c>
-      <c r="E10" s="8">
-        <v>58.03</v>
-      </c>
-      <c r="F10" s="8">
-        <v>67.84</v>
-      </c>
-      <c r="G10" s="8">
-        <v>77.66</v>
-      </c>
-      <c r="H10" s="8">
-        <v>87.79</v>
-      </c>
-      <c r="I10" s="8">
-        <v>97.92</v>
-      </c>
-      <c r="J10" s="8">
-        <v>108.05</v>
-      </c>
-      <c r="K10" s="8">
-        <v>132.13</v>
-      </c>
-      <c r="M10" s="9">
-        <v>6</v>
-      </c>
-      <c r="N10" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O10" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P10" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R10" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S10" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T10" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U10" s="8">
-        <v>760</v>
-      </c>
-      <c r="V10" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W10" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>39.97</v>
-      </c>
-      <c r="C11" s="8">
-        <v>46.32</v>
-      </c>
-      <c r="D11" s="8">
-        <v>52.68</v>
-      </c>
-      <c r="E11" s="8">
-        <v>62.75</v>
-      </c>
-      <c r="F11" s="8">
-        <v>72.83</v>
-      </c>
-      <c r="G11" s="8">
-        <v>82.9</v>
-      </c>
-      <c r="H11" s="8">
-        <v>92.87</v>
-      </c>
-      <c r="I11" s="8">
-        <v>102.84</v>
-      </c>
-      <c r="J11" s="8">
-        <v>112.8</v>
-      </c>
-      <c r="K11" s="8">
-        <v>134.51</v>
-      </c>
-      <c r="M11" s="9">
-        <v>7</v>
-      </c>
-      <c r="N11" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O11" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P11" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R11" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S11" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T11" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U11" s="8">
-        <v>760</v>
-      </c>
-      <c r="V11" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>44.92</v>
-      </c>
-      <c r="C12" s="8">
-        <v>51.03</v>
-      </c>
-      <c r="D12" s="8">
-        <v>57.15</v>
-      </c>
-      <c r="E12" s="8">
-        <v>67.48</v>
-      </c>
-      <c r="F12" s="8">
-        <v>77.81</v>
-      </c>
-      <c r="G12" s="8">
-        <v>88.14</v>
-      </c>
-      <c r="H12" s="8">
-        <v>97.95</v>
-      </c>
-      <c r="I12" s="8">
-        <v>107.75</v>
-      </c>
-      <c r="J12" s="8">
-        <v>117.56</v>
-      </c>
-      <c r="K12" s="8">
-        <v>136.88999999999999</v>
-      </c>
-      <c r="M12" s="9">
-        <v>8</v>
-      </c>
-      <c r="N12" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O12" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P12" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R12" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S12" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T12" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U12" s="8">
-        <v>760</v>
-      </c>
-      <c r="V12" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>49.87</v>
-      </c>
-      <c r="C13" s="8">
-        <v>55.75</v>
-      </c>
-      <c r="D13" s="8">
-        <v>61.62</v>
-      </c>
-      <c r="E13" s="8">
-        <v>72.209999999999994</v>
-      </c>
-      <c r="F13" s="8">
-        <v>82.79</v>
-      </c>
-      <c r="G13" s="8">
-        <v>93.38</v>
-      </c>
-      <c r="H13" s="8">
-        <v>103.02</v>
-      </c>
-      <c r="I13" s="8">
-        <v>112.67</v>
-      </c>
-      <c r="J13" s="8">
-        <v>122.32</v>
-      </c>
-      <c r="K13" s="8">
-        <v>139.26</v>
-      </c>
-      <c r="M13" s="9">
-        <v>9</v>
-      </c>
-      <c r="N13" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O13" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P13" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R13" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S13" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T13" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U13" s="8">
-        <v>760</v>
-      </c>
-      <c r="V13" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W13" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>49.8</v>
-      </c>
-      <c r="C14" s="8">
-        <v>56.23</v>
-      </c>
-      <c r="D14" s="8">
-        <v>62.66</v>
-      </c>
-      <c r="E14" s="8">
-        <v>72.94</v>
-      </c>
-      <c r="F14" s="8">
-        <v>83.23</v>
-      </c>
-      <c r="G14" s="8">
-        <v>93.52</v>
-      </c>
-      <c r="H14" s="8">
-        <v>103.46</v>
-      </c>
-      <c r="I14" s="8">
-        <v>113.41</v>
-      </c>
-      <c r="J14" s="8">
-        <v>123.36</v>
-      </c>
-      <c r="K14" s="8">
-        <v>139.79</v>
-      </c>
-      <c r="M14" s="9">
-        <v>10</v>
-      </c>
-      <c r="N14" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O14" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P14" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R14" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S14" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T14" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U14" s="8">
-        <v>760</v>
-      </c>
-      <c r="V14" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W14" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>49.72</v>
-      </c>
-      <c r="C15" s="8">
-        <v>56.71</v>
-      </c>
-      <c r="D15" s="8">
-        <v>63.69</v>
-      </c>
-      <c r="E15" s="8">
-        <v>73.680000000000007</v>
-      </c>
-      <c r="F15" s="8">
-        <v>83.67</v>
-      </c>
-      <c r="G15" s="8">
-        <v>93.66</v>
-      </c>
-      <c r="H15" s="8">
-        <v>103.91</v>
-      </c>
-      <c r="I15" s="8">
-        <v>114.16</v>
-      </c>
-      <c r="J15" s="8">
-        <v>124.41</v>
-      </c>
-      <c r="K15" s="8">
-        <v>140.31</v>
-      </c>
-      <c r="M15" s="9">
-        <v>11</v>
-      </c>
-      <c r="N15" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O15" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P15" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R15" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S15" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T15" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U15" s="8">
-        <v>760</v>
-      </c>
-      <c r="V15" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W15" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8">
-        <v>49.65</v>
-      </c>
-      <c r="C16" s="8">
-        <v>57.19</v>
-      </c>
-      <c r="D16" s="8">
-        <v>64.73</v>
-      </c>
-      <c r="E16" s="8">
-        <v>74.42</v>
-      </c>
-      <c r="F16" s="8">
-        <v>84.11</v>
-      </c>
-      <c r="G16" s="8">
-        <v>93.8</v>
-      </c>
-      <c r="H16" s="8">
-        <v>104.35</v>
-      </c>
-      <c r="I16" s="8">
-        <v>114.9</v>
-      </c>
-      <c r="J16" s="8">
-        <v>125.45</v>
-      </c>
-      <c r="K16" s="8">
-        <v>140.83000000000001</v>
-      </c>
-      <c r="M16" s="9">
-        <v>12</v>
-      </c>
-      <c r="N16" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O16" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P16" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R16" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S16" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T16" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U16" s="8">
-        <v>760</v>
-      </c>
-      <c r="V16" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W16" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>49.58</v>
-      </c>
-      <c r="C17" s="8">
-        <v>57.67</v>
-      </c>
-      <c r="D17" s="8">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="E17" s="8">
-        <v>75.150000000000006</v>
-      </c>
-      <c r="F17" s="8">
-        <v>84.54</v>
-      </c>
-      <c r="G17" s="8">
-        <v>93.94</v>
-      </c>
-      <c r="H17" s="8">
-        <v>104.79</v>
-      </c>
-      <c r="I17" s="8">
-        <v>115.64</v>
-      </c>
-      <c r="J17" s="8">
-        <v>126.49</v>
-      </c>
-      <c r="K17" s="8">
-        <v>141.35</v>
-      </c>
-      <c r="M17" s="9">
-        <v>13</v>
-      </c>
-      <c r="N17" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O17" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P17" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R17" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S17" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T17" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U17" s="8">
-        <v>760</v>
-      </c>
-      <c r="V17" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W17" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>49.51</v>
-      </c>
-      <c r="C18" s="8">
-        <v>58.15</v>
-      </c>
-      <c r="D18" s="8">
-        <v>66.8</v>
-      </c>
-      <c r="E18" s="8">
-        <v>75.89</v>
-      </c>
-      <c r="F18" s="8">
-        <v>84.98</v>
-      </c>
-      <c r="G18" s="8">
-        <v>94.08</v>
-      </c>
-      <c r="H18" s="8">
-        <v>105.23</v>
-      </c>
-      <c r="I18" s="8">
-        <v>116.38</v>
-      </c>
-      <c r="J18" s="8">
-        <v>127.54</v>
-      </c>
-      <c r="K18" s="8">
-        <v>141.88</v>
-      </c>
-      <c r="M18" s="9">
-        <v>14</v>
-      </c>
-      <c r="N18" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O18" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P18" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R18" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S18" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T18" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U18" s="8">
-        <v>760</v>
-      </c>
-      <c r="V18" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W18" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>49.44</v>
-      </c>
-      <c r="C19" s="8">
-        <v>58.64</v>
-      </c>
-      <c r="D19" s="8">
-        <v>67.83</v>
-      </c>
-      <c r="E19" s="8">
-        <v>76.63</v>
-      </c>
-      <c r="F19" s="8">
-        <v>85.42</v>
-      </c>
-      <c r="G19" s="8">
-        <v>94.22</v>
-      </c>
-      <c r="H19" s="8">
-        <v>105.67</v>
-      </c>
-      <c r="I19" s="8">
-        <v>117.13</v>
-      </c>
-      <c r="J19" s="8">
-        <v>128.58000000000001</v>
-      </c>
-      <c r="K19" s="8">
-        <v>142.4</v>
-      </c>
-      <c r="M19" s="9">
-        <v>15</v>
-      </c>
-      <c r="N19" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O19" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P19" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R19" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S19" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T19" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U19" s="8">
-        <v>760</v>
-      </c>
-      <c r="V19" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W19" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <v>49.37</v>
-      </c>
-      <c r="C20" s="8">
-        <v>59.12</v>
-      </c>
-      <c r="D20" s="8">
-        <v>68.87</v>
-      </c>
-      <c r="E20" s="8">
-        <v>77.36</v>
-      </c>
-      <c r="F20" s="8">
-        <v>85.86</v>
-      </c>
-      <c r="G20" s="8">
-        <v>94.36</v>
-      </c>
-      <c r="H20" s="8">
-        <v>106.11</v>
-      </c>
-      <c r="I20" s="8">
-        <v>117.87</v>
-      </c>
-      <c r="J20" s="8">
-        <v>129.63</v>
-      </c>
-      <c r="K20" s="8">
-        <v>142.91999999999999</v>
-      </c>
-      <c r="M20" s="9">
-        <v>16</v>
-      </c>
-      <c r="N20" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O20" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P20" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R20" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S20" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T20" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U20" s="8">
-        <v>760</v>
-      </c>
-      <c r="V20" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W20" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <v>49.3</v>
-      </c>
-      <c r="C21" s="8">
-        <v>59.6</v>
-      </c>
-      <c r="D21" s="8">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E21" s="8">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="F21" s="8">
-        <v>86.3</v>
-      </c>
-      <c r="G21" s="8">
-        <v>94.5</v>
-      </c>
-      <c r="H21" s="8">
-        <v>106.55</v>
-      </c>
-      <c r="I21" s="8">
-        <v>118.61</v>
-      </c>
-      <c r="J21" s="8">
-        <v>130.66999999999999</v>
-      </c>
-      <c r="K21" s="8">
-        <v>143.44</v>
-      </c>
-      <c r="M21" s="9">
-        <v>17</v>
-      </c>
-      <c r="N21" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O21" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P21" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R21" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S21" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T21" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U21" s="8">
-        <v>760</v>
-      </c>
-      <c r="V21" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W21" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8">
-        <v>49.23</v>
-      </c>
-      <c r="C22" s="8">
-        <v>60.08</v>
-      </c>
-      <c r="D22" s="8">
-        <v>70.94</v>
-      </c>
-      <c r="E22" s="8">
-        <v>78.84</v>
-      </c>
-      <c r="F22" s="8">
-        <v>86.74</v>
-      </c>
-      <c r="G22" s="8">
-        <v>94.64</v>
-      </c>
-      <c r="H22" s="8">
-        <v>107</v>
-      </c>
-      <c r="I22" s="8">
-        <v>119.36</v>
-      </c>
-      <c r="J22" s="8">
-        <v>131.72</v>
-      </c>
-      <c r="K22" s="8">
-        <v>143.96</v>
-      </c>
-      <c r="M22" s="9">
-        <v>18</v>
-      </c>
-      <c r="N22" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O22" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P22" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R22" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S22" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T22" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U22" s="8">
-        <v>760</v>
-      </c>
-      <c r="V22" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W22" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
-        <v>49.16</v>
-      </c>
-      <c r="C23" s="8">
-        <v>60.56</v>
-      </c>
-      <c r="D23" s="8">
-        <v>71.97</v>
-      </c>
-      <c r="E23" s="8">
-        <v>79.569999999999993</v>
-      </c>
-      <c r="F23" s="8">
-        <v>87.17</v>
-      </c>
-      <c r="G23" s="8">
-        <v>94.78</v>
-      </c>
-      <c r="H23" s="8">
-        <v>107.44</v>
-      </c>
-      <c r="I23" s="8">
-        <v>120.1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>132.76</v>
-      </c>
-      <c r="K23" s="8">
-        <v>144.49</v>
-      </c>
-      <c r="M23" s="9">
-        <v>19</v>
-      </c>
-      <c r="N23" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O23" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P23" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R23" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S23" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T23" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U23" s="8">
-        <v>760</v>
-      </c>
-      <c r="V23" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W23" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8">
-        <v>49.09</v>
-      </c>
-      <c r="C24" s="8">
-        <v>61.05</v>
-      </c>
-      <c r="D24" s="8">
-        <v>73</v>
-      </c>
-      <c r="E24" s="8">
-        <v>80.31</v>
-      </c>
-      <c r="F24" s="8">
-        <v>87.61</v>
-      </c>
-      <c r="G24" s="8">
-        <v>94.92</v>
-      </c>
-      <c r="H24" s="8">
-        <v>107.88</v>
-      </c>
-      <c r="I24" s="8">
-        <v>120.84</v>
-      </c>
-      <c r="J24" s="8">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="K24" s="8">
-        <v>145.01</v>
-      </c>
-      <c r="M24" s="9">
-        <v>20</v>
-      </c>
-      <c r="N24" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O24" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P24" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R24" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S24" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T24" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U24" s="8">
-        <v>760</v>
-      </c>
-      <c r="V24" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W24" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8">
-        <v>49.02</v>
-      </c>
-      <c r="C25" s="8">
-        <v>61.53</v>
-      </c>
-      <c r="D25" s="8">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="E25" s="8">
-        <v>81.040000000000006</v>
-      </c>
-      <c r="F25" s="8">
-        <v>88.05</v>
-      </c>
-      <c r="G25" s="8">
-        <v>95.06</v>
-      </c>
-      <c r="H25" s="8">
-        <v>108.32</v>
-      </c>
-      <c r="I25" s="8">
-        <v>121.58</v>
-      </c>
-      <c r="J25" s="8">
-        <v>134.85</v>
-      </c>
-      <c r="K25" s="8">
-        <v>145.53</v>
-      </c>
-      <c r="M25" s="9">
-        <v>21</v>
-      </c>
-      <c r="N25" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O25" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P25" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R25" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S25" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T25" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U25" s="8">
-        <v>760</v>
-      </c>
-      <c r="V25" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W25" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8">
-        <v>48.94</v>
-      </c>
-      <c r="C26" s="8">
-        <v>62.01</v>
-      </c>
-      <c r="D26" s="8">
-        <v>75.069999999999993</v>
-      </c>
-      <c r="E26" s="8">
-        <v>81.78</v>
-      </c>
-      <c r="F26" s="8">
-        <v>88.49</v>
-      </c>
-      <c r="G26" s="8">
-        <v>95.2</v>
-      </c>
-      <c r="H26" s="8">
-        <v>108.76</v>
-      </c>
-      <c r="I26" s="8">
-        <v>122.33</v>
-      </c>
-      <c r="J26" s="8">
-        <v>135.88999999999999</v>
-      </c>
-      <c r="K26" s="8">
-        <v>146.05000000000001</v>
-      </c>
-      <c r="M26" s="9">
-        <v>22</v>
-      </c>
-      <c r="N26" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O26" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P26" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R26" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S26" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T26" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U26" s="8">
-        <v>760</v>
-      </c>
-      <c r="V26" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W26" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8">
-        <v>48.87</v>
-      </c>
-      <c r="C27" s="8">
-        <v>62.49</v>
-      </c>
-      <c r="D27" s="8">
-        <v>76.11</v>
-      </c>
-      <c r="E27" s="8">
-        <v>82.52</v>
-      </c>
-      <c r="F27" s="8">
-        <v>88.93</v>
-      </c>
-      <c r="G27" s="8">
-        <v>95.34</v>
-      </c>
-      <c r="H27" s="8">
-        <v>109.2</v>
-      </c>
-      <c r="I27" s="8">
-        <v>123.07</v>
-      </c>
-      <c r="J27" s="8">
-        <v>136.94</v>
-      </c>
-      <c r="K27" s="8">
-        <v>146.57</v>
-      </c>
-      <c r="M27" s="9">
-        <v>23</v>
-      </c>
-      <c r="N27" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O27" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P27" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R27" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S27" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T27" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U27" s="8">
-        <v>760</v>
-      </c>
-      <c r="V27" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W27" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8">
-        <v>48.8</v>
-      </c>
-      <c r="C28" s="8">
-        <v>62.97</v>
-      </c>
-      <c r="D28" s="8">
-        <v>77.14</v>
-      </c>
-      <c r="E28" s="8">
-        <v>83.25</v>
-      </c>
-      <c r="F28" s="8">
-        <v>89.36</v>
-      </c>
-      <c r="G28" s="8">
-        <v>95.48</v>
-      </c>
-      <c r="H28" s="8">
-        <v>109.64</v>
-      </c>
-      <c r="I28" s="8">
-        <v>123.81</v>
-      </c>
-      <c r="J28" s="8">
-        <v>137.97999999999999</v>
-      </c>
-      <c r="K28" s="8">
-        <v>147.1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>24</v>
-      </c>
-      <c r="N28" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O28" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P28" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R28" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S28" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T28" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U28" s="8">
-        <v>760</v>
-      </c>
-      <c r="V28" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W28" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="8">
-        <v>48.73</v>
-      </c>
-      <c r="C29" s="8">
-        <v>63.45</v>
-      </c>
-      <c r="D29" s="8">
-        <v>78.180000000000007</v>
-      </c>
-      <c r="E29" s="8">
-        <v>83.99</v>
-      </c>
-      <c r="F29" s="8">
-        <v>89.8</v>
-      </c>
-      <c r="G29" s="8">
-        <v>95.62</v>
-      </c>
-      <c r="H29" s="8">
-        <v>110.09</v>
-      </c>
-      <c r="I29" s="8">
-        <v>124.56</v>
-      </c>
-      <c r="J29" s="8">
-        <v>139.03</v>
-      </c>
-      <c r="K29" s="8">
-        <v>147.62</v>
-      </c>
-      <c r="M29" s="9">
-        <v>25</v>
-      </c>
-      <c r="N29" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O29" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P29" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R29" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S29" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T29" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U29" s="8">
-        <v>760</v>
-      </c>
-      <c r="V29" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W29" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="8">
-        <v>48.66</v>
-      </c>
-      <c r="C30" s="8">
-        <v>63.94</v>
-      </c>
-      <c r="D30" s="8">
-        <v>79.209999999999994</v>
-      </c>
-      <c r="E30" s="8">
-        <v>84.73</v>
-      </c>
-      <c r="F30" s="8">
-        <v>90.24</v>
-      </c>
-      <c r="G30" s="8">
-        <v>95.76</v>
-      </c>
-      <c r="H30" s="8">
-        <v>110.53</v>
-      </c>
-      <c r="I30" s="8">
-        <v>125.3</v>
-      </c>
-      <c r="J30" s="8">
-        <v>140.07</v>
-      </c>
-      <c r="K30" s="8">
-        <v>148.13999999999999</v>
-      </c>
-      <c r="M30" s="9">
-        <v>26</v>
-      </c>
-      <c r="N30" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O30" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P30" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R30" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S30" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T30" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U30" s="8">
-        <v>760</v>
-      </c>
-      <c r="V30" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W30" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="8">
-        <v>48.59</v>
-      </c>
-      <c r="C31" s="8">
-        <v>64.42</v>
-      </c>
-      <c r="D31" s="8">
-        <v>80.25</v>
-      </c>
-      <c r="E31" s="8">
-        <v>85.46</v>
-      </c>
-      <c r="F31" s="8">
-        <v>90.68</v>
-      </c>
-      <c r="G31" s="8">
-        <v>95.9</v>
-      </c>
-      <c r="H31" s="8">
-        <v>110.97</v>
-      </c>
-      <c r="I31" s="8">
-        <v>126.04</v>
-      </c>
-      <c r="J31" s="8">
-        <v>141.11000000000001</v>
-      </c>
-      <c r="K31" s="8">
-        <v>148.66</v>
-      </c>
-      <c r="M31" s="9">
-        <v>27</v>
-      </c>
-      <c r="N31" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O31" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P31" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R31" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S31" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T31" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U31" s="8">
-        <v>760</v>
-      </c>
-      <c r="V31" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W31" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>28</v>
-      </c>
-      <c r="B32" s="8">
-        <v>48.52</v>
-      </c>
-      <c r="C32" s="8">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="D32" s="8">
-        <v>81.28</v>
-      </c>
-      <c r="E32" s="8">
-        <v>86.2</v>
-      </c>
-      <c r="F32" s="8">
-        <v>91.12</v>
-      </c>
-      <c r="G32" s="8">
-        <v>96.04</v>
-      </c>
-      <c r="H32" s="8">
-        <v>111.41</v>
-      </c>
-      <c r="I32" s="8">
-        <v>126.78</v>
-      </c>
-      <c r="J32" s="8">
-        <v>142.16</v>
-      </c>
-      <c r="K32" s="8">
-        <v>149.19</v>
-      </c>
-      <c r="M32" s="9">
-        <v>28</v>
-      </c>
-      <c r="N32" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O32" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P32" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R32" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S32" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T32" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U32" s="8">
-        <v>760</v>
-      </c>
-      <c r="V32" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W32" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="8">
-        <v>48.45</v>
-      </c>
-      <c r="C33" s="8">
-        <v>65.38</v>
-      </c>
-      <c r="D33" s="8">
-        <v>82.32</v>
-      </c>
-      <c r="E33" s="8">
-        <v>86.94</v>
-      </c>
-      <c r="F33" s="8">
-        <v>91.56</v>
-      </c>
-      <c r="G33" s="8">
-        <v>96.18</v>
-      </c>
-      <c r="H33" s="8">
-        <v>111.85</v>
-      </c>
-      <c r="I33" s="8">
-        <v>127.53</v>
-      </c>
-      <c r="J33" s="8">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="K33" s="8">
-        <v>149.71</v>
-      </c>
-      <c r="M33" s="9">
-        <v>29</v>
-      </c>
-      <c r="N33" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O33" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P33" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R33" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S33" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T33" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U33" s="8">
-        <v>760</v>
-      </c>
-      <c r="V33" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W33" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="8">
-        <v>48.38</v>
-      </c>
-      <c r="C34" s="8">
-        <v>65.86</v>
-      </c>
-      <c r="D34" s="8">
-        <v>83.35</v>
-      </c>
-      <c r="E34" s="8">
-        <v>87.67</v>
-      </c>
-      <c r="F34" s="8">
-        <v>91.99</v>
-      </c>
-      <c r="G34" s="8">
-        <v>96.32</v>
-      </c>
-      <c r="H34" s="8">
-        <v>112.29</v>
-      </c>
-      <c r="I34" s="8">
-        <v>128.27000000000001</v>
-      </c>
-      <c r="J34" s="8">
-        <v>144.25</v>
-      </c>
-      <c r="K34" s="8">
-        <v>150.22999999999999</v>
-      </c>
-      <c r="M34" s="9">
-        <v>30</v>
-      </c>
-      <c r="N34" s="8">
-        <v>156.21</v>
-      </c>
-      <c r="O34" s="8">
-        <v>196.5</v>
-      </c>
-      <c r="P34" s="8">
-        <v>236.79</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>277.07</v>
-      </c>
-      <c r="R34" s="8">
-        <v>317.36</v>
-      </c>
-      <c r="S34" s="8">
-        <v>464.91</v>
-      </c>
-      <c r="T34" s="8">
-        <v>612.45000000000005</v>
-      </c>
-      <c r="U34" s="8">
-        <v>760</v>
-      </c>
-      <c r="V34" s="8">
-        <v>907.55</v>
-      </c>
-      <c r="W34" s="8">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8">
-        <v>45.056333333333335</v>
-      </c>
-      <c r="C35" s="8">
-        <v>54.546666666666674</v>
-      </c>
-      <c r="D35" s="8">
-        <v>64.039333333333332</v>
-      </c>
-      <c r="E35" s="8">
-        <v>71.866</v>
-      </c>
-      <c r="F35" s="8">
-        <v>79.691666666666634</v>
-      </c>
-      <c r="G35" s="8">
-        <v>87.520666666666656</v>
-      </c>
-      <c r="H35" s="8">
-        <v>99.33866666666664</v>
-      </c>
-      <c r="I35" s="8">
-        <v>111.15833333333335</v>
-      </c>
-      <c r="J35" s="8">
-        <v>122.97833333333332</v>
-      </c>
-      <c r="K35" s="8">
-        <v>139.596</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N35" s="10">
-        <v>156.21</v>
-      </c>
-      <c r="O35" s="10">
-        <v>196.5</v>
-      </c>
-      <c r="P35" s="10">
-        <v>236.79</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>277.06999999999988</v>
-      </c>
-      <c r="R35" s="10">
-        <v>317.35999999999996</v>
-      </c>
-      <c r="S35" s="10">
-        <v>464.90999999999991</v>
-      </c>
-      <c r="T35" s="10">
-        <v>612.45000000000039</v>
-      </c>
-      <c r="U35" s="10">
-        <v>760</v>
-      </c>
-      <c r="V35" s="10">
-        <v>907.5499999999995</v>
-      </c>
-      <c r="W35" s="10">
-        <v>1055.0899999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="N2:W2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/content_history/pbr-2025-vm20-table-f-g-current-spreads.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-f-g-current-spreads.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B6F40-A815-4536-9C7E-400A2571A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA5447D-0179-4292-8586-B060AB00A8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="1980" windowWidth="26490" windowHeight="11010" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="November_2025" sheetId="22" r:id="rId1"/>
-    <sheet name="October_2025" sheetId="21" r:id="rId2"/>
-    <sheet name="September_2025" sheetId="20" r:id="rId3"/>
-    <sheet name="August_2025" sheetId="19" r:id="rId4"/>
-    <sheet name="July_2025" sheetId="18" r:id="rId5"/>
-    <sheet name="June_2025" sheetId="17" r:id="rId6"/>
-    <sheet name="May_2025" sheetId="16" r:id="rId7"/>
-    <sheet name="April_2025" sheetId="15" r:id="rId8"/>
-    <sheet name="March_2025" sheetId="14" r:id="rId9"/>
-    <sheet name="February_2025" sheetId="13" r:id="rId10"/>
-    <sheet name="January_2025" sheetId="12" r:id="rId11"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId12"/>
+    <sheet name="December_2025" sheetId="23" r:id="rId1"/>
+    <sheet name="November_2025" sheetId="22" r:id="rId2"/>
+    <sheet name="October_2025" sheetId="21" r:id="rId3"/>
+    <sheet name="September_2025" sheetId="20" r:id="rId4"/>
+    <sheet name="August_2025" sheetId="19" r:id="rId5"/>
+    <sheet name="July_2025" sheetId="18" r:id="rId6"/>
+    <sheet name="June_2025" sheetId="17" r:id="rId7"/>
+    <sheet name="May_2025" sheetId="16" r:id="rId8"/>
+    <sheet name="April_2025" sheetId="15" r:id="rId9"/>
+    <sheet name="March_2025" sheetId="14" r:id="rId10"/>
+    <sheet name="February_2025" sheetId="13" r:id="rId11"/>
+    <sheet name="January_2025" sheetId="12" r:id="rId12"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="50">
   <si>
     <t>Table F (01/31/2025)  Investment Grade Current Benchmark Spreads (in bps)</t>
   </si>
@@ -185,6 +186,12 @@
   </si>
   <si>
     <t>Table G. (11/28/2025) Below Investment Grade Current Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table F (12/31/2025)  Investment Grade Current Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table G. (12/31/2025) Below Investment Grade Current Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +457,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -771,7 +778,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCD6A14-A899-4FE0-AEAE-02064FB26C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA9282-D84D-4113-85DC-3DE56D8EBC68}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -784,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -797,7 +805,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="M1" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -983,67 +991,67 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>7.6</v>
+        <v>12.37</v>
       </c>
       <c r="C5" s="8">
-        <v>15.76</v>
+        <v>18.89</v>
       </c>
       <c r="D5" s="8">
-        <v>23.93</v>
+        <v>25.41</v>
       </c>
       <c r="E5" s="8">
-        <v>29.7</v>
+        <v>31.33</v>
       </c>
       <c r="F5" s="8">
-        <v>35.47</v>
+        <v>37.24</v>
       </c>
       <c r="G5" s="8">
-        <v>41.24</v>
+        <v>43.15</v>
       </c>
       <c r="H5" s="8">
-        <v>49.2</v>
+        <v>50.74</v>
       </c>
       <c r="I5" s="8">
-        <v>57.15</v>
+        <v>58.32</v>
       </c>
       <c r="J5" s="8">
-        <v>65.11</v>
+        <v>65.91</v>
       </c>
       <c r="K5" s="8">
-        <v>101.65</v>
+        <v>102.09</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O5" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P5" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q5" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R5" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S5" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T5" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U5" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V5" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W5" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1051,67 +1059,67 @@
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <v>13.02</v>
+        <v>15.45</v>
       </c>
       <c r="C6" s="8">
-        <v>21.49</v>
+        <v>22.96</v>
       </c>
       <c r="D6" s="8">
-        <v>29.95</v>
+        <v>30.47</v>
       </c>
       <c r="E6" s="8">
-        <v>35.96</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="F6" s="8">
-        <v>41.98</v>
+        <v>42.58</v>
       </c>
       <c r="G6" s="8">
-        <v>48</v>
+        <v>48.63</v>
       </c>
       <c r="H6" s="8">
-        <v>57.19</v>
+        <v>57.32</v>
       </c>
       <c r="I6" s="8">
-        <v>66.38</v>
+        <v>66</v>
       </c>
       <c r="J6" s="8">
-        <v>75.569999999999993</v>
+        <v>74.69</v>
       </c>
       <c r="K6" s="8">
-        <v>106.88</v>
+        <v>106.48</v>
       </c>
       <c r="M6" s="9">
         <v>2</v>
       </c>
       <c r="N6" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O6" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P6" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q6" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R6" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S6" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T6" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U6" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V6" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W6" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1119,67 +1127,67 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>18.45</v>
+        <v>18.53</v>
       </c>
       <c r="C7" s="8">
-        <v>27.21</v>
+        <v>27.03</v>
       </c>
       <c r="D7" s="8">
-        <v>35.97</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="E7" s="8">
-        <v>42.23</v>
+        <v>41.72</v>
       </c>
       <c r="F7" s="8">
-        <v>48.49</v>
+        <v>47.91</v>
       </c>
       <c r="G7" s="8">
-        <v>54.75</v>
+        <v>54.11</v>
       </c>
       <c r="H7" s="8">
-        <v>65.180000000000007</v>
+        <v>63.9</v>
       </c>
       <c r="I7" s="8">
-        <v>75.599999999999994</v>
+        <v>73.69</v>
       </c>
       <c r="J7" s="8">
-        <v>86.03</v>
+        <v>83.47</v>
       </c>
       <c r="K7" s="8">
-        <v>112.11</v>
+        <v>110.88</v>
       </c>
       <c r="M7" s="9">
         <v>3</v>
       </c>
       <c r="N7" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O7" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P7" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q7" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R7" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S7" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T7" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U7" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V7" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W7" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1187,67 +1195,67 @@
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <v>23.87</v>
+        <v>21.62</v>
       </c>
       <c r="C8" s="8">
-        <v>32.93</v>
+        <v>31.09</v>
       </c>
       <c r="D8" s="8">
-        <v>41.99</v>
+        <v>40.57</v>
       </c>
       <c r="E8" s="8">
-        <v>48.49</v>
+        <v>46.91</v>
       </c>
       <c r="F8" s="8">
-        <v>55</v>
+        <v>53.25</v>
       </c>
       <c r="G8" s="8">
-        <v>61.51</v>
+        <v>59.59</v>
       </c>
       <c r="H8" s="8">
-        <v>73.17</v>
+        <v>70.48</v>
       </c>
       <c r="I8" s="8">
-        <v>84.83</v>
+        <v>81.37</v>
       </c>
       <c r="J8" s="8">
-        <v>96.49</v>
+        <v>92.26</v>
       </c>
       <c r="K8" s="8">
-        <v>117.34</v>
+        <v>115.27</v>
       </c>
       <c r="M8" s="9">
         <v>4</v>
       </c>
       <c r="N8" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O8" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P8" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q8" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R8" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S8" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T8" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U8" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V8" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W8" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1255,67 +1263,67 @@
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <v>27.02</v>
+        <v>23.99</v>
       </c>
       <c r="C9" s="8">
-        <v>35.83</v>
+        <v>33.11</v>
       </c>
       <c r="D9" s="8">
-        <v>44.63</v>
+        <v>42.24</v>
       </c>
       <c r="E9" s="8">
-        <v>51.87</v>
+        <v>49.16</v>
       </c>
       <c r="F9" s="8">
-        <v>59.1</v>
+        <v>56.08</v>
       </c>
       <c r="G9" s="8">
-        <v>66.34</v>
+        <v>63</v>
       </c>
       <c r="H9" s="8">
-        <v>78.03</v>
+        <v>74.03</v>
       </c>
       <c r="I9" s="8">
-        <v>89.71</v>
+        <v>85.06</v>
       </c>
       <c r="J9" s="8">
-        <v>101.4</v>
+        <v>96.09</v>
       </c>
       <c r="K9" s="8">
-        <v>119.79</v>
+        <v>117.18</v>
       </c>
       <c r="M9" s="9">
         <v>5</v>
       </c>
       <c r="N9" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O9" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P9" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q9" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R9" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S9" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T9" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U9" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V9" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W9" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1323,67 +1331,67 @@
         <v>6</v>
       </c>
       <c r="B10" s="8">
-        <v>30.18</v>
+        <v>26.37</v>
       </c>
       <c r="C10" s="8">
-        <v>38.72</v>
+        <v>35.14</v>
       </c>
       <c r="D10" s="8">
-        <v>47.27</v>
+        <v>43.91</v>
       </c>
       <c r="E10" s="8">
-        <v>55.24</v>
+        <v>51.41</v>
       </c>
       <c r="F10" s="8">
-        <v>63.2</v>
+        <v>58.91</v>
       </c>
       <c r="G10" s="8">
-        <v>71.17</v>
+        <v>66.41</v>
       </c>
       <c r="H10" s="8">
-        <v>82.88</v>
+        <v>77.58</v>
       </c>
       <c r="I10" s="8">
-        <v>94.6</v>
+        <v>88.75</v>
       </c>
       <c r="J10" s="8">
-        <v>106.32</v>
+        <v>99.92</v>
       </c>
       <c r="K10" s="8">
-        <v>122.25</v>
+        <v>119.1</v>
       </c>
       <c r="M10" s="9">
         <v>6</v>
       </c>
       <c r="N10" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O10" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P10" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q10" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R10" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S10" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T10" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U10" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V10" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W10" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1391,67 +1399,67 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>28.89</v>
+        <v>25.27</v>
       </c>
       <c r="C11" s="8">
-        <v>39.619999999999997</v>
+        <v>36.28</v>
       </c>
       <c r="D11" s="8">
-        <v>50.36</v>
+        <v>47.29</v>
       </c>
       <c r="E11" s="8">
-        <v>58.38</v>
+        <v>54.88</v>
       </c>
       <c r="F11" s="8">
-        <v>66.400000000000006</v>
+        <v>62.47</v>
       </c>
       <c r="G11" s="8">
-        <v>74.430000000000007</v>
+        <v>70.06</v>
       </c>
       <c r="H11" s="8">
-        <v>86.17</v>
+        <v>81.16</v>
       </c>
       <c r="I11" s="8">
-        <v>97.92</v>
+        <v>92.25</v>
       </c>
       <c r="J11" s="8">
-        <v>109.67</v>
+        <v>103.35</v>
       </c>
       <c r="K11" s="8">
-        <v>123.93</v>
+        <v>120.81</v>
       </c>
       <c r="M11" s="9">
         <v>7</v>
       </c>
       <c r="N11" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O11" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P11" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q11" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R11" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S11" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T11" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U11" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V11" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W11" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1459,67 +1467,67 @@
         <v>8</v>
       </c>
       <c r="B12" s="8">
-        <v>27.61</v>
+        <v>24.18</v>
       </c>
       <c r="C12" s="8">
-        <v>40.520000000000003</v>
+        <v>37.43</v>
       </c>
       <c r="D12" s="8">
-        <v>53.44</v>
+        <v>50.68</v>
       </c>
       <c r="E12" s="8">
-        <v>61.52</v>
+        <v>58.36</v>
       </c>
       <c r="F12" s="8">
-        <v>69.599999999999994</v>
+        <v>66.03</v>
       </c>
       <c r="G12" s="8">
-        <v>77.69</v>
+        <v>73.7</v>
       </c>
       <c r="H12" s="8">
-        <v>89.47</v>
+        <v>84.73</v>
       </c>
       <c r="I12" s="8">
-        <v>101.24</v>
+        <v>95.75</v>
       </c>
       <c r="J12" s="8">
-        <v>113.02</v>
+        <v>106.78</v>
       </c>
       <c r="K12" s="8">
-        <v>125.6</v>
+        <v>122.53</v>
       </c>
       <c r="M12" s="9">
         <v>8</v>
       </c>
       <c r="N12" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O12" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P12" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q12" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R12" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S12" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T12" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U12" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V12" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W12" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1527,67 +1535,67 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>26.32</v>
+        <v>23.08</v>
       </c>
       <c r="C13" s="8">
-        <v>41.42</v>
+        <v>38.58</v>
       </c>
       <c r="D13" s="8">
-        <v>56.52</v>
+        <v>54.07</v>
       </c>
       <c r="E13" s="8">
-        <v>64.66</v>
+        <v>61.83</v>
       </c>
       <c r="F13" s="8">
-        <v>72.8</v>
+        <v>69.59</v>
       </c>
       <c r="G13" s="8">
-        <v>80.95</v>
+        <v>77.349999999999994</v>
       </c>
       <c r="H13" s="8">
-        <v>92.76</v>
+        <v>88.3</v>
       </c>
       <c r="I13" s="8">
-        <v>104.57</v>
+        <v>99.25</v>
       </c>
       <c r="J13" s="8">
-        <v>116.37</v>
+        <v>110.21</v>
       </c>
       <c r="K13" s="8">
-        <v>127.28</v>
+        <v>124.24</v>
       </c>
       <c r="M13" s="9">
         <v>9</v>
       </c>
       <c r="N13" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O13" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P13" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q13" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R13" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S13" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T13" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U13" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V13" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W13" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1595,67 +1603,67 @@
         <v>10</v>
       </c>
       <c r="B14" s="8">
-        <v>27.46</v>
+        <v>24.53</v>
       </c>
       <c r="C14" s="8">
-        <v>42.39</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D14" s="8">
-        <v>57.32</v>
+        <v>55.06</v>
       </c>
       <c r="E14" s="8">
-        <v>65.23</v>
+        <v>62.55</v>
       </c>
       <c r="F14" s="8">
-        <v>73.14</v>
+        <v>70.03</v>
       </c>
       <c r="G14" s="8">
-        <v>81.05</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="H14" s="8">
-        <v>93.07</v>
+        <v>88.72</v>
       </c>
       <c r="I14" s="8">
-        <v>105.09</v>
+        <v>99.92</v>
       </c>
       <c r="J14" s="8">
-        <v>117.11</v>
+        <v>111.13</v>
       </c>
       <c r="K14" s="8">
-        <v>127.65</v>
+        <v>124.7</v>
       </c>
       <c r="M14" s="9">
         <v>10</v>
       </c>
       <c r="N14" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O14" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P14" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q14" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R14" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S14" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T14" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U14" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V14" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W14" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1663,67 +1671,67 @@
         <v>11</v>
       </c>
       <c r="B15" s="8">
-        <v>28.6</v>
+        <v>25.98</v>
       </c>
       <c r="C15" s="8">
-        <v>43.36</v>
+        <v>41.02</v>
       </c>
       <c r="D15" s="8">
-        <v>58.13</v>
+        <v>56.06</v>
       </c>
       <c r="E15" s="8">
-        <v>65.8</v>
+        <v>63.26</v>
       </c>
       <c r="F15" s="8">
-        <v>73.48</v>
+        <v>70.47</v>
       </c>
       <c r="G15" s="8">
-        <v>81.150000000000006</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="H15" s="8">
-        <v>93.38</v>
+        <v>89.13</v>
       </c>
       <c r="I15" s="8">
-        <v>105.61</v>
+        <v>100.59</v>
       </c>
       <c r="J15" s="8">
-        <v>117.84</v>
+        <v>112.05</v>
       </c>
       <c r="K15" s="8">
-        <v>128.01</v>
+        <v>125.16</v>
       </c>
       <c r="M15" s="9">
         <v>11</v>
       </c>
       <c r="N15" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O15" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P15" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q15" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R15" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S15" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T15" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U15" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V15" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W15" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1731,67 +1739,67 @@
         <v>12</v>
       </c>
       <c r="B16" s="8">
-        <v>29.73</v>
+        <v>27.42</v>
       </c>
       <c r="C16" s="8">
-        <v>44.33</v>
+        <v>42.24</v>
       </c>
       <c r="D16" s="8">
-        <v>58.93</v>
+        <v>57.05</v>
       </c>
       <c r="E16" s="8">
-        <v>66.37</v>
+        <v>63.98</v>
       </c>
       <c r="F16" s="8">
-        <v>73.81</v>
+        <v>70.91</v>
       </c>
       <c r="G16" s="8">
-        <v>81.25</v>
+        <v>77.84</v>
       </c>
       <c r="H16" s="8">
-        <v>93.69</v>
+        <v>89.55</v>
       </c>
       <c r="I16" s="8">
-        <v>106.13</v>
+        <v>101.26</v>
       </c>
       <c r="J16" s="8">
-        <v>118.57</v>
+        <v>112.97</v>
       </c>
       <c r="K16" s="8">
-        <v>128.38</v>
+        <v>125.62</v>
       </c>
       <c r="M16" s="9">
         <v>12</v>
       </c>
       <c r="N16" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O16" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P16" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q16" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R16" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S16" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T16" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U16" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V16" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W16" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1799,67 +1807,67 @@
         <v>13</v>
       </c>
       <c r="B17" s="8">
-        <v>30.87</v>
+        <v>28.87</v>
       </c>
       <c r="C17" s="8">
-        <v>45.3</v>
+        <v>43.45</v>
       </c>
       <c r="D17" s="8">
-        <v>59.73</v>
+        <v>58.04</v>
       </c>
       <c r="E17" s="8">
-        <v>66.94</v>
+        <v>64.69</v>
       </c>
       <c r="F17" s="8">
-        <v>74.150000000000006</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="G17" s="8">
-        <v>81.36</v>
+        <v>78</v>
       </c>
       <c r="H17" s="8">
-        <v>94</v>
+        <v>89.97</v>
       </c>
       <c r="I17" s="8">
-        <v>106.65</v>
+        <v>101.93</v>
       </c>
       <c r="J17" s="8">
-        <v>119.3</v>
+        <v>113.89</v>
       </c>
       <c r="K17" s="8">
-        <v>128.74</v>
+        <v>126.08</v>
       </c>
       <c r="M17" s="9">
         <v>13</v>
       </c>
       <c r="N17" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O17" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P17" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q17" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R17" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S17" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T17" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U17" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V17" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W17" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1867,67 +1875,67 @@
         <v>14</v>
       </c>
       <c r="B18" s="8">
-        <v>32.01</v>
+        <v>30.32</v>
       </c>
       <c r="C18" s="8">
-        <v>46.27</v>
+        <v>44.67</v>
       </c>
       <c r="D18" s="8">
-        <v>60.54</v>
+        <v>59.03</v>
       </c>
       <c r="E18" s="8">
-        <v>67.510000000000005</v>
+        <v>65.41</v>
       </c>
       <c r="F18" s="8">
-        <v>74.489999999999995</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="G18" s="8">
-        <v>81.459999999999994</v>
+        <v>78.17</v>
       </c>
       <c r="H18" s="8">
-        <v>94.32</v>
+        <v>90.38</v>
       </c>
       <c r="I18" s="8">
-        <v>107.17</v>
+        <v>102.59</v>
       </c>
       <c r="J18" s="8">
-        <v>120.03</v>
+        <v>114.81</v>
       </c>
       <c r="K18" s="8">
-        <v>129.11000000000001</v>
+        <v>126.54</v>
       </c>
       <c r="M18" s="9">
         <v>14</v>
       </c>
       <c r="N18" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O18" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P18" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q18" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R18" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S18" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T18" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U18" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V18" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W18" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1935,67 +1943,67 @@
         <v>15</v>
       </c>
       <c r="B19" s="8">
-        <v>33.15</v>
+        <v>31.76</v>
       </c>
       <c r="C19" s="8">
-        <v>47.25</v>
+        <v>45.89</v>
       </c>
       <c r="D19" s="8">
-        <v>61.34</v>
+        <v>60.02</v>
       </c>
       <c r="E19" s="8">
-        <v>68.08</v>
+        <v>66.12</v>
       </c>
       <c r="F19" s="8">
-        <v>74.819999999999993</v>
+        <v>72.23</v>
       </c>
       <c r="G19" s="8">
-        <v>81.56</v>
+        <v>78.33</v>
       </c>
       <c r="H19" s="8">
-        <v>94.63</v>
+        <v>90.8</v>
       </c>
       <c r="I19" s="8">
-        <v>107.7</v>
+        <v>103.26</v>
       </c>
       <c r="J19" s="8">
-        <v>120.76</v>
+        <v>115.72</v>
       </c>
       <c r="K19" s="8">
-        <v>129.47</v>
+        <v>127</v>
       </c>
       <c r="M19" s="9">
         <v>15</v>
       </c>
       <c r="N19" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O19" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P19" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q19" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R19" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S19" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T19" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U19" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V19" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W19" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2003,67 +2011,67 @@
         <v>16</v>
       </c>
       <c r="B20" s="8">
-        <v>34.29</v>
+        <v>33.21</v>
       </c>
       <c r="C20" s="8">
-        <v>48.22</v>
+        <v>47.11</v>
       </c>
       <c r="D20" s="8">
-        <v>62.14</v>
+        <v>61.01</v>
       </c>
       <c r="E20" s="8">
-        <v>68.650000000000006</v>
+        <v>66.84</v>
       </c>
       <c r="F20" s="8">
-        <v>75.16</v>
+        <v>72.67</v>
       </c>
       <c r="G20" s="8">
-        <v>81.66</v>
+        <v>78.5</v>
       </c>
       <c r="H20" s="8">
-        <v>94.94</v>
+        <v>91.21</v>
       </c>
       <c r="I20" s="8">
-        <v>108.22</v>
+        <v>103.93</v>
       </c>
       <c r="J20" s="8">
-        <v>121.49</v>
+        <v>116.64</v>
       </c>
       <c r="K20" s="8">
-        <v>129.84</v>
+        <v>127.46</v>
       </c>
       <c r="M20" s="9">
         <v>16</v>
       </c>
       <c r="N20" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O20" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P20" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q20" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R20" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S20" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T20" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U20" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V20" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W20" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2071,67 +2079,67 @@
         <v>17</v>
       </c>
       <c r="B21" s="8">
-        <v>35.43</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="C21" s="8">
-        <v>49.19</v>
+        <v>48.33</v>
       </c>
       <c r="D21" s="8">
-        <v>62.95</v>
+        <v>62</v>
       </c>
       <c r="E21" s="8">
-        <v>69.22</v>
+        <v>67.56</v>
       </c>
       <c r="F21" s="8">
-        <v>75.489999999999995</v>
+        <v>73.11</v>
       </c>
       <c r="G21" s="8">
-        <v>81.77</v>
+        <v>78.66</v>
       </c>
       <c r="H21" s="8">
-        <v>95.25</v>
+        <v>91.63</v>
       </c>
       <c r="I21" s="8">
-        <v>108.74</v>
+        <v>104.6</v>
       </c>
       <c r="J21" s="8">
-        <v>122.23</v>
+        <v>117.56</v>
       </c>
       <c r="K21" s="8">
-        <v>130.19999999999999</v>
+        <v>127.92</v>
       </c>
       <c r="M21" s="9">
         <v>17</v>
       </c>
       <c r="N21" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O21" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P21" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q21" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R21" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S21" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T21" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U21" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V21" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W21" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2139,67 +2147,67 @@
         <v>18</v>
       </c>
       <c r="B22" s="8">
-        <v>36.56</v>
+        <v>36.1</v>
       </c>
       <c r="C22" s="8">
-        <v>50.16</v>
+        <v>49.55</v>
       </c>
       <c r="D22" s="8">
-        <v>63.75</v>
+        <v>62.99</v>
       </c>
       <c r="E22" s="8">
-        <v>69.790000000000006</v>
+        <v>68.27</v>
       </c>
       <c r="F22" s="8">
-        <v>75.83</v>
+        <v>73.55</v>
       </c>
       <c r="G22" s="8">
-        <v>81.87</v>
+        <v>78.83</v>
       </c>
       <c r="H22" s="8">
-        <v>95.57</v>
+        <v>92.05</v>
       </c>
       <c r="I22" s="8">
-        <v>109.26</v>
+        <v>105.26</v>
       </c>
       <c r="J22" s="8">
-        <v>122.96</v>
+        <v>118.48</v>
       </c>
       <c r="K22" s="8">
-        <v>130.57</v>
+        <v>128.38</v>
       </c>
       <c r="M22" s="9">
         <v>18</v>
       </c>
       <c r="N22" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O22" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P22" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q22" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R22" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S22" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T22" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U22" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V22" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W22" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2207,67 +2215,67 @@
         <v>19</v>
       </c>
       <c r="B23" s="8">
-        <v>37.700000000000003</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="C23" s="8">
-        <v>51.13</v>
+        <v>50.77</v>
       </c>
       <c r="D23" s="8">
-        <v>64.56</v>
+        <v>63.99</v>
       </c>
       <c r="E23" s="8">
-        <v>70.36</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="F23" s="8">
-        <v>76.17</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="G23" s="8">
-        <v>81.97</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="H23" s="8">
-        <v>95.88</v>
+        <v>92.46</v>
       </c>
       <c r="I23" s="8">
-        <v>109.78</v>
+        <v>105.93</v>
       </c>
       <c r="J23" s="8">
-        <v>123.69</v>
+        <v>119.4</v>
       </c>
       <c r="K23" s="8">
-        <v>130.94</v>
+        <v>128.84</v>
       </c>
       <c r="M23" s="9">
         <v>19</v>
       </c>
       <c r="N23" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O23" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P23" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q23" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R23" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S23" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T23" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U23" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V23" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W23" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2275,67 +2283,67 @@
         <v>20</v>
       </c>
       <c r="B24" s="8">
-        <v>38.840000000000003</v>
+        <v>39</v>
       </c>
       <c r="C24" s="8">
-        <v>52.1</v>
+        <v>51.99</v>
       </c>
       <c r="D24" s="8">
-        <v>65.36</v>
+        <v>64.98</v>
       </c>
       <c r="E24" s="8">
-        <v>70.930000000000007</v>
+        <v>69.7</v>
       </c>
       <c r="F24" s="8">
-        <v>76.5</v>
+        <v>74.430000000000007</v>
       </c>
       <c r="G24" s="8">
-        <v>82.08</v>
+        <v>79.16</v>
       </c>
       <c r="H24" s="8">
-        <v>96.19</v>
+        <v>92.88</v>
       </c>
       <c r="I24" s="8">
-        <v>110.3</v>
+        <v>106.6</v>
       </c>
       <c r="J24" s="8">
-        <v>124.42</v>
+        <v>120.32</v>
       </c>
       <c r="K24" s="8">
-        <v>131.30000000000001</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="M24" s="9">
         <v>20</v>
       </c>
       <c r="N24" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O24" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P24" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q24" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R24" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S24" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T24" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U24" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V24" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W24" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2343,67 +2351,67 @@
         <v>21</v>
       </c>
       <c r="B25" s="8">
-        <v>39.979999999999997</v>
+        <v>40.44</v>
       </c>
       <c r="C25" s="8">
-        <v>53.07</v>
+        <v>53.21</v>
       </c>
       <c r="D25" s="8">
-        <v>66.16</v>
+        <v>65.97</v>
       </c>
       <c r="E25" s="8">
-        <v>71.5</v>
+        <v>70.42</v>
       </c>
       <c r="F25" s="8">
-        <v>76.84</v>
+        <v>74.87</v>
       </c>
       <c r="G25" s="8">
-        <v>82.18</v>
+        <v>79.319999999999993</v>
       </c>
       <c r="H25" s="8">
-        <v>96.5</v>
+        <v>93.29</v>
       </c>
       <c r="I25" s="8">
-        <v>110.83</v>
+        <v>107.27</v>
       </c>
       <c r="J25" s="8">
-        <v>125.15</v>
+        <v>121.24</v>
       </c>
       <c r="K25" s="8">
-        <v>131.66999999999999</v>
+        <v>129.76</v>
       </c>
       <c r="M25" s="9">
         <v>21</v>
       </c>
       <c r="N25" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O25" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P25" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q25" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R25" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S25" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T25" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U25" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V25" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W25" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2411,67 +2419,67 @@
         <v>22</v>
       </c>
       <c r="B26" s="8">
-        <v>41.12</v>
+        <v>41.89</v>
       </c>
       <c r="C26" s="8">
-        <v>54.04</v>
+        <v>54.42</v>
       </c>
       <c r="D26" s="8">
-        <v>66.97</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="E26" s="8">
-        <v>72.069999999999993</v>
+        <v>71.13</v>
       </c>
       <c r="F26" s="8">
-        <v>77.180000000000007</v>
+        <v>75.31</v>
       </c>
       <c r="G26" s="8">
-        <v>82.28</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="H26" s="8">
-        <v>96.81</v>
+        <v>93.71</v>
       </c>
       <c r="I26" s="8">
-        <v>111.35</v>
+        <v>107.94</v>
       </c>
       <c r="J26" s="8">
-        <v>125.88</v>
+        <v>122.16</v>
       </c>
       <c r="K26" s="8">
-        <v>132.03</v>
+        <v>130.22</v>
       </c>
       <c r="M26" s="9">
         <v>22</v>
       </c>
       <c r="N26" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O26" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P26" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q26" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R26" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S26" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T26" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U26" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V26" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W26" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2479,67 +2487,67 @@
         <v>23</v>
       </c>
       <c r="B27" s="8">
-        <v>42.25</v>
+        <v>43.34</v>
       </c>
       <c r="C27" s="8">
-        <v>55.01</v>
+        <v>55.64</v>
       </c>
       <c r="D27" s="8">
-        <v>67.77</v>
+        <v>67.95</v>
       </c>
       <c r="E27" s="8">
-        <v>72.64</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="F27" s="8">
-        <v>77.510000000000005</v>
+        <v>75.75</v>
       </c>
       <c r="G27" s="8">
-        <v>82.38</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="H27" s="8">
-        <v>97.13</v>
+        <v>94.13</v>
       </c>
       <c r="I27" s="8">
-        <v>111.87</v>
+        <v>108.6</v>
       </c>
       <c r="J27" s="8">
-        <v>126.61</v>
+        <v>123.08</v>
       </c>
       <c r="K27" s="8">
-        <v>132.4</v>
+        <v>130.68</v>
       </c>
       <c r="M27" s="9">
         <v>23</v>
       </c>
       <c r="N27" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O27" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P27" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q27" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R27" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S27" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T27" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U27" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V27" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W27" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2547,67 +2555,67 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
-        <v>43.39</v>
+        <v>44.78</v>
       </c>
       <c r="C28" s="8">
-        <v>55.98</v>
+        <v>56.86</v>
       </c>
       <c r="D28" s="8">
-        <v>68.569999999999993</v>
+        <v>68.94</v>
       </c>
       <c r="E28" s="8">
-        <v>73.209999999999994</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="F28" s="8">
-        <v>77.849999999999994</v>
+        <v>76.19</v>
       </c>
       <c r="G28" s="8">
-        <v>82.49</v>
+        <v>79.81</v>
       </c>
       <c r="H28" s="8">
-        <v>97.44</v>
+        <v>94.54</v>
       </c>
       <c r="I28" s="8">
-        <v>112.39</v>
+        <v>109.27</v>
       </c>
       <c r="J28" s="8">
-        <v>127.34</v>
+        <v>124</v>
       </c>
       <c r="K28" s="8">
-        <v>132.76</v>
+        <v>131.13999999999999</v>
       </c>
       <c r="M28" s="9">
         <v>24</v>
       </c>
       <c r="N28" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O28" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P28" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q28" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R28" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S28" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T28" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U28" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V28" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W28" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2615,67 +2623,67 @@
         <v>25</v>
       </c>
       <c r="B29" s="8">
-        <v>44.53</v>
+        <v>46.23</v>
       </c>
       <c r="C29" s="8">
-        <v>56.95</v>
+        <v>58.08</v>
       </c>
       <c r="D29" s="8">
-        <v>69.38</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="E29" s="8">
-        <v>73.78</v>
+        <v>73.28</v>
       </c>
       <c r="F29" s="8">
-        <v>78.180000000000007</v>
+        <v>76.63</v>
       </c>
       <c r="G29" s="8">
-        <v>82.59</v>
+        <v>79.98</v>
       </c>
       <c r="H29" s="8">
-        <v>97.75</v>
+        <v>94.96</v>
       </c>
       <c r="I29" s="8">
-        <v>112.91</v>
+        <v>109.94</v>
       </c>
       <c r="J29" s="8">
-        <v>128.08000000000001</v>
+        <v>124.92</v>
       </c>
       <c r="K29" s="8">
-        <v>133.13</v>
+        <v>131.6</v>
       </c>
       <c r="M29" s="9">
         <v>25</v>
       </c>
       <c r="N29" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O29" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P29" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q29" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R29" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S29" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T29" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U29" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V29" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W29" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -2683,67 +2691,67 @@
         <v>26</v>
       </c>
       <c r="B30" s="8">
-        <v>45.67</v>
+        <v>47.68</v>
       </c>
       <c r="C30" s="8">
-        <v>57.92</v>
+        <v>59.3</v>
       </c>
       <c r="D30" s="8">
-        <v>70.180000000000007</v>
+        <v>70.92</v>
       </c>
       <c r="E30" s="8">
-        <v>74.349999999999994</v>
+        <v>74</v>
       </c>
       <c r="F30" s="8">
-        <v>78.52</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="G30" s="8">
-        <v>82.69</v>
+        <v>80.14</v>
       </c>
       <c r="H30" s="8">
-        <v>98.06</v>
+        <v>95.38</v>
       </c>
       <c r="I30" s="8">
-        <v>113.43</v>
+        <v>110.61</v>
       </c>
       <c r="J30" s="8">
-        <v>128.81</v>
+        <v>125.84</v>
       </c>
       <c r="K30" s="8">
-        <v>133.5</v>
+        <v>132.06</v>
       </c>
       <c r="M30" s="9">
         <v>26</v>
       </c>
       <c r="N30" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O30" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P30" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q30" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R30" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S30" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T30" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U30" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V30" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W30" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2751,67 +2759,67 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
-        <v>46.81</v>
+        <v>49.12</v>
       </c>
       <c r="C31" s="8">
-        <v>58.9</v>
+        <v>60.52</v>
       </c>
       <c r="D31" s="8">
-        <v>70.98</v>
+        <v>71.91</v>
       </c>
       <c r="E31" s="8">
-        <v>74.92</v>
+        <v>74.709999999999994</v>
       </c>
       <c r="F31" s="8">
-        <v>78.86</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="G31" s="8">
-        <v>82.79</v>
+        <v>80.31</v>
       </c>
       <c r="H31" s="8">
-        <v>98.38</v>
+        <v>95.79</v>
       </c>
       <c r="I31" s="8">
-        <v>113.96</v>
+        <v>111.28</v>
       </c>
       <c r="J31" s="8">
-        <v>129.54</v>
+        <v>126.76</v>
       </c>
       <c r="K31" s="8">
-        <v>133.86000000000001</v>
+        <v>132.52000000000001</v>
       </c>
       <c r="M31" s="9">
         <v>27</v>
       </c>
       <c r="N31" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O31" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P31" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q31" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R31" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S31" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T31" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U31" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V31" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W31" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -2819,67 +2827,67 @@
         <v>28</v>
       </c>
       <c r="B32" s="8">
-        <v>47.95</v>
+        <v>50.57</v>
       </c>
       <c r="C32" s="8">
-        <v>59.87</v>
+        <v>61.74</v>
       </c>
       <c r="D32" s="8">
-        <v>71.790000000000006</v>
+        <v>72.91</v>
       </c>
       <c r="E32" s="8">
-        <v>75.489999999999995</v>
+        <v>75.430000000000007</v>
       </c>
       <c r="F32" s="8">
-        <v>79.19</v>
+        <v>77.95</v>
       </c>
       <c r="G32" s="8">
-        <v>82.9</v>
+        <v>80.47</v>
       </c>
       <c r="H32" s="8">
-        <v>98.69</v>
+        <v>96.21</v>
       </c>
       <c r="I32" s="8">
-        <v>114.48</v>
+        <v>111.94</v>
       </c>
       <c r="J32" s="8">
-        <v>130.27000000000001</v>
+        <v>127.68</v>
       </c>
       <c r="K32" s="8">
-        <v>134.22999999999999</v>
+        <v>132.97999999999999</v>
       </c>
       <c r="M32" s="9">
         <v>28</v>
       </c>
       <c r="N32" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O32" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P32" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q32" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R32" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S32" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T32" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U32" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V32" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W32" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -2887,67 +2895,67 @@
         <v>29</v>
       </c>
       <c r="B33" s="8">
-        <v>49.08</v>
+        <v>52.02</v>
       </c>
       <c r="C33" s="8">
-        <v>60.84</v>
+        <v>62.96</v>
       </c>
       <c r="D33" s="8">
-        <v>72.59</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="E33" s="8">
-        <v>76.06</v>
+        <v>76.14</v>
       </c>
       <c r="F33" s="8">
-        <v>79.53</v>
+        <v>78.39</v>
       </c>
       <c r="G33" s="8">
-        <v>83</v>
+        <v>80.64</v>
       </c>
       <c r="H33" s="8">
-        <v>99</v>
+        <v>96.62</v>
       </c>
       <c r="I33" s="8">
-        <v>115</v>
+        <v>112.61</v>
       </c>
       <c r="J33" s="8">
-        <v>131</v>
+        <v>128.6</v>
       </c>
       <c r="K33" s="8">
-        <v>134.59</v>
+        <v>133.44</v>
       </c>
       <c r="M33" s="9">
         <v>29</v>
       </c>
       <c r="N33" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O33" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P33" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q33" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R33" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S33" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T33" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U33" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V33" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W33" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -2955,67 +2963,67 @@
         <v>30</v>
       </c>
       <c r="B34" s="8">
-        <v>50.22</v>
+        <v>53.46</v>
       </c>
       <c r="C34" s="8">
-        <v>61.81</v>
+        <v>64.17</v>
       </c>
       <c r="D34" s="8">
-        <v>73.39</v>
+        <v>74.89</v>
       </c>
       <c r="E34" s="8">
-        <v>76.63</v>
+        <v>76.86</v>
       </c>
       <c r="F34" s="8">
-        <v>79.87</v>
+        <v>78.83</v>
       </c>
       <c r="G34" s="8">
-        <v>83.1</v>
+        <v>80.8</v>
       </c>
       <c r="H34" s="8">
-        <v>99.31</v>
+        <v>97.04</v>
       </c>
       <c r="I34" s="8">
-        <v>115.52</v>
+        <v>113.28</v>
       </c>
       <c r="J34" s="8">
-        <v>131.72999999999999</v>
+        <v>129.52000000000001</v>
       </c>
       <c r="K34" s="8">
-        <v>134.96</v>
+        <v>133.9</v>
       </c>
       <c r="M34" s="9">
         <v>30</v>
       </c>
       <c r="N34" s="8">
-        <v>138.18</v>
+        <v>138.28</v>
       </c>
       <c r="O34" s="8">
-        <v>186.38</v>
+        <v>183.95</v>
       </c>
       <c r="P34" s="8">
-        <v>234.57</v>
+        <v>229.63</v>
       </c>
       <c r="Q34" s="8">
-        <v>282.77</v>
+        <v>275.31</v>
       </c>
       <c r="R34" s="8">
-        <v>330.96</v>
+        <v>320.98</v>
       </c>
       <c r="S34" s="8">
-        <v>526.30999999999995</v>
+        <v>508.99</v>
       </c>
       <c r="T34" s="8">
-        <v>721.65</v>
+        <v>696.99</v>
       </c>
       <c r="U34" s="8">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V34" s="8">
-        <v>1112.3499999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="W34" s="8">
-        <v>1307.69</v>
+        <v>1261.01</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3023,67 +3031,67 @@
         <v>15</v>
       </c>
       <c r="B35" s="8">
-        <v>33.953333333333333</v>
+        <v>33.659666666666666</v>
       </c>
       <c r="C35" s="8">
-        <v>46.253000000000007</v>
+        <v>45.741</v>
       </c>
       <c r="D35" s="8">
-        <v>58.552999999999997</v>
+        <v>57.822333333333354</v>
       </c>
       <c r="E35" s="8">
-        <v>64.585999999999999</v>
+        <v>63.195999999999998</v>
       </c>
       <c r="F35" s="8">
-        <v>70.620333333333335</v>
+        <v>68.569666666666677</v>
       </c>
       <c r="G35" s="8">
-        <v>76.655333333333331</v>
+        <v>73.942666666666668</v>
       </c>
       <c r="H35" s="8">
-        <v>89.801333333333332</v>
+        <v>86.623000000000005</v>
       </c>
       <c r="I35" s="8">
-        <v>102.94633333333331</v>
+        <v>99.301666666666691</v>
       </c>
       <c r="J35" s="8">
-        <v>116.09300000000002</v>
+        <v>111.98166666666665</v>
       </c>
       <c r="K35" s="8">
-        <v>127.13900000000004</v>
+        <v>125.12933333333332</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N35" s="10">
-        <v>138.17999999999995</v>
+        <v>138.28000000000009</v>
       </c>
       <c r="O35" s="10">
-        <v>186.38000000000008</v>
+        <v>183.9499999999999</v>
       </c>
       <c r="P35" s="10">
-        <v>234.56999999999991</v>
+        <v>229.63000000000008</v>
       </c>
       <c r="Q35" s="10">
-        <v>282.77000000000021</v>
+        <v>275.31000000000017</v>
       </c>
       <c r="R35" s="10">
-        <v>330.95999999999987</v>
+        <v>320.97999999999973</v>
       </c>
       <c r="S35" s="10">
-        <v>526.3099999999996</v>
+        <v>508.98999999999984</v>
       </c>
       <c r="T35" s="10">
-        <v>721.65000000000009</v>
+        <v>696.99000000000024</v>
       </c>
       <c r="U35" s="10">
-        <v>917</v>
+        <v>885</v>
       </c>
       <c r="V35" s="10">
-        <v>1112.3499999999995</v>
+        <v>1073.0099999999993</v>
       </c>
       <c r="W35" s="10">
-        <v>1307.6899999999998</v>
+        <v>1261.0099999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3105,2335 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E16CC-B113-45B8-9AB8-B4C2E0CD8BE4}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>14</v>
+      </c>
+      <c r="R3" s="5">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5">
+        <v>17</v>
+      </c>
+      <c r="U3" s="5">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5">
+        <v>19</v>
+      </c>
+      <c r="W3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>17.16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>22.42</v>
+      </c>
+      <c r="D5" s="8">
+        <v>27.68</v>
+      </c>
+      <c r="E5" s="8">
+        <v>34.78</v>
+      </c>
+      <c r="F5" s="8">
+        <v>41.88</v>
+      </c>
+      <c r="G5" s="8">
+        <v>48.98</v>
+      </c>
+      <c r="H5" s="8">
+        <v>57.59</v>
+      </c>
+      <c r="I5" s="8">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="J5" s="8">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="K5" s="8">
+        <v>130.79</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O5" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P5" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R5" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S5" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T5" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U5" s="8">
+        <v>928</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>26.59</v>
+      </c>
+      <c r="C6" s="8">
+        <v>30.02</v>
+      </c>
+      <c r="D6" s="8">
+        <v>33.44</v>
+      </c>
+      <c r="E6" s="8">
+        <v>41.24</v>
+      </c>
+      <c r="F6" s="8">
+        <v>49.04</v>
+      </c>
+      <c r="G6" s="8">
+        <v>56.83</v>
+      </c>
+      <c r="H6" s="8">
+        <v>66.3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="J6" s="8">
+        <v>85.23</v>
+      </c>
+      <c r="K6" s="8">
+        <v>135.99</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O6" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P6" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R6" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S6" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T6" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U6" s="8">
+        <v>928</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>36.01</v>
+      </c>
+      <c r="C7" s="8">
+        <v>37.61</v>
+      </c>
+      <c r="D7" s="8">
+        <v>39.21</v>
+      </c>
+      <c r="E7" s="8">
+        <v>47.7</v>
+      </c>
+      <c r="F7" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>64.69</v>
+      </c>
+      <c r="H7" s="8">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="I7" s="8">
+        <v>85.32</v>
+      </c>
+      <c r="J7" s="8">
+        <v>95.64</v>
+      </c>
+      <c r="K7" s="8">
+        <v>141.19</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O7" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P7" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R7" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S7" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T7" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U7" s="8">
+        <v>928</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>45.44</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45.21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44.97</v>
+      </c>
+      <c r="E8" s="8">
+        <v>54.16</v>
+      </c>
+      <c r="F8" s="8">
+        <v>63.36</v>
+      </c>
+      <c r="G8" s="8">
+        <v>72.55</v>
+      </c>
+      <c r="H8" s="8">
+        <v>83.71</v>
+      </c>
+      <c r="I8" s="8">
+        <v>94.88</v>
+      </c>
+      <c r="J8" s="8">
+        <v>106.04</v>
+      </c>
+      <c r="K8" s="8">
+        <v>146.4</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O8" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P8" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R8" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S8" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T8" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U8" s="8">
+        <v>928</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44.99</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46.91</v>
+      </c>
+      <c r="D9" s="8">
+        <v>48.83</v>
+      </c>
+      <c r="E9" s="8">
+        <v>58.95</v>
+      </c>
+      <c r="F9" s="8">
+        <v>69.069999999999993</v>
+      </c>
+      <c r="G9" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>90.56</v>
+      </c>
+      <c r="I9" s="8">
+        <v>101.92</v>
+      </c>
+      <c r="J9" s="8">
+        <v>113.28</v>
+      </c>
+      <c r="K9" s="8">
+        <v>150.02000000000001</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O9" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P9" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R9" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S9" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T9" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U9" s="8">
+        <v>928</v>
+      </c>
+      <c r="V9" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44.54</v>
+      </c>
+      <c r="C10" s="8">
+        <v>48.61</v>
+      </c>
+      <c r="D10" s="8">
+        <v>52.69</v>
+      </c>
+      <c r="E10" s="8">
+        <v>63.74</v>
+      </c>
+      <c r="F10" s="8">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="G10" s="8">
+        <v>85.84</v>
+      </c>
+      <c r="H10" s="8">
+        <v>97.4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>108.96</v>
+      </c>
+      <c r="J10" s="8">
+        <v>120.52</v>
+      </c>
+      <c r="K10" s="8">
+        <v>153.63999999999999</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O10" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P10" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R10" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S10" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T10" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U10" s="8">
+        <v>928</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>48.56</v>
+      </c>
+      <c r="C11" s="8">
+        <v>53.16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>57.76</v>
+      </c>
+      <c r="E11" s="8">
+        <v>68.8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="G11" s="8">
+        <v>90.89</v>
+      </c>
+      <c r="H11" s="8">
+        <v>102.22</v>
+      </c>
+      <c r="I11" s="8">
+        <v>113.56</v>
+      </c>
+      <c r="J11" s="8">
+        <v>124.9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>155.83000000000001</v>
+      </c>
+      <c r="M11" s="9">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O11" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P11" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R11" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S11" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T11" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U11" s="8">
+        <v>928</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>52.59</v>
+      </c>
+      <c r="C12" s="8">
+        <v>57.71</v>
+      </c>
+      <c r="D12" s="8">
+        <v>62.84</v>
+      </c>
+      <c r="E12" s="8">
+        <v>73.87</v>
+      </c>
+      <c r="F12" s="8">
+        <v>84.9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>95.93</v>
+      </c>
+      <c r="H12" s="8">
+        <v>107.05</v>
+      </c>
+      <c r="I12" s="8">
+        <v>118.16</v>
+      </c>
+      <c r="J12" s="8">
+        <v>129.28</v>
+      </c>
+      <c r="K12" s="8">
+        <v>158.02000000000001</v>
+      </c>
+      <c r="M12" s="9">
+        <v>8</v>
+      </c>
+      <c r="N12" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O12" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P12" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R12" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S12" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T12" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U12" s="8">
+        <v>928</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>56.61</v>
+      </c>
+      <c r="C13" s="8">
+        <v>62.27</v>
+      </c>
+      <c r="D13" s="8">
+        <v>67.92</v>
+      </c>
+      <c r="E13" s="8">
+        <v>78.94</v>
+      </c>
+      <c r="F13" s="8">
+        <v>89.95</v>
+      </c>
+      <c r="G13" s="8">
+        <v>100.97</v>
+      </c>
+      <c r="H13" s="8">
+        <v>111.87</v>
+      </c>
+      <c r="I13" s="8">
+        <v>122.76</v>
+      </c>
+      <c r="J13" s="8">
+        <v>133.66</v>
+      </c>
+      <c r="K13" s="8">
+        <v>160.21</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O13" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P13" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R13" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S13" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T13" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U13" s="8">
+        <v>928</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>56.25</v>
+      </c>
+      <c r="C14" s="8">
+        <v>62.55</v>
+      </c>
+      <c r="D14" s="8">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="E14" s="8">
+        <v>79.61</v>
+      </c>
+      <c r="F14" s="8">
+        <v>90.38</v>
+      </c>
+      <c r="G14" s="8">
+        <v>101.14</v>
+      </c>
+      <c r="H14" s="8">
+        <v>112.3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>123.45</v>
+      </c>
+      <c r="J14" s="8">
+        <v>134.61000000000001</v>
+      </c>
+      <c r="K14" s="8">
+        <v>160.68</v>
+      </c>
+      <c r="M14" s="9">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O14" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P14" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R14" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S14" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T14" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U14" s="8">
+        <v>928</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W14" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>55.89</v>
+      </c>
+      <c r="C15" s="8">
+        <v>62.83</v>
+      </c>
+      <c r="D15" s="8">
+        <v>69.78</v>
+      </c>
+      <c r="E15" s="8">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="F15" s="8">
+        <v>90.8</v>
+      </c>
+      <c r="G15" s="8">
+        <v>101.32</v>
+      </c>
+      <c r="H15" s="8">
+        <v>112.73</v>
+      </c>
+      <c r="I15" s="8">
+        <v>124.15</v>
+      </c>
+      <c r="J15" s="8">
+        <v>135.56</v>
+      </c>
+      <c r="K15" s="8">
+        <v>161.16</v>
+      </c>
+      <c r="M15" s="9">
+        <v>11</v>
+      </c>
+      <c r="N15" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O15" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P15" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R15" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S15" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T15" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U15" s="8">
+        <v>928</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>55.53</v>
+      </c>
+      <c r="C16" s="8">
+        <v>63.11</v>
+      </c>
+      <c r="D16" s="8">
+        <v>70.7</v>
+      </c>
+      <c r="E16" s="8">
+        <v>80.97</v>
+      </c>
+      <c r="F16" s="8">
+        <v>91.23</v>
+      </c>
+      <c r="G16" s="8">
+        <v>101.49</v>
+      </c>
+      <c r="H16" s="8">
+        <v>113.17</v>
+      </c>
+      <c r="I16" s="8">
+        <v>124.84</v>
+      </c>
+      <c r="J16" s="8">
+        <v>136.51</v>
+      </c>
+      <c r="K16" s="8">
+        <v>161.63</v>
+      </c>
+      <c r="M16" s="9">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O16" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P16" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R16" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S16" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T16" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U16" s="8">
+        <v>928</v>
+      </c>
+      <c r="V16" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>55.16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>63.4</v>
+      </c>
+      <c r="D17" s="8">
+        <v>71.63</v>
+      </c>
+      <c r="E17" s="8">
+        <v>81.64</v>
+      </c>
+      <c r="F17" s="8">
+        <v>91.66</v>
+      </c>
+      <c r="G17" s="8">
+        <v>101.67</v>
+      </c>
+      <c r="H17" s="8">
+        <v>113.6</v>
+      </c>
+      <c r="I17" s="8">
+        <v>125.53</v>
+      </c>
+      <c r="J17" s="8">
+        <v>137.46</v>
+      </c>
+      <c r="K17" s="8">
+        <v>162.11000000000001</v>
+      </c>
+      <c r="M17" s="9">
+        <v>13</v>
+      </c>
+      <c r="N17" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O17" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P17" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R17" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S17" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T17" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U17" s="8">
+        <v>928</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>54.8</v>
+      </c>
+      <c r="C18" s="8">
+        <v>63.68</v>
+      </c>
+      <c r="D18" s="8">
+        <v>72.56</v>
+      </c>
+      <c r="E18" s="8">
+        <v>82.32</v>
+      </c>
+      <c r="F18" s="8">
+        <v>92.08</v>
+      </c>
+      <c r="G18" s="8">
+        <v>101.84</v>
+      </c>
+      <c r="H18" s="8">
+        <v>114.03</v>
+      </c>
+      <c r="I18" s="8">
+        <v>126.22</v>
+      </c>
+      <c r="J18" s="8">
+        <v>138.41</v>
+      </c>
+      <c r="K18" s="8">
+        <v>162.58000000000001</v>
+      </c>
+      <c r="M18" s="9">
+        <v>14</v>
+      </c>
+      <c r="N18" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O18" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P18" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R18" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S18" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T18" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U18" s="8">
+        <v>928</v>
+      </c>
+      <c r="V18" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>54.44</v>
+      </c>
+      <c r="C19" s="8">
+        <v>63.96</v>
+      </c>
+      <c r="D19" s="8">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="E19" s="8">
+        <v>83</v>
+      </c>
+      <c r="F19" s="8">
+        <v>92.51</v>
+      </c>
+      <c r="G19" s="8">
+        <v>102.02</v>
+      </c>
+      <c r="H19" s="8">
+        <v>114.46</v>
+      </c>
+      <c r="I19" s="8">
+        <v>126.91</v>
+      </c>
+      <c r="J19" s="8">
+        <v>139.36000000000001</v>
+      </c>
+      <c r="K19" s="8">
+        <v>163.05000000000001</v>
+      </c>
+      <c r="M19" s="9">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O19" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P19" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R19" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S19" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T19" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U19" s="8">
+        <v>928</v>
+      </c>
+      <c r="V19" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>54.08</v>
+      </c>
+      <c r="C20" s="8">
+        <v>64.25</v>
+      </c>
+      <c r="D20" s="8">
+        <v>74.41</v>
+      </c>
+      <c r="E20" s="8">
+        <v>83.67</v>
+      </c>
+      <c r="F20" s="8">
+        <v>92.93</v>
+      </c>
+      <c r="G20" s="8">
+        <v>102.19</v>
+      </c>
+      <c r="H20" s="8">
+        <v>114.9</v>
+      </c>
+      <c r="I20" s="8">
+        <v>127.6</v>
+      </c>
+      <c r="J20" s="8">
+        <v>140.31</v>
+      </c>
+      <c r="K20" s="8">
+        <v>163.53</v>
+      </c>
+      <c r="M20" s="9">
+        <v>16</v>
+      </c>
+      <c r="N20" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O20" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P20" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R20" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S20" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T20" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U20" s="8">
+        <v>928</v>
+      </c>
+      <c r="V20" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>53.72</v>
+      </c>
+      <c r="C21" s="8">
+        <v>64.53</v>
+      </c>
+      <c r="D21" s="8">
+        <v>75.34</v>
+      </c>
+      <c r="E21" s="8">
+        <v>84.35</v>
+      </c>
+      <c r="F21" s="8">
+        <v>93.36</v>
+      </c>
+      <c r="G21" s="8">
+        <v>102.36</v>
+      </c>
+      <c r="H21" s="8">
+        <v>115.33</v>
+      </c>
+      <c r="I21" s="8">
+        <v>128.29</v>
+      </c>
+      <c r="J21" s="8">
+        <v>141.26</v>
+      </c>
+      <c r="K21" s="8">
+        <v>164</v>
+      </c>
+      <c r="M21" s="9">
+        <v>17</v>
+      </c>
+      <c r="N21" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O21" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P21" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R21" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S21" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T21" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U21" s="8">
+        <v>928</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>53.36</v>
+      </c>
+      <c r="C22" s="8">
+        <v>64.81</v>
+      </c>
+      <c r="D22" s="8">
+        <v>76.27</v>
+      </c>
+      <c r="E22" s="8">
+        <v>85.02</v>
+      </c>
+      <c r="F22" s="8">
+        <v>93.78</v>
+      </c>
+      <c r="G22" s="8">
+        <v>102.54</v>
+      </c>
+      <c r="H22" s="8">
+        <v>115.76</v>
+      </c>
+      <c r="I22" s="8">
+        <v>128.99</v>
+      </c>
+      <c r="J22" s="8">
+        <v>142.21</v>
+      </c>
+      <c r="K22" s="8">
+        <v>164.48</v>
+      </c>
+      <c r="M22" s="9">
+        <v>18</v>
+      </c>
+      <c r="N22" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O22" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P22" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R22" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S22" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T22" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U22" s="8">
+        <v>928</v>
+      </c>
+      <c r="V22" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>53</v>
+      </c>
+      <c r="C23" s="8">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="D23" s="8">
+        <v>77.2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>85.7</v>
+      </c>
+      <c r="F23" s="8">
+        <v>94.21</v>
+      </c>
+      <c r="G23" s="8">
+        <v>102.71</v>
+      </c>
+      <c r="H23" s="8">
+        <v>116.19</v>
+      </c>
+      <c r="I23" s="8">
+        <v>129.68</v>
+      </c>
+      <c r="J23" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="K23" s="8">
+        <v>164.95</v>
+      </c>
+      <c r="M23" s="9">
+        <v>19</v>
+      </c>
+      <c r="N23" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O23" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P23" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R23" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S23" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T23" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U23" s="8">
+        <v>928</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>52.64</v>
+      </c>
+      <c r="C24" s="8">
+        <v>65.38</v>
+      </c>
+      <c r="D24" s="8">
+        <v>78.12</v>
+      </c>
+      <c r="E24" s="8">
+        <v>86.38</v>
+      </c>
+      <c r="F24" s="8">
+        <v>94.63</v>
+      </c>
+      <c r="G24" s="8">
+        <v>102.89</v>
+      </c>
+      <c r="H24" s="8">
+        <v>116.63</v>
+      </c>
+      <c r="I24" s="8">
+        <v>130.37</v>
+      </c>
+      <c r="J24" s="8">
+        <v>144.11000000000001</v>
+      </c>
+      <c r="K24" s="8">
+        <v>165.43</v>
+      </c>
+      <c r="M24" s="9">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O24" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P24" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R24" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S24" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T24" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U24" s="8">
+        <v>928</v>
+      </c>
+      <c r="V24" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>52.28</v>
+      </c>
+      <c r="C25" s="8">
+        <v>65.66</v>
+      </c>
+      <c r="D25" s="8">
+        <v>79.05</v>
+      </c>
+      <c r="E25" s="8">
+        <v>87.05</v>
+      </c>
+      <c r="F25" s="8">
+        <v>95.06</v>
+      </c>
+      <c r="G25" s="8">
+        <v>103.06</v>
+      </c>
+      <c r="H25" s="8">
+        <v>117.06</v>
+      </c>
+      <c r="I25" s="8">
+        <v>131.06</v>
+      </c>
+      <c r="J25" s="8">
+        <v>145.06</v>
+      </c>
+      <c r="K25" s="8">
+        <v>165.9</v>
+      </c>
+      <c r="M25" s="9">
+        <v>21</v>
+      </c>
+      <c r="N25" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O25" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P25" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R25" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S25" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T25" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U25" s="8">
+        <v>928</v>
+      </c>
+      <c r="V25" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>51.91</v>
+      </c>
+      <c r="C26" s="8">
+        <v>65.95</v>
+      </c>
+      <c r="D26" s="8">
+        <v>79.98</v>
+      </c>
+      <c r="E26" s="8">
+        <v>87.73</v>
+      </c>
+      <c r="F26" s="8">
+        <v>95.48</v>
+      </c>
+      <c r="G26" s="8">
+        <v>103.24</v>
+      </c>
+      <c r="H26" s="8">
+        <v>117.49</v>
+      </c>
+      <c r="I26" s="8">
+        <v>131.75</v>
+      </c>
+      <c r="J26" s="8">
+        <v>146.01</v>
+      </c>
+      <c r="K26" s="8">
+        <v>166.38</v>
+      </c>
+      <c r="M26" s="9">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O26" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P26" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R26" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S26" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T26" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U26" s="8">
+        <v>928</v>
+      </c>
+      <c r="V26" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>51.55</v>
+      </c>
+      <c r="C27" s="8">
+        <v>66.23</v>
+      </c>
+      <c r="D27" s="8">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E27" s="8">
+        <v>88.41</v>
+      </c>
+      <c r="F27" s="8">
+        <v>95.91</v>
+      </c>
+      <c r="G27" s="8">
+        <v>103.41</v>
+      </c>
+      <c r="H27" s="8">
+        <v>117.93</v>
+      </c>
+      <c r="I27" s="8">
+        <v>132.44</v>
+      </c>
+      <c r="J27" s="8">
+        <v>146.96</v>
+      </c>
+      <c r="K27" s="8">
+        <v>166.85</v>
+      </c>
+      <c r="M27" s="9">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O27" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P27" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R27" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S27" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T27" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U27" s="8">
+        <v>928</v>
+      </c>
+      <c r="V27" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>51.19</v>
+      </c>
+      <c r="C28" s="8">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="D28" s="8">
+        <v>81.83</v>
+      </c>
+      <c r="E28" s="8">
+        <v>89.08</v>
+      </c>
+      <c r="F28" s="8">
+        <v>96.33</v>
+      </c>
+      <c r="G28" s="8">
+        <v>103.58</v>
+      </c>
+      <c r="H28" s="8">
+        <v>118.36</v>
+      </c>
+      <c r="I28" s="8">
+        <v>133.13</v>
+      </c>
+      <c r="J28" s="8">
+        <v>147.91</v>
+      </c>
+      <c r="K28" s="8">
+        <v>167.33</v>
+      </c>
+      <c r="M28" s="9">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O28" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P28" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R28" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S28" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T28" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U28" s="8">
+        <v>928</v>
+      </c>
+      <c r="V28" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>50.83</v>
+      </c>
+      <c r="C29" s="8">
+        <v>66.8</v>
+      </c>
+      <c r="D29" s="8">
+        <v>82.76</v>
+      </c>
+      <c r="E29" s="8">
+        <v>89.76</v>
+      </c>
+      <c r="F29" s="8">
+        <v>96.76</v>
+      </c>
+      <c r="G29" s="8">
+        <v>103.76</v>
+      </c>
+      <c r="H29" s="8">
+        <v>118.79</v>
+      </c>
+      <c r="I29" s="8">
+        <v>133.82</v>
+      </c>
+      <c r="J29" s="8">
+        <v>148.86000000000001</v>
+      </c>
+      <c r="K29" s="8">
+        <v>167.8</v>
+      </c>
+      <c r="M29" s="9">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O29" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P29" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R29" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S29" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T29" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U29" s="8">
+        <v>928</v>
+      </c>
+      <c r="V29" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W29" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>50.47</v>
+      </c>
+      <c r="C30" s="8">
+        <v>67.08</v>
+      </c>
+      <c r="D30" s="8">
+        <v>83.69</v>
+      </c>
+      <c r="E30" s="8">
+        <v>90.44</v>
+      </c>
+      <c r="F30" s="8">
+        <v>97.18</v>
+      </c>
+      <c r="G30" s="8">
+        <v>103.93</v>
+      </c>
+      <c r="H30" s="8">
+        <v>119.22</v>
+      </c>
+      <c r="I30" s="8">
+        <v>134.52000000000001</v>
+      </c>
+      <c r="J30" s="8">
+        <v>149.81</v>
+      </c>
+      <c r="K30" s="8">
+        <v>168.28</v>
+      </c>
+      <c r="M30" s="9">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O30" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P30" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R30" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S30" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T30" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U30" s="8">
+        <v>928</v>
+      </c>
+      <c r="V30" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>50.11</v>
+      </c>
+      <c r="C31" s="8">
+        <v>67.36</v>
+      </c>
+      <c r="D31" s="8">
+        <v>84.61</v>
+      </c>
+      <c r="E31" s="8">
+        <v>91.11</v>
+      </c>
+      <c r="F31" s="8">
+        <v>97.61</v>
+      </c>
+      <c r="G31" s="8">
+        <v>104.11</v>
+      </c>
+      <c r="H31" s="8">
+        <v>119.66</v>
+      </c>
+      <c r="I31" s="8">
+        <v>135.21</v>
+      </c>
+      <c r="J31" s="8">
+        <v>150.76</v>
+      </c>
+      <c r="K31" s="8">
+        <v>168.75</v>
+      </c>
+      <c r="M31" s="9">
+        <v>27</v>
+      </c>
+      <c r="N31" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O31" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P31" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R31" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S31" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T31" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U31" s="8">
+        <v>928</v>
+      </c>
+      <c r="V31" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <v>49.75</v>
+      </c>
+      <c r="C32" s="8">
+        <v>67.64</v>
+      </c>
+      <c r="D32" s="8">
+        <v>85.54</v>
+      </c>
+      <c r="E32" s="8">
+        <v>91.79</v>
+      </c>
+      <c r="F32" s="8">
+        <v>98.03</v>
+      </c>
+      <c r="G32" s="8">
+        <v>104.28</v>
+      </c>
+      <c r="H32" s="8">
+        <v>120.09</v>
+      </c>
+      <c r="I32" s="8">
+        <v>135.9</v>
+      </c>
+      <c r="J32" s="8">
+        <v>151.71</v>
+      </c>
+      <c r="K32" s="8">
+        <v>169.23</v>
+      </c>
+      <c r="M32" s="9">
+        <v>28</v>
+      </c>
+      <c r="N32" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O32" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P32" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R32" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S32" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T32" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U32" s="8">
+        <v>928</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>49.39</v>
+      </c>
+      <c r="C33" s="8">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="D33" s="8">
+        <v>86.47</v>
+      </c>
+      <c r="E33" s="8">
+        <v>92.46</v>
+      </c>
+      <c r="F33" s="8">
+        <v>98.46</v>
+      </c>
+      <c r="G33" s="8">
+        <v>104.46</v>
+      </c>
+      <c r="H33" s="8">
+        <v>120.52</v>
+      </c>
+      <c r="I33" s="8">
+        <v>136.59</v>
+      </c>
+      <c r="J33" s="8">
+        <v>152.66</v>
+      </c>
+      <c r="K33" s="8">
+        <v>169.7</v>
+      </c>
+      <c r="M33" s="9">
+        <v>29</v>
+      </c>
+      <c r="N33" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O33" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P33" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R33" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S33" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T33" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U33" s="8">
+        <v>928</v>
+      </c>
+      <c r="V33" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>49.03</v>
+      </c>
+      <c r="C34" s="8">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="D34" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="E34" s="8">
+        <v>93.14</v>
+      </c>
+      <c r="F34" s="8">
+        <v>98.89</v>
+      </c>
+      <c r="G34" s="8">
+        <v>104.63</v>
+      </c>
+      <c r="H34" s="8">
+        <v>120.96</v>
+      </c>
+      <c r="I34" s="8">
+        <v>137.28</v>
+      </c>
+      <c r="J34" s="8">
+        <v>153.61000000000001</v>
+      </c>
+      <c r="K34" s="8">
+        <v>170.18</v>
+      </c>
+      <c r="M34" s="9">
+        <v>30</v>
+      </c>
+      <c r="N34" s="8">
+        <v>186.75</v>
+      </c>
+      <c r="O34" s="8">
+        <v>238.81</v>
+      </c>
+      <c r="P34" s="8">
+        <v>290.86</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>342.92</v>
+      </c>
+      <c r="R34" s="8">
+        <v>394.97</v>
+      </c>
+      <c r="S34" s="8">
+        <v>572.65</v>
+      </c>
+      <c r="T34" s="8">
+        <v>750.32</v>
+      </c>
+      <c r="U34" s="8">
+        <v>928</v>
+      </c>
+      <c r="V34" s="8">
+        <v>1105.68</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1283.3499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>49.262333333333331</v>
+      </c>
+      <c r="C35" s="8">
+        <v>59.229666666666667</v>
+      </c>
+      <c r="D35" s="8">
+        <v>69.197333333333333</v>
+      </c>
+      <c r="E35" s="8">
+        <v>77.86999999999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>86.544000000000011</v>
+      </c>
+      <c r="G35" s="8">
+        <v>95.217000000000027</v>
+      </c>
+      <c r="H35" s="8">
+        <v>108.02966666666664</v>
+      </c>
+      <c r="I35" s="8">
+        <v>120.84200000000001</v>
+      </c>
+      <c r="J35" s="8">
+        <v>133.65600000000003</v>
+      </c>
+      <c r="K35" s="8">
+        <v>160.203</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="10">
+        <v>186.75</v>
+      </c>
+      <c r="O35" s="10">
+        <v>238.81000000000014</v>
+      </c>
+      <c r="P35" s="10">
+        <v>290.8599999999999</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>342.92</v>
+      </c>
+      <c r="R35" s="10">
+        <v>394.96999999999991</v>
+      </c>
+      <c r="S35" s="10">
+        <v>572.64999999999986</v>
+      </c>
+      <c r="T35" s="10">
+        <v>750.31999999999982</v>
+      </c>
+      <c r="U35" s="10">
+        <v>928</v>
+      </c>
+      <c r="V35" s="10">
+        <v>1105.68</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1283.3499999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="N2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20021F30-9281-441A-B982-AE3628B68A09}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5422,8 +7758,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C329B72-B441-4A9C-B89A-4A1D58BE3ABB}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7748,7 +10085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFFF00"/>
@@ -7799,7 +10136,2335 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCD6A14-A899-4FE0-AEAE-02064FB26C38}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="13" max="23" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>14</v>
+      </c>
+      <c r="R3" s="5">
+        <v>15</v>
+      </c>
+      <c r="S3" s="5">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5">
+        <v>17</v>
+      </c>
+      <c r="U3" s="5">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5">
+        <v>19</v>
+      </c>
+      <c r="W3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15.76</v>
+      </c>
+      <c r="D5" s="8">
+        <v>23.93</v>
+      </c>
+      <c r="E5" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>35.47</v>
+      </c>
+      <c r="G5" s="8">
+        <v>41.24</v>
+      </c>
+      <c r="H5" s="8">
+        <v>49.2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>57.15</v>
+      </c>
+      <c r="J5" s="8">
+        <v>65.11</v>
+      </c>
+      <c r="K5" s="8">
+        <v>101.65</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O5" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R5" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S5" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T5" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U5" s="8">
+        <v>917</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13.02</v>
+      </c>
+      <c r="C6" s="8">
+        <v>21.49</v>
+      </c>
+      <c r="D6" s="8">
+        <v>29.95</v>
+      </c>
+      <c r="E6" s="8">
+        <v>35.96</v>
+      </c>
+      <c r="F6" s="8">
+        <v>41.98</v>
+      </c>
+      <c r="G6" s="8">
+        <v>48</v>
+      </c>
+      <c r="H6" s="8">
+        <v>57.19</v>
+      </c>
+      <c r="I6" s="8">
+        <v>66.38</v>
+      </c>
+      <c r="J6" s="8">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="K6" s="8">
+        <v>106.88</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O6" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P6" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R6" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S6" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T6" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U6" s="8">
+        <v>917</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>18.45</v>
+      </c>
+      <c r="C7" s="8">
+        <v>27.21</v>
+      </c>
+      <c r="D7" s="8">
+        <v>35.97</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42.23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>48.49</v>
+      </c>
+      <c r="G7" s="8">
+        <v>54.75</v>
+      </c>
+      <c r="H7" s="8">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="I7" s="8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J7" s="8">
+        <v>86.03</v>
+      </c>
+      <c r="K7" s="8">
+        <v>112.11</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O7" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P7" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R7" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S7" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T7" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U7" s="8">
+        <v>917</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>23.87</v>
+      </c>
+      <c r="C8" s="8">
+        <v>32.93</v>
+      </c>
+      <c r="D8" s="8">
+        <v>41.99</v>
+      </c>
+      <c r="E8" s="8">
+        <v>48.49</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8">
+        <v>61.51</v>
+      </c>
+      <c r="H8" s="8">
+        <v>73.17</v>
+      </c>
+      <c r="I8" s="8">
+        <v>84.83</v>
+      </c>
+      <c r="J8" s="8">
+        <v>96.49</v>
+      </c>
+      <c r="K8" s="8">
+        <v>117.34</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O8" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P8" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R8" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S8" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T8" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U8" s="8">
+        <v>917</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>27.02</v>
+      </c>
+      <c r="C9" s="8">
+        <v>35.83</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44.63</v>
+      </c>
+      <c r="E9" s="8">
+        <v>51.87</v>
+      </c>
+      <c r="F9" s="8">
+        <v>59.1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>66.34</v>
+      </c>
+      <c r="H9" s="8">
+        <v>78.03</v>
+      </c>
+      <c r="I9" s="8">
+        <v>89.71</v>
+      </c>
+      <c r="J9" s="8">
+        <v>101.4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>119.79</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O9" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P9" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R9" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S9" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T9" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U9" s="8">
+        <v>917</v>
+      </c>
+      <c r="V9" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>30.18</v>
+      </c>
+      <c r="C10" s="8">
+        <v>38.72</v>
+      </c>
+      <c r="D10" s="8">
+        <v>47.27</v>
+      </c>
+      <c r="E10" s="8">
+        <v>55.24</v>
+      </c>
+      <c r="F10" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>71.17</v>
+      </c>
+      <c r="H10" s="8">
+        <v>82.88</v>
+      </c>
+      <c r="I10" s="8">
+        <v>94.6</v>
+      </c>
+      <c r="J10" s="8">
+        <v>106.32</v>
+      </c>
+      <c r="K10" s="8">
+        <v>122.25</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O10" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P10" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R10" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S10" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T10" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U10" s="8">
+        <v>917</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>28.89</v>
+      </c>
+      <c r="C11" s="8">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="D11" s="8">
+        <v>50.36</v>
+      </c>
+      <c r="E11" s="8">
+        <v>58.38</v>
+      </c>
+      <c r="F11" s="8">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G11" s="8">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="H11" s="8">
+        <v>86.17</v>
+      </c>
+      <c r="I11" s="8">
+        <v>97.92</v>
+      </c>
+      <c r="J11" s="8">
+        <v>109.67</v>
+      </c>
+      <c r="K11" s="8">
+        <v>123.93</v>
+      </c>
+      <c r="M11" s="9">
+        <v>7</v>
+      </c>
+      <c r="N11" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O11" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P11" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R11" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S11" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T11" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U11" s="8">
+        <v>917</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27.61</v>
+      </c>
+      <c r="C12" s="8">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="D12" s="8">
+        <v>53.44</v>
+      </c>
+      <c r="E12" s="8">
+        <v>61.52</v>
+      </c>
+      <c r="F12" s="8">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G12" s="8">
+        <v>77.69</v>
+      </c>
+      <c r="H12" s="8">
+        <v>89.47</v>
+      </c>
+      <c r="I12" s="8">
+        <v>101.24</v>
+      </c>
+      <c r="J12" s="8">
+        <v>113.02</v>
+      </c>
+      <c r="K12" s="8">
+        <v>125.6</v>
+      </c>
+      <c r="M12" s="9">
+        <v>8</v>
+      </c>
+      <c r="N12" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O12" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P12" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R12" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S12" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T12" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U12" s="8">
+        <v>917</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>26.32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>41.42</v>
+      </c>
+      <c r="D13" s="8">
+        <v>56.52</v>
+      </c>
+      <c r="E13" s="8">
+        <v>64.66</v>
+      </c>
+      <c r="F13" s="8">
+        <v>72.8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>80.95</v>
+      </c>
+      <c r="H13" s="8">
+        <v>92.76</v>
+      </c>
+      <c r="I13" s="8">
+        <v>104.57</v>
+      </c>
+      <c r="J13" s="8">
+        <v>116.37</v>
+      </c>
+      <c r="K13" s="8">
+        <v>127.28</v>
+      </c>
+      <c r="M13" s="9">
+        <v>9</v>
+      </c>
+      <c r="N13" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O13" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P13" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R13" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S13" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T13" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U13" s="8">
+        <v>917</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>27.46</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42.39</v>
+      </c>
+      <c r="D14" s="8">
+        <v>57.32</v>
+      </c>
+      <c r="E14" s="8">
+        <v>65.23</v>
+      </c>
+      <c r="F14" s="8">
+        <v>73.14</v>
+      </c>
+      <c r="G14" s="8">
+        <v>81.05</v>
+      </c>
+      <c r="H14" s="8">
+        <v>93.07</v>
+      </c>
+      <c r="I14" s="8">
+        <v>105.09</v>
+      </c>
+      <c r="J14" s="8">
+        <v>117.11</v>
+      </c>
+      <c r="K14" s="8">
+        <v>127.65</v>
+      </c>
+      <c r="M14" s="9">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O14" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P14" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R14" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S14" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T14" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U14" s="8">
+        <v>917</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W14" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>28.6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43.36</v>
+      </c>
+      <c r="D15" s="8">
+        <v>58.13</v>
+      </c>
+      <c r="E15" s="8">
+        <v>65.8</v>
+      </c>
+      <c r="F15" s="8">
+        <v>73.48</v>
+      </c>
+      <c r="G15" s="8">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="H15" s="8">
+        <v>93.38</v>
+      </c>
+      <c r="I15" s="8">
+        <v>105.61</v>
+      </c>
+      <c r="J15" s="8">
+        <v>117.84</v>
+      </c>
+      <c r="K15" s="8">
+        <v>128.01</v>
+      </c>
+      <c r="M15" s="9">
+        <v>11</v>
+      </c>
+      <c r="N15" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O15" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P15" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R15" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S15" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T15" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U15" s="8">
+        <v>917</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>29.73</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44.33</v>
+      </c>
+      <c r="D16" s="8">
+        <v>58.93</v>
+      </c>
+      <c r="E16" s="8">
+        <v>66.37</v>
+      </c>
+      <c r="F16" s="8">
+        <v>73.81</v>
+      </c>
+      <c r="G16" s="8">
+        <v>81.25</v>
+      </c>
+      <c r="H16" s="8">
+        <v>93.69</v>
+      </c>
+      <c r="I16" s="8">
+        <v>106.13</v>
+      </c>
+      <c r="J16" s="8">
+        <v>118.57</v>
+      </c>
+      <c r="K16" s="8">
+        <v>128.38</v>
+      </c>
+      <c r="M16" s="9">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O16" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P16" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R16" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S16" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T16" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U16" s="8">
+        <v>917</v>
+      </c>
+      <c r="V16" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>30.87</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45.3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>59.73</v>
+      </c>
+      <c r="E17" s="8">
+        <v>66.94</v>
+      </c>
+      <c r="F17" s="8">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="G17" s="8">
+        <v>81.36</v>
+      </c>
+      <c r="H17" s="8">
+        <v>94</v>
+      </c>
+      <c r="I17" s="8">
+        <v>106.65</v>
+      </c>
+      <c r="J17" s="8">
+        <v>119.3</v>
+      </c>
+      <c r="K17" s="8">
+        <v>128.74</v>
+      </c>
+      <c r="M17" s="9">
+        <v>13</v>
+      </c>
+      <c r="N17" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O17" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P17" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R17" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S17" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T17" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U17" s="8">
+        <v>917</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>32.01</v>
+      </c>
+      <c r="C18" s="8">
+        <v>46.27</v>
+      </c>
+      <c r="D18" s="8">
+        <v>60.54</v>
+      </c>
+      <c r="E18" s="8">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="F18" s="8">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="G18" s="8">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="H18" s="8">
+        <v>94.32</v>
+      </c>
+      <c r="I18" s="8">
+        <v>107.17</v>
+      </c>
+      <c r="J18" s="8">
+        <v>120.03</v>
+      </c>
+      <c r="K18" s="8">
+        <v>129.11000000000001</v>
+      </c>
+      <c r="M18" s="9">
+        <v>14</v>
+      </c>
+      <c r="N18" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O18" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P18" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R18" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S18" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T18" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U18" s="8">
+        <v>917</v>
+      </c>
+      <c r="V18" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>33.15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>47.25</v>
+      </c>
+      <c r="D19" s="8">
+        <v>61.34</v>
+      </c>
+      <c r="E19" s="8">
+        <v>68.08</v>
+      </c>
+      <c r="F19" s="8">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="G19" s="8">
+        <v>81.56</v>
+      </c>
+      <c r="H19" s="8">
+        <v>94.63</v>
+      </c>
+      <c r="I19" s="8">
+        <v>107.7</v>
+      </c>
+      <c r="J19" s="8">
+        <v>120.76</v>
+      </c>
+      <c r="K19" s="8">
+        <v>129.47</v>
+      </c>
+      <c r="M19" s="9">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O19" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P19" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R19" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S19" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T19" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U19" s="8">
+        <v>917</v>
+      </c>
+      <c r="V19" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>34.29</v>
+      </c>
+      <c r="C20" s="8">
+        <v>48.22</v>
+      </c>
+      <c r="D20" s="8">
+        <v>62.14</v>
+      </c>
+      <c r="E20" s="8">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="F20" s="8">
+        <v>75.16</v>
+      </c>
+      <c r="G20" s="8">
+        <v>81.66</v>
+      </c>
+      <c r="H20" s="8">
+        <v>94.94</v>
+      </c>
+      <c r="I20" s="8">
+        <v>108.22</v>
+      </c>
+      <c r="J20" s="8">
+        <v>121.49</v>
+      </c>
+      <c r="K20" s="8">
+        <v>129.84</v>
+      </c>
+      <c r="M20" s="9">
+        <v>16</v>
+      </c>
+      <c r="N20" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O20" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P20" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R20" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S20" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T20" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U20" s="8">
+        <v>917</v>
+      </c>
+      <c r="V20" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>35.43</v>
+      </c>
+      <c r="C21" s="8">
+        <v>49.19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>62.95</v>
+      </c>
+      <c r="E21" s="8">
+        <v>69.22</v>
+      </c>
+      <c r="F21" s="8">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="G21" s="8">
+        <v>81.77</v>
+      </c>
+      <c r="H21" s="8">
+        <v>95.25</v>
+      </c>
+      <c r="I21" s="8">
+        <v>108.74</v>
+      </c>
+      <c r="J21" s="8">
+        <v>122.23</v>
+      </c>
+      <c r="K21" s="8">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="M21" s="9">
+        <v>17</v>
+      </c>
+      <c r="N21" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O21" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P21" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R21" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S21" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T21" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U21" s="8">
+        <v>917</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>36.56</v>
+      </c>
+      <c r="C22" s="8">
+        <v>50.16</v>
+      </c>
+      <c r="D22" s="8">
+        <v>63.75</v>
+      </c>
+      <c r="E22" s="8">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="F22" s="8">
+        <v>75.83</v>
+      </c>
+      <c r="G22" s="8">
+        <v>81.87</v>
+      </c>
+      <c r="H22" s="8">
+        <v>95.57</v>
+      </c>
+      <c r="I22" s="8">
+        <v>109.26</v>
+      </c>
+      <c r="J22" s="8">
+        <v>122.96</v>
+      </c>
+      <c r="K22" s="8">
+        <v>130.57</v>
+      </c>
+      <c r="M22" s="9">
+        <v>18</v>
+      </c>
+      <c r="N22" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O22" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P22" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R22" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S22" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T22" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U22" s="8">
+        <v>917</v>
+      </c>
+      <c r="V22" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C23" s="8">
+        <v>51.13</v>
+      </c>
+      <c r="D23" s="8">
+        <v>64.56</v>
+      </c>
+      <c r="E23" s="8">
+        <v>70.36</v>
+      </c>
+      <c r="F23" s="8">
+        <v>76.17</v>
+      </c>
+      <c r="G23" s="8">
+        <v>81.97</v>
+      </c>
+      <c r="H23" s="8">
+        <v>95.88</v>
+      </c>
+      <c r="I23" s="8">
+        <v>109.78</v>
+      </c>
+      <c r="J23" s="8">
+        <v>123.69</v>
+      </c>
+      <c r="K23" s="8">
+        <v>130.94</v>
+      </c>
+      <c r="M23" s="9">
+        <v>19</v>
+      </c>
+      <c r="N23" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O23" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P23" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R23" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S23" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T23" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U23" s="8">
+        <v>917</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="C24" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>65.36</v>
+      </c>
+      <c r="E24" s="8">
+        <v>70.930000000000007</v>
+      </c>
+      <c r="F24" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="G24" s="8">
+        <v>82.08</v>
+      </c>
+      <c r="H24" s="8">
+        <v>96.19</v>
+      </c>
+      <c r="I24" s="8">
+        <v>110.3</v>
+      </c>
+      <c r="J24" s="8">
+        <v>124.42</v>
+      </c>
+      <c r="K24" s="8">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="M24" s="9">
+        <v>20</v>
+      </c>
+      <c r="N24" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O24" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P24" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R24" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S24" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T24" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U24" s="8">
+        <v>917</v>
+      </c>
+      <c r="V24" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="C25" s="8">
+        <v>53.07</v>
+      </c>
+      <c r="D25" s="8">
+        <v>66.16</v>
+      </c>
+      <c r="E25" s="8">
+        <v>71.5</v>
+      </c>
+      <c r="F25" s="8">
+        <v>76.84</v>
+      </c>
+      <c r="G25" s="8">
+        <v>82.18</v>
+      </c>
+      <c r="H25" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="I25" s="8">
+        <v>110.83</v>
+      </c>
+      <c r="J25" s="8">
+        <v>125.15</v>
+      </c>
+      <c r="K25" s="8">
+        <v>131.66999999999999</v>
+      </c>
+      <c r="M25" s="9">
+        <v>21</v>
+      </c>
+      <c r="N25" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O25" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P25" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R25" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S25" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T25" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U25" s="8">
+        <v>917</v>
+      </c>
+      <c r="V25" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>41.12</v>
+      </c>
+      <c r="C26" s="8">
+        <v>54.04</v>
+      </c>
+      <c r="D26" s="8">
+        <v>66.97</v>
+      </c>
+      <c r="E26" s="8">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="F26" s="8">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="G26" s="8">
+        <v>82.28</v>
+      </c>
+      <c r="H26" s="8">
+        <v>96.81</v>
+      </c>
+      <c r="I26" s="8">
+        <v>111.35</v>
+      </c>
+      <c r="J26" s="8">
+        <v>125.88</v>
+      </c>
+      <c r="K26" s="8">
+        <v>132.03</v>
+      </c>
+      <c r="M26" s="9">
+        <v>22</v>
+      </c>
+      <c r="N26" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O26" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P26" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R26" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S26" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T26" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U26" s="8">
+        <v>917</v>
+      </c>
+      <c r="V26" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42.25</v>
+      </c>
+      <c r="C27" s="8">
+        <v>55.01</v>
+      </c>
+      <c r="D27" s="8">
+        <v>67.77</v>
+      </c>
+      <c r="E27" s="8">
+        <v>72.64</v>
+      </c>
+      <c r="F27" s="8">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="G27" s="8">
+        <v>82.38</v>
+      </c>
+      <c r="H27" s="8">
+        <v>97.13</v>
+      </c>
+      <c r="I27" s="8">
+        <v>111.87</v>
+      </c>
+      <c r="J27" s="8">
+        <v>126.61</v>
+      </c>
+      <c r="K27" s="8">
+        <v>132.4</v>
+      </c>
+      <c r="M27" s="9">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O27" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P27" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R27" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S27" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T27" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U27" s="8">
+        <v>917</v>
+      </c>
+      <c r="V27" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43.39</v>
+      </c>
+      <c r="C28" s="8">
+        <v>55.98</v>
+      </c>
+      <c r="D28" s="8">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="E28" s="8">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="F28" s="8">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="G28" s="8">
+        <v>82.49</v>
+      </c>
+      <c r="H28" s="8">
+        <v>97.44</v>
+      </c>
+      <c r="I28" s="8">
+        <v>112.39</v>
+      </c>
+      <c r="J28" s="8">
+        <v>127.34</v>
+      </c>
+      <c r="K28" s="8">
+        <v>132.76</v>
+      </c>
+      <c r="M28" s="9">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O28" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P28" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R28" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S28" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T28" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U28" s="8">
+        <v>917</v>
+      </c>
+      <c r="V28" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44.53</v>
+      </c>
+      <c r="C29" s="8">
+        <v>56.95</v>
+      </c>
+      <c r="D29" s="8">
+        <v>69.38</v>
+      </c>
+      <c r="E29" s="8">
+        <v>73.78</v>
+      </c>
+      <c r="F29" s="8">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="G29" s="8">
+        <v>82.59</v>
+      </c>
+      <c r="H29" s="8">
+        <v>97.75</v>
+      </c>
+      <c r="I29" s="8">
+        <v>112.91</v>
+      </c>
+      <c r="J29" s="8">
+        <v>128.08000000000001</v>
+      </c>
+      <c r="K29" s="8">
+        <v>133.13</v>
+      </c>
+      <c r="M29" s="9">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O29" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P29" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R29" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S29" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T29" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U29" s="8">
+        <v>917</v>
+      </c>
+      <c r="V29" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W29" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45.67</v>
+      </c>
+      <c r="C30" s="8">
+        <v>57.92</v>
+      </c>
+      <c r="D30" s="8">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="E30" s="8">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="F30" s="8">
+        <v>78.52</v>
+      </c>
+      <c r="G30" s="8">
+        <v>82.69</v>
+      </c>
+      <c r="H30" s="8">
+        <v>98.06</v>
+      </c>
+      <c r="I30" s="8">
+        <v>113.43</v>
+      </c>
+      <c r="J30" s="8">
+        <v>128.81</v>
+      </c>
+      <c r="K30" s="8">
+        <v>133.5</v>
+      </c>
+      <c r="M30" s="9">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O30" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P30" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R30" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S30" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T30" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U30" s="8">
+        <v>917</v>
+      </c>
+      <c r="V30" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8">
+        <v>46.81</v>
+      </c>
+      <c r="C31" s="8">
+        <v>58.9</v>
+      </c>
+      <c r="D31" s="8">
+        <v>70.98</v>
+      </c>
+      <c r="E31" s="8">
+        <v>74.92</v>
+      </c>
+      <c r="F31" s="8">
+        <v>78.86</v>
+      </c>
+      <c r="G31" s="8">
+        <v>82.79</v>
+      </c>
+      <c r="H31" s="8">
+        <v>98.38</v>
+      </c>
+      <c r="I31" s="8">
+        <v>113.96</v>
+      </c>
+      <c r="J31" s="8">
+        <v>129.54</v>
+      </c>
+      <c r="K31" s="8">
+        <v>133.86000000000001</v>
+      </c>
+      <c r="M31" s="9">
+        <v>27</v>
+      </c>
+      <c r="N31" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O31" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P31" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R31" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S31" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T31" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U31" s="8">
+        <v>917</v>
+      </c>
+      <c r="V31" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <v>47.95</v>
+      </c>
+      <c r="C32" s="8">
+        <v>59.87</v>
+      </c>
+      <c r="D32" s="8">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="E32" s="8">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="F32" s="8">
+        <v>79.19</v>
+      </c>
+      <c r="G32" s="8">
+        <v>82.9</v>
+      </c>
+      <c r="H32" s="8">
+        <v>98.69</v>
+      </c>
+      <c r="I32" s="8">
+        <v>114.48</v>
+      </c>
+      <c r="J32" s="8">
+        <v>130.27000000000001</v>
+      </c>
+      <c r="K32" s="8">
+        <v>134.22999999999999</v>
+      </c>
+      <c r="M32" s="9">
+        <v>28</v>
+      </c>
+      <c r="N32" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O32" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P32" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R32" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S32" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T32" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U32" s="8">
+        <v>917</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>49.08</v>
+      </c>
+      <c r="C33" s="8">
+        <v>60.84</v>
+      </c>
+      <c r="D33" s="8">
+        <v>72.59</v>
+      </c>
+      <c r="E33" s="8">
+        <v>76.06</v>
+      </c>
+      <c r="F33" s="8">
+        <v>79.53</v>
+      </c>
+      <c r="G33" s="8">
+        <v>83</v>
+      </c>
+      <c r="H33" s="8">
+        <v>99</v>
+      </c>
+      <c r="I33" s="8">
+        <v>115</v>
+      </c>
+      <c r="J33" s="8">
+        <v>131</v>
+      </c>
+      <c r="K33" s="8">
+        <v>134.59</v>
+      </c>
+      <c r="M33" s="9">
+        <v>29</v>
+      </c>
+      <c r="N33" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O33" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P33" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R33" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S33" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T33" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U33" s="8">
+        <v>917</v>
+      </c>
+      <c r="V33" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8">
+        <v>50.22</v>
+      </c>
+      <c r="C34" s="8">
+        <v>61.81</v>
+      </c>
+      <c r="D34" s="8">
+        <v>73.39</v>
+      </c>
+      <c r="E34" s="8">
+        <v>76.63</v>
+      </c>
+      <c r="F34" s="8">
+        <v>79.87</v>
+      </c>
+      <c r="G34" s="8">
+        <v>83.1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>99.31</v>
+      </c>
+      <c r="I34" s="8">
+        <v>115.52</v>
+      </c>
+      <c r="J34" s="8">
+        <v>131.72999999999999</v>
+      </c>
+      <c r="K34" s="8">
+        <v>134.96</v>
+      </c>
+      <c r="M34" s="9">
+        <v>30</v>
+      </c>
+      <c r="N34" s="8">
+        <v>138.18</v>
+      </c>
+      <c r="O34" s="8">
+        <v>186.38</v>
+      </c>
+      <c r="P34" s="8">
+        <v>234.57</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>282.77</v>
+      </c>
+      <c r="R34" s="8">
+        <v>330.96</v>
+      </c>
+      <c r="S34" s="8">
+        <v>526.30999999999995</v>
+      </c>
+      <c r="T34" s="8">
+        <v>721.65</v>
+      </c>
+      <c r="U34" s="8">
+        <v>917</v>
+      </c>
+      <c r="V34" s="8">
+        <v>1112.3499999999999</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1307.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="8">
+        <v>33.953333333333333</v>
+      </c>
+      <c r="C35" s="8">
+        <v>46.253000000000007</v>
+      </c>
+      <c r="D35" s="8">
+        <v>58.552999999999997</v>
+      </c>
+      <c r="E35" s="8">
+        <v>64.585999999999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>70.620333333333335</v>
+      </c>
+      <c r="G35" s="8">
+        <v>76.655333333333331</v>
+      </c>
+      <c r="H35" s="8">
+        <v>89.801333333333332</v>
+      </c>
+      <c r="I35" s="8">
+        <v>102.94633333333331</v>
+      </c>
+      <c r="J35" s="8">
+        <v>116.09300000000002</v>
+      </c>
+      <c r="K35" s="8">
+        <v>127.13900000000004</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="10">
+        <v>138.17999999999995</v>
+      </c>
+      <c r="O35" s="10">
+        <v>186.38000000000008</v>
+      </c>
+      <c r="P35" s="10">
+        <v>234.56999999999991</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>282.77000000000021</v>
+      </c>
+      <c r="R35" s="10">
+        <v>330.95999999999987</v>
+      </c>
+      <c r="S35" s="10">
+        <v>526.3099999999996</v>
+      </c>
+      <c r="T35" s="10">
+        <v>721.65000000000009</v>
+      </c>
+      <c r="U35" s="10">
+        <v>917</v>
+      </c>
+      <c r="V35" s="10">
+        <v>1112.3499999999995</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1307.6899999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="N2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A54CD7A-C5DB-4053-8396-4E635114B1F4}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10124,8 +14789,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88339EC-ECB0-41C9-8BB0-630F426B0BBE}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12450,8 +17116,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4309D126-3EDC-42ED-80DF-A34F95A07E6E}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14776,8 +19443,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E35BE4-EF70-41CF-AF12-CCB5BAE8DA8A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17102,8 +21770,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB5B8B-0B3D-4D0C-9E6D-ACD327AE1B1B}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19430,8 +24099,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FC35AE-E973-4CF9-9AE2-82A811E5E874}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21756,8 +26426,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC8FFAC-4FD7-4739-8182-E5754BE58F0D}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24080,2330 +28751,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418E16CC-B113-45B8-9AB8-B4C2E0CD8BE4}">
-  <dimension ref="A1:W35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="13" max="23" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8</v>
-      </c>
-      <c r="J3" s="5">
-        <v>9</v>
-      </c>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="5">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>14</v>
-      </c>
-      <c r="R3" s="5">
-        <v>15</v>
-      </c>
-      <c r="S3" s="5">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5">
-        <v>17</v>
-      </c>
-      <c r="U3" s="5">
-        <v>18</v>
-      </c>
-      <c r="V3" s="5">
-        <v>19</v>
-      </c>
-      <c r="W3" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>17.16</v>
-      </c>
-      <c r="C5" s="8">
-        <v>22.42</v>
-      </c>
-      <c r="D5" s="8">
-        <v>27.68</v>
-      </c>
-      <c r="E5" s="8">
-        <v>34.78</v>
-      </c>
-      <c r="F5" s="8">
-        <v>41.88</v>
-      </c>
-      <c r="G5" s="8">
-        <v>48.98</v>
-      </c>
-      <c r="H5" s="8">
-        <v>57.59</v>
-      </c>
-      <c r="I5" s="8">
-        <v>66.209999999999994</v>
-      </c>
-      <c r="J5" s="8">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="K5" s="8">
-        <v>130.79</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O5" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P5" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R5" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S5" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T5" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U5" s="8">
-        <v>928</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <v>26.59</v>
-      </c>
-      <c r="C6" s="8">
-        <v>30.02</v>
-      </c>
-      <c r="D6" s="8">
-        <v>33.44</v>
-      </c>
-      <c r="E6" s="8">
-        <v>41.24</v>
-      </c>
-      <c r="F6" s="8">
-        <v>49.04</v>
-      </c>
-      <c r="G6" s="8">
-        <v>56.83</v>
-      </c>
-      <c r="H6" s="8">
-        <v>66.3</v>
-      </c>
-      <c r="I6" s="8">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="J6" s="8">
-        <v>85.23</v>
-      </c>
-      <c r="K6" s="8">
-        <v>135.99</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O6" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P6" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R6" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S6" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T6" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U6" s="8">
-        <v>928</v>
-      </c>
-      <c r="V6" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W6" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
-        <v>36.01</v>
-      </c>
-      <c r="C7" s="8">
-        <v>37.61</v>
-      </c>
-      <c r="D7" s="8">
-        <v>39.21</v>
-      </c>
-      <c r="E7" s="8">
-        <v>47.7</v>
-      </c>
-      <c r="F7" s="8">
-        <v>56.2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>64.69</v>
-      </c>
-      <c r="H7" s="8">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="I7" s="8">
-        <v>85.32</v>
-      </c>
-      <c r="J7" s="8">
-        <v>95.64</v>
-      </c>
-      <c r="K7" s="8">
-        <v>141.19</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3</v>
-      </c>
-      <c r="N7" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O7" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P7" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R7" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S7" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T7" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U7" s="8">
-        <v>928</v>
-      </c>
-      <c r="V7" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W7" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <v>45.44</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45.21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>44.97</v>
-      </c>
-      <c r="E8" s="8">
-        <v>54.16</v>
-      </c>
-      <c r="F8" s="8">
-        <v>63.36</v>
-      </c>
-      <c r="G8" s="8">
-        <v>72.55</v>
-      </c>
-      <c r="H8" s="8">
-        <v>83.71</v>
-      </c>
-      <c r="I8" s="8">
-        <v>94.88</v>
-      </c>
-      <c r="J8" s="8">
-        <v>106.04</v>
-      </c>
-      <c r="K8" s="8">
-        <v>146.4</v>
-      </c>
-      <c r="M8" s="9">
-        <v>4</v>
-      </c>
-      <c r="N8" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O8" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P8" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R8" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S8" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T8" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U8" s="8">
-        <v>928</v>
-      </c>
-      <c r="V8" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W8" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>44.99</v>
-      </c>
-      <c r="C9" s="8">
-        <v>46.91</v>
-      </c>
-      <c r="D9" s="8">
-        <v>48.83</v>
-      </c>
-      <c r="E9" s="8">
-        <v>58.95</v>
-      </c>
-      <c r="F9" s="8">
-        <v>69.069999999999993</v>
-      </c>
-      <c r="G9" s="8">
-        <v>79.2</v>
-      </c>
-      <c r="H9" s="8">
-        <v>90.56</v>
-      </c>
-      <c r="I9" s="8">
-        <v>101.92</v>
-      </c>
-      <c r="J9" s="8">
-        <v>113.28</v>
-      </c>
-      <c r="K9" s="8">
-        <v>150.02000000000001</v>
-      </c>
-      <c r="M9" s="9">
-        <v>5</v>
-      </c>
-      <c r="N9" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O9" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P9" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R9" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S9" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T9" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U9" s="8">
-        <v>928</v>
-      </c>
-      <c r="V9" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>44.54</v>
-      </c>
-      <c r="C10" s="8">
-        <v>48.61</v>
-      </c>
-      <c r="D10" s="8">
-        <v>52.69</v>
-      </c>
-      <c r="E10" s="8">
-        <v>63.74</v>
-      </c>
-      <c r="F10" s="8">
-        <v>74.790000000000006</v>
-      </c>
-      <c r="G10" s="8">
-        <v>85.84</v>
-      </c>
-      <c r="H10" s="8">
-        <v>97.4</v>
-      </c>
-      <c r="I10" s="8">
-        <v>108.96</v>
-      </c>
-      <c r="J10" s="8">
-        <v>120.52</v>
-      </c>
-      <c r="K10" s="8">
-        <v>153.63999999999999</v>
-      </c>
-      <c r="M10" s="9">
-        <v>6</v>
-      </c>
-      <c r="N10" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O10" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P10" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R10" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S10" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T10" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U10" s="8">
-        <v>928</v>
-      </c>
-      <c r="V10" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W10" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>48.56</v>
-      </c>
-      <c r="C11" s="8">
-        <v>53.16</v>
-      </c>
-      <c r="D11" s="8">
-        <v>57.76</v>
-      </c>
-      <c r="E11" s="8">
-        <v>68.8</v>
-      </c>
-      <c r="F11" s="8">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="G11" s="8">
-        <v>90.89</v>
-      </c>
-      <c r="H11" s="8">
-        <v>102.22</v>
-      </c>
-      <c r="I11" s="8">
-        <v>113.56</v>
-      </c>
-      <c r="J11" s="8">
-        <v>124.9</v>
-      </c>
-      <c r="K11" s="8">
-        <v>155.83000000000001</v>
-      </c>
-      <c r="M11" s="9">
-        <v>7</v>
-      </c>
-      <c r="N11" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O11" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P11" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R11" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S11" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T11" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U11" s="8">
-        <v>928</v>
-      </c>
-      <c r="V11" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>52.59</v>
-      </c>
-      <c r="C12" s="8">
-        <v>57.71</v>
-      </c>
-      <c r="D12" s="8">
-        <v>62.84</v>
-      </c>
-      <c r="E12" s="8">
-        <v>73.87</v>
-      </c>
-      <c r="F12" s="8">
-        <v>84.9</v>
-      </c>
-      <c r="G12" s="8">
-        <v>95.93</v>
-      </c>
-      <c r="H12" s="8">
-        <v>107.05</v>
-      </c>
-      <c r="I12" s="8">
-        <v>118.16</v>
-      </c>
-      <c r="J12" s="8">
-        <v>129.28</v>
-      </c>
-      <c r="K12" s="8">
-        <v>158.02000000000001</v>
-      </c>
-      <c r="M12" s="9">
-        <v>8</v>
-      </c>
-      <c r="N12" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O12" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P12" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R12" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S12" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T12" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U12" s="8">
-        <v>928</v>
-      </c>
-      <c r="V12" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>56.61</v>
-      </c>
-      <c r="C13" s="8">
-        <v>62.27</v>
-      </c>
-      <c r="D13" s="8">
-        <v>67.92</v>
-      </c>
-      <c r="E13" s="8">
-        <v>78.94</v>
-      </c>
-      <c r="F13" s="8">
-        <v>89.95</v>
-      </c>
-      <c r="G13" s="8">
-        <v>100.97</v>
-      </c>
-      <c r="H13" s="8">
-        <v>111.87</v>
-      </c>
-      <c r="I13" s="8">
-        <v>122.76</v>
-      </c>
-      <c r="J13" s="8">
-        <v>133.66</v>
-      </c>
-      <c r="K13" s="8">
-        <v>160.21</v>
-      </c>
-      <c r="M13" s="9">
-        <v>9</v>
-      </c>
-      <c r="N13" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O13" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P13" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R13" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S13" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T13" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U13" s="8">
-        <v>928</v>
-      </c>
-      <c r="V13" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W13" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>56.25</v>
-      </c>
-      <c r="C14" s="8">
-        <v>62.55</v>
-      </c>
-      <c r="D14" s="8">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="E14" s="8">
-        <v>79.61</v>
-      </c>
-      <c r="F14" s="8">
-        <v>90.38</v>
-      </c>
-      <c r="G14" s="8">
-        <v>101.14</v>
-      </c>
-      <c r="H14" s="8">
-        <v>112.3</v>
-      </c>
-      <c r="I14" s="8">
-        <v>123.45</v>
-      </c>
-      <c r="J14" s="8">
-        <v>134.61000000000001</v>
-      </c>
-      <c r="K14" s="8">
-        <v>160.68</v>
-      </c>
-      <c r="M14" s="9">
-        <v>10</v>
-      </c>
-      <c r="N14" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O14" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P14" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R14" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S14" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T14" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U14" s="8">
-        <v>928</v>
-      </c>
-      <c r="V14" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W14" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>55.89</v>
-      </c>
-      <c r="C15" s="8">
-        <v>62.83</v>
-      </c>
-      <c r="D15" s="8">
-        <v>69.78</v>
-      </c>
-      <c r="E15" s="8">
-        <v>80.290000000000006</v>
-      </c>
-      <c r="F15" s="8">
-        <v>90.8</v>
-      </c>
-      <c r="G15" s="8">
-        <v>101.32</v>
-      </c>
-      <c r="H15" s="8">
-        <v>112.73</v>
-      </c>
-      <c r="I15" s="8">
-        <v>124.15</v>
-      </c>
-      <c r="J15" s="8">
-        <v>135.56</v>
-      </c>
-      <c r="K15" s="8">
-        <v>161.16</v>
-      </c>
-      <c r="M15" s="9">
-        <v>11</v>
-      </c>
-      <c r="N15" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O15" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P15" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R15" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S15" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T15" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U15" s="8">
-        <v>928</v>
-      </c>
-      <c r="V15" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W15" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8">
-        <v>55.53</v>
-      </c>
-      <c r="C16" s="8">
-        <v>63.11</v>
-      </c>
-      <c r="D16" s="8">
-        <v>70.7</v>
-      </c>
-      <c r="E16" s="8">
-        <v>80.97</v>
-      </c>
-      <c r="F16" s="8">
-        <v>91.23</v>
-      </c>
-      <c r="G16" s="8">
-        <v>101.49</v>
-      </c>
-      <c r="H16" s="8">
-        <v>113.17</v>
-      </c>
-      <c r="I16" s="8">
-        <v>124.84</v>
-      </c>
-      <c r="J16" s="8">
-        <v>136.51</v>
-      </c>
-      <c r="K16" s="8">
-        <v>161.63</v>
-      </c>
-      <c r="M16" s="9">
-        <v>12</v>
-      </c>
-      <c r="N16" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O16" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P16" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R16" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S16" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T16" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U16" s="8">
-        <v>928</v>
-      </c>
-      <c r="V16" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W16" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>55.16</v>
-      </c>
-      <c r="C17" s="8">
-        <v>63.4</v>
-      </c>
-      <c r="D17" s="8">
-        <v>71.63</v>
-      </c>
-      <c r="E17" s="8">
-        <v>81.64</v>
-      </c>
-      <c r="F17" s="8">
-        <v>91.66</v>
-      </c>
-      <c r="G17" s="8">
-        <v>101.67</v>
-      </c>
-      <c r="H17" s="8">
-        <v>113.6</v>
-      </c>
-      <c r="I17" s="8">
-        <v>125.53</v>
-      </c>
-      <c r="J17" s="8">
-        <v>137.46</v>
-      </c>
-      <c r="K17" s="8">
-        <v>162.11000000000001</v>
-      </c>
-      <c r="M17" s="9">
-        <v>13</v>
-      </c>
-      <c r="N17" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O17" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P17" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R17" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S17" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T17" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U17" s="8">
-        <v>928</v>
-      </c>
-      <c r="V17" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W17" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>54.8</v>
-      </c>
-      <c r="C18" s="8">
-        <v>63.68</v>
-      </c>
-      <c r="D18" s="8">
-        <v>72.56</v>
-      </c>
-      <c r="E18" s="8">
-        <v>82.32</v>
-      </c>
-      <c r="F18" s="8">
-        <v>92.08</v>
-      </c>
-      <c r="G18" s="8">
-        <v>101.84</v>
-      </c>
-      <c r="H18" s="8">
-        <v>114.03</v>
-      </c>
-      <c r="I18" s="8">
-        <v>126.22</v>
-      </c>
-      <c r="J18" s="8">
-        <v>138.41</v>
-      </c>
-      <c r="K18" s="8">
-        <v>162.58000000000001</v>
-      </c>
-      <c r="M18" s="9">
-        <v>14</v>
-      </c>
-      <c r="N18" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O18" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P18" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R18" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S18" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T18" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U18" s="8">
-        <v>928</v>
-      </c>
-      <c r="V18" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W18" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>54.44</v>
-      </c>
-      <c r="C19" s="8">
-        <v>63.96</v>
-      </c>
-      <c r="D19" s="8">
-        <v>73.489999999999995</v>
-      </c>
-      <c r="E19" s="8">
-        <v>83</v>
-      </c>
-      <c r="F19" s="8">
-        <v>92.51</v>
-      </c>
-      <c r="G19" s="8">
-        <v>102.02</v>
-      </c>
-      <c r="H19" s="8">
-        <v>114.46</v>
-      </c>
-      <c r="I19" s="8">
-        <v>126.91</v>
-      </c>
-      <c r="J19" s="8">
-        <v>139.36000000000001</v>
-      </c>
-      <c r="K19" s="8">
-        <v>163.05000000000001</v>
-      </c>
-      <c r="M19" s="9">
-        <v>15</v>
-      </c>
-      <c r="N19" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O19" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P19" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R19" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S19" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T19" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U19" s="8">
-        <v>928</v>
-      </c>
-      <c r="V19" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W19" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <v>54.08</v>
-      </c>
-      <c r="C20" s="8">
-        <v>64.25</v>
-      </c>
-      <c r="D20" s="8">
-        <v>74.41</v>
-      </c>
-      <c r="E20" s="8">
-        <v>83.67</v>
-      </c>
-      <c r="F20" s="8">
-        <v>92.93</v>
-      </c>
-      <c r="G20" s="8">
-        <v>102.19</v>
-      </c>
-      <c r="H20" s="8">
-        <v>114.9</v>
-      </c>
-      <c r="I20" s="8">
-        <v>127.6</v>
-      </c>
-      <c r="J20" s="8">
-        <v>140.31</v>
-      </c>
-      <c r="K20" s="8">
-        <v>163.53</v>
-      </c>
-      <c r="M20" s="9">
-        <v>16</v>
-      </c>
-      <c r="N20" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O20" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P20" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R20" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S20" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T20" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U20" s="8">
-        <v>928</v>
-      </c>
-      <c r="V20" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W20" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <v>53.72</v>
-      </c>
-      <c r="C21" s="8">
-        <v>64.53</v>
-      </c>
-      <c r="D21" s="8">
-        <v>75.34</v>
-      </c>
-      <c r="E21" s="8">
-        <v>84.35</v>
-      </c>
-      <c r="F21" s="8">
-        <v>93.36</v>
-      </c>
-      <c r="G21" s="8">
-        <v>102.36</v>
-      </c>
-      <c r="H21" s="8">
-        <v>115.33</v>
-      </c>
-      <c r="I21" s="8">
-        <v>128.29</v>
-      </c>
-      <c r="J21" s="8">
-        <v>141.26</v>
-      </c>
-      <c r="K21" s="8">
-        <v>164</v>
-      </c>
-      <c r="M21" s="9">
-        <v>17</v>
-      </c>
-      <c r="N21" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O21" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P21" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R21" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S21" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T21" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U21" s="8">
-        <v>928</v>
-      </c>
-      <c r="V21" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W21" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8">
-        <v>53.36</v>
-      </c>
-      <c r="C22" s="8">
-        <v>64.81</v>
-      </c>
-      <c r="D22" s="8">
-        <v>76.27</v>
-      </c>
-      <c r="E22" s="8">
-        <v>85.02</v>
-      </c>
-      <c r="F22" s="8">
-        <v>93.78</v>
-      </c>
-      <c r="G22" s="8">
-        <v>102.54</v>
-      </c>
-      <c r="H22" s="8">
-        <v>115.76</v>
-      </c>
-      <c r="I22" s="8">
-        <v>128.99</v>
-      </c>
-      <c r="J22" s="8">
-        <v>142.21</v>
-      </c>
-      <c r="K22" s="8">
-        <v>164.48</v>
-      </c>
-      <c r="M22" s="9">
-        <v>18</v>
-      </c>
-      <c r="N22" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O22" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P22" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R22" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S22" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T22" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U22" s="8">
-        <v>928</v>
-      </c>
-      <c r="V22" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W22" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="D23" s="8">
-        <v>77.2</v>
-      </c>
-      <c r="E23" s="8">
-        <v>85.7</v>
-      </c>
-      <c r="F23" s="8">
-        <v>94.21</v>
-      </c>
-      <c r="G23" s="8">
-        <v>102.71</v>
-      </c>
-      <c r="H23" s="8">
-        <v>116.19</v>
-      </c>
-      <c r="I23" s="8">
-        <v>129.68</v>
-      </c>
-      <c r="J23" s="8">
-        <v>143.16</v>
-      </c>
-      <c r="K23" s="8">
-        <v>164.95</v>
-      </c>
-      <c r="M23" s="9">
-        <v>19</v>
-      </c>
-      <c r="N23" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O23" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P23" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R23" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S23" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T23" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U23" s="8">
-        <v>928</v>
-      </c>
-      <c r="V23" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W23" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8">
-        <v>52.64</v>
-      </c>
-      <c r="C24" s="8">
-        <v>65.38</v>
-      </c>
-      <c r="D24" s="8">
-        <v>78.12</v>
-      </c>
-      <c r="E24" s="8">
-        <v>86.38</v>
-      </c>
-      <c r="F24" s="8">
-        <v>94.63</v>
-      </c>
-      <c r="G24" s="8">
-        <v>102.89</v>
-      </c>
-      <c r="H24" s="8">
-        <v>116.63</v>
-      </c>
-      <c r="I24" s="8">
-        <v>130.37</v>
-      </c>
-      <c r="J24" s="8">
-        <v>144.11000000000001</v>
-      </c>
-      <c r="K24" s="8">
-        <v>165.43</v>
-      </c>
-      <c r="M24" s="9">
-        <v>20</v>
-      </c>
-      <c r="N24" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O24" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P24" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R24" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S24" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T24" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U24" s="8">
-        <v>928</v>
-      </c>
-      <c r="V24" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W24" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8">
-        <v>52.28</v>
-      </c>
-      <c r="C25" s="8">
-        <v>65.66</v>
-      </c>
-      <c r="D25" s="8">
-        <v>79.05</v>
-      </c>
-      <c r="E25" s="8">
-        <v>87.05</v>
-      </c>
-      <c r="F25" s="8">
-        <v>95.06</v>
-      </c>
-      <c r="G25" s="8">
-        <v>103.06</v>
-      </c>
-      <c r="H25" s="8">
-        <v>117.06</v>
-      </c>
-      <c r="I25" s="8">
-        <v>131.06</v>
-      </c>
-      <c r="J25" s="8">
-        <v>145.06</v>
-      </c>
-      <c r="K25" s="8">
-        <v>165.9</v>
-      </c>
-      <c r="M25" s="9">
-        <v>21</v>
-      </c>
-      <c r="N25" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O25" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P25" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R25" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S25" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T25" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U25" s="8">
-        <v>928</v>
-      </c>
-      <c r="V25" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W25" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8">
-        <v>51.91</v>
-      </c>
-      <c r="C26" s="8">
-        <v>65.95</v>
-      </c>
-      <c r="D26" s="8">
-        <v>79.98</v>
-      </c>
-      <c r="E26" s="8">
-        <v>87.73</v>
-      </c>
-      <c r="F26" s="8">
-        <v>95.48</v>
-      </c>
-      <c r="G26" s="8">
-        <v>103.24</v>
-      </c>
-      <c r="H26" s="8">
-        <v>117.49</v>
-      </c>
-      <c r="I26" s="8">
-        <v>131.75</v>
-      </c>
-      <c r="J26" s="8">
-        <v>146.01</v>
-      </c>
-      <c r="K26" s="8">
-        <v>166.38</v>
-      </c>
-      <c r="M26" s="9">
-        <v>22</v>
-      </c>
-      <c r="N26" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O26" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P26" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R26" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S26" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T26" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U26" s="8">
-        <v>928</v>
-      </c>
-      <c r="V26" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W26" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8">
-        <v>51.55</v>
-      </c>
-      <c r="C27" s="8">
-        <v>66.23</v>
-      </c>
-      <c r="D27" s="8">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="E27" s="8">
-        <v>88.41</v>
-      </c>
-      <c r="F27" s="8">
-        <v>95.91</v>
-      </c>
-      <c r="G27" s="8">
-        <v>103.41</v>
-      </c>
-      <c r="H27" s="8">
-        <v>117.93</v>
-      </c>
-      <c r="I27" s="8">
-        <v>132.44</v>
-      </c>
-      <c r="J27" s="8">
-        <v>146.96</v>
-      </c>
-      <c r="K27" s="8">
-        <v>166.85</v>
-      </c>
-      <c r="M27" s="9">
-        <v>23</v>
-      </c>
-      <c r="N27" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O27" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P27" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R27" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S27" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T27" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U27" s="8">
-        <v>928</v>
-      </c>
-      <c r="V27" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W27" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8">
-        <v>51.19</v>
-      </c>
-      <c r="C28" s="8">
-        <v>66.510000000000005</v>
-      </c>
-      <c r="D28" s="8">
-        <v>81.83</v>
-      </c>
-      <c r="E28" s="8">
-        <v>89.08</v>
-      </c>
-      <c r="F28" s="8">
-        <v>96.33</v>
-      </c>
-      <c r="G28" s="8">
-        <v>103.58</v>
-      </c>
-      <c r="H28" s="8">
-        <v>118.36</v>
-      </c>
-      <c r="I28" s="8">
-        <v>133.13</v>
-      </c>
-      <c r="J28" s="8">
-        <v>147.91</v>
-      </c>
-      <c r="K28" s="8">
-        <v>167.33</v>
-      </c>
-      <c r="M28" s="9">
-        <v>24</v>
-      </c>
-      <c r="N28" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O28" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P28" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R28" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S28" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T28" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U28" s="8">
-        <v>928</v>
-      </c>
-      <c r="V28" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W28" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="8">
-        <v>50.83</v>
-      </c>
-      <c r="C29" s="8">
-        <v>66.8</v>
-      </c>
-      <c r="D29" s="8">
-        <v>82.76</v>
-      </c>
-      <c r="E29" s="8">
-        <v>89.76</v>
-      </c>
-      <c r="F29" s="8">
-        <v>96.76</v>
-      </c>
-      <c r="G29" s="8">
-        <v>103.76</v>
-      </c>
-      <c r="H29" s="8">
-        <v>118.79</v>
-      </c>
-      <c r="I29" s="8">
-        <v>133.82</v>
-      </c>
-      <c r="J29" s="8">
-        <v>148.86000000000001</v>
-      </c>
-      <c r="K29" s="8">
-        <v>167.8</v>
-      </c>
-      <c r="M29" s="9">
-        <v>25</v>
-      </c>
-      <c r="N29" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O29" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P29" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R29" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S29" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T29" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U29" s="8">
-        <v>928</v>
-      </c>
-      <c r="V29" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W29" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="8">
-        <v>50.47</v>
-      </c>
-      <c r="C30" s="8">
-        <v>67.08</v>
-      </c>
-      <c r="D30" s="8">
-        <v>83.69</v>
-      </c>
-      <c r="E30" s="8">
-        <v>90.44</v>
-      </c>
-      <c r="F30" s="8">
-        <v>97.18</v>
-      </c>
-      <c r="G30" s="8">
-        <v>103.93</v>
-      </c>
-      <c r="H30" s="8">
-        <v>119.22</v>
-      </c>
-      <c r="I30" s="8">
-        <v>134.52000000000001</v>
-      </c>
-      <c r="J30" s="8">
-        <v>149.81</v>
-      </c>
-      <c r="K30" s="8">
-        <v>168.28</v>
-      </c>
-      <c r="M30" s="9">
-        <v>26</v>
-      </c>
-      <c r="N30" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O30" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P30" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R30" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S30" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T30" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U30" s="8">
-        <v>928</v>
-      </c>
-      <c r="V30" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W30" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="8">
-        <v>50.11</v>
-      </c>
-      <c r="C31" s="8">
-        <v>67.36</v>
-      </c>
-      <c r="D31" s="8">
-        <v>84.61</v>
-      </c>
-      <c r="E31" s="8">
-        <v>91.11</v>
-      </c>
-      <c r="F31" s="8">
-        <v>97.61</v>
-      </c>
-      <c r="G31" s="8">
-        <v>104.11</v>
-      </c>
-      <c r="H31" s="8">
-        <v>119.66</v>
-      </c>
-      <c r="I31" s="8">
-        <v>135.21</v>
-      </c>
-      <c r="J31" s="8">
-        <v>150.76</v>
-      </c>
-      <c r="K31" s="8">
-        <v>168.75</v>
-      </c>
-      <c r="M31" s="9">
-        <v>27</v>
-      </c>
-      <c r="N31" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O31" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P31" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R31" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S31" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T31" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U31" s="8">
-        <v>928</v>
-      </c>
-      <c r="V31" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W31" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>28</v>
-      </c>
-      <c r="B32" s="8">
-        <v>49.75</v>
-      </c>
-      <c r="C32" s="8">
-        <v>67.64</v>
-      </c>
-      <c r="D32" s="8">
-        <v>85.54</v>
-      </c>
-      <c r="E32" s="8">
-        <v>91.79</v>
-      </c>
-      <c r="F32" s="8">
-        <v>98.03</v>
-      </c>
-      <c r="G32" s="8">
-        <v>104.28</v>
-      </c>
-      <c r="H32" s="8">
-        <v>120.09</v>
-      </c>
-      <c r="I32" s="8">
-        <v>135.9</v>
-      </c>
-      <c r="J32" s="8">
-        <v>151.71</v>
-      </c>
-      <c r="K32" s="8">
-        <v>169.23</v>
-      </c>
-      <c r="M32" s="9">
-        <v>28</v>
-      </c>
-      <c r="N32" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O32" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P32" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R32" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S32" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T32" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U32" s="8">
-        <v>928</v>
-      </c>
-      <c r="V32" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W32" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="8">
-        <v>49.39</v>
-      </c>
-      <c r="C33" s="8">
-        <v>67.930000000000007</v>
-      </c>
-      <c r="D33" s="8">
-        <v>86.47</v>
-      </c>
-      <c r="E33" s="8">
-        <v>92.46</v>
-      </c>
-      <c r="F33" s="8">
-        <v>98.46</v>
-      </c>
-      <c r="G33" s="8">
-        <v>104.46</v>
-      </c>
-      <c r="H33" s="8">
-        <v>120.52</v>
-      </c>
-      <c r="I33" s="8">
-        <v>136.59</v>
-      </c>
-      <c r="J33" s="8">
-        <v>152.66</v>
-      </c>
-      <c r="K33" s="8">
-        <v>169.7</v>
-      </c>
-      <c r="M33" s="9">
-        <v>29</v>
-      </c>
-      <c r="N33" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O33" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P33" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R33" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S33" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T33" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U33" s="8">
-        <v>928</v>
-      </c>
-      <c r="V33" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W33" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="8">
-        <v>49.03</v>
-      </c>
-      <c r="C34" s="8">
-        <v>68.209999999999994</v>
-      </c>
-      <c r="D34" s="8">
-        <v>87.4</v>
-      </c>
-      <c r="E34" s="8">
-        <v>93.14</v>
-      </c>
-      <c r="F34" s="8">
-        <v>98.89</v>
-      </c>
-      <c r="G34" s="8">
-        <v>104.63</v>
-      </c>
-      <c r="H34" s="8">
-        <v>120.96</v>
-      </c>
-      <c r="I34" s="8">
-        <v>137.28</v>
-      </c>
-      <c r="J34" s="8">
-        <v>153.61000000000001</v>
-      </c>
-      <c r="K34" s="8">
-        <v>170.18</v>
-      </c>
-      <c r="M34" s="9">
-        <v>30</v>
-      </c>
-      <c r="N34" s="8">
-        <v>186.75</v>
-      </c>
-      <c r="O34" s="8">
-        <v>238.81</v>
-      </c>
-      <c r="P34" s="8">
-        <v>290.86</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>342.92</v>
-      </c>
-      <c r="R34" s="8">
-        <v>394.97</v>
-      </c>
-      <c r="S34" s="8">
-        <v>572.65</v>
-      </c>
-      <c r="T34" s="8">
-        <v>750.32</v>
-      </c>
-      <c r="U34" s="8">
-        <v>928</v>
-      </c>
-      <c r="V34" s="8">
-        <v>1105.68</v>
-      </c>
-      <c r="W34" s="8">
-        <v>1283.3499999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8">
-        <v>49.262333333333331</v>
-      </c>
-      <c r="C35" s="8">
-        <v>59.229666666666667</v>
-      </c>
-      <c r="D35" s="8">
-        <v>69.197333333333333</v>
-      </c>
-      <c r="E35" s="8">
-        <v>77.86999999999999</v>
-      </c>
-      <c r="F35" s="8">
-        <v>86.544000000000011</v>
-      </c>
-      <c r="G35" s="8">
-        <v>95.217000000000027</v>
-      </c>
-      <c r="H35" s="8">
-        <v>108.02966666666664</v>
-      </c>
-      <c r="I35" s="8">
-        <v>120.84200000000001</v>
-      </c>
-      <c r="J35" s="8">
-        <v>133.65600000000003</v>
-      </c>
-      <c r="K35" s="8">
-        <v>160.203</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N35" s="10">
-        <v>186.75</v>
-      </c>
-      <c r="O35" s="10">
-        <v>238.81000000000014</v>
-      </c>
-      <c r="P35" s="10">
-        <v>290.8599999999999</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>342.92</v>
-      </c>
-      <c r="R35" s="10">
-        <v>394.96999999999991</v>
-      </c>
-      <c r="S35" s="10">
-        <v>572.64999999999986</v>
-      </c>
-      <c r="T35" s="10">
-        <v>750.31999999999982</v>
-      </c>
-      <c r="U35" s="10">
-        <v>928</v>
-      </c>
-      <c r="V35" s="10">
-        <v>1105.68</v>
-      </c>
-      <c r="W35" s="10">
-        <v>1283.3499999999992</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="N2:W2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>